--- a/xlsx/政策_政策_加州_intext.xlsx
+++ b/xlsx/政策_政策_加州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1052">
   <si>
     <t>加州</t>
   </si>
@@ -3171,1152 +3171,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://af.wikipedia.org/wiki/Kaliforni%C3%AB</t>
-  </si>
-  <si>
-    <t>Kalifornië – 南非荷兰语</t>
-  </si>
-  <si>
-    <t>https://als.wikipedia.org/wiki/Kalifornien</t>
-  </si>
-  <si>
-    <t>Kalifornien – Alemannisch</t>
-  </si>
-  <si>
-    <t>https://am.wikipedia.org/wiki/%E1%8A%AB%E1%88%8A%E1%8D%8E%E1%88%AD%E1%8A%92%E1%8B%AB</t>
-  </si>
-  <si>
-    <t>ካሊፎርኒያ – 阿姆哈拉语</t>
-  </si>
-  <si>
-    <t>https://an.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 阿拉贡语</t>
-  </si>
-  <si>
-    <t>https://ang.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 古英语</t>
-  </si>
-  <si>
-    <t>https://ar.wikipedia.org/wiki/%D9%83%D8%A7%D9%84%D9%8A%D9%81%D9%88%D8%B1%D9%86%D9%8A%D8%A7</t>
-  </si>
-  <si>
-    <t>كاليفورنيا – 阿拉伯语</t>
-  </si>
-  <si>
-    <t>https://arz.wikipedia.org/wiki/%D9%83%D8%A7%D9%84%D9%8A%D9%81%D9%88%D8%B1%D9%86%D9%8A%D8%A7</t>
-  </si>
-  <si>
-    <t>كاليفورنيا – Egyptian Arabic</t>
-  </si>
-  <si>
-    <t>https://ast.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 阿斯图里亚斯语</t>
-  </si>
-  <si>
-    <t>https://ay.wikipedia.org/wiki/California_suyu</t>
-  </si>
-  <si>
-    <t>California suyu – 艾马拉语</t>
-  </si>
-  <si>
-    <t>https://az.wikipedia.org/wiki/Kaliforniya</t>
-  </si>
-  <si>
-    <t>Kaliforniya – 阿塞拜疆语</t>
-  </si>
-  <si>
-    <t>https://azb.wikipedia.org/wiki/%DA%A9%D8%A7%D9%84%DB%8C%D9%81%D9%88%D8%B1%D9%86%DB%8C%D8%A7_%D8%A7%DB%8C%D8%A7%D9%84%D8%AA%DB%8C</t>
-  </si>
-  <si>
-    <t>کالیفورنیا ایالتی – South Azerbaijani</t>
-  </si>
-  <si>
-    <t>https://ba.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F</t>
-  </si>
-  <si>
-    <t>Калифорния – 巴什基尔语</t>
-  </si>
-  <si>
-    <t>https://bar.wikipedia.org/wiki/Kalifornien</t>
-  </si>
-  <si>
-    <t>Kalifornien – Bavarian</t>
-  </si>
-  <si>
-    <t>https://bat-smg.wikipedia.org/wiki/Kal%C4%97fuorn%C4%97j%C4%97</t>
-  </si>
-  <si>
-    <t>Kalėfuornėjė – Samogitian</t>
-  </si>
-  <si>
-    <t>https://bcl.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – Central Bikol</t>
-  </si>
-  <si>
-    <t>https://be.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D1%96%D1%84%D0%BE%D1%80%D0%BD%D1%96%D1%8F</t>
-  </si>
-  <si>
-    <t>Каліфорнія – 白俄罗斯语</t>
-  </si>
-  <si>
-    <t>https://be-x-old.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D1%96%D1%84%D0%BE%D1%80%D0%BD%D1%96%D1%8F</t>
-  </si>
-  <si>
-    <t>Каліфорнія – Belarusian (Taraškievica orthography)</t>
-  </si>
-  <si>
-    <t>https://bg.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F</t>
-  </si>
-  <si>
-    <t>Калифорния – 保加利亚语</t>
-  </si>
-  <si>
-    <t>https://bh.wikipedia.org/wiki/%E0%A4%95%E0%A5%88%E0%A4%B2%E0%A4%BF%E0%A4%AB%E0%A5%8B%E0%A4%B0%E0%A5%8D%E0%A4%A8%E0%A4%BF%E0%A4%AF%E0%A4%BE</t>
-  </si>
-  <si>
-    <t>कैलिफोर्निया – Bhojpuri</t>
-  </si>
-  <si>
-    <t>https://bi.wikipedia.org/wiki/Kalifornia</t>
-  </si>
-  <si>
-    <t>Kalifornia – 比斯拉马语</t>
-  </si>
-  <si>
-    <t>https://bn.wikipedia.org/wiki/%E0%A6%95%E0%A7%8D%E0%A6%AF%E0%A6%BE%E0%A6%B2%E0%A6%BF%E0%A6%AB%E0%A7%8B%E0%A6%B0%E0%A7%8D%E0%A6%A8%E0%A6%BF%E0%A6%AF%E0%A6%BC%E0%A6%BE</t>
-  </si>
-  <si>
-    <t>ক্যালিফোর্নিয়া – 孟加拉语</t>
-  </si>
-  <si>
-    <t>https://bo.wikipedia.org/wiki/%E0%BD%81%E0%BE%B0%E0%BC%8B%E0%BD%A3%E0%BD%BA%E0%BC%8B%E0%BD%A7%E0%BE%A5%E0%BD%BC%E0%BD%A2%E0%BC%8B%E0%BD%93%E0%BD%B2%E0%BC%8B%E0%BD%A1%E0%BC%8D</t>
-  </si>
-  <si>
-    <t>ཁྰ་ལེ་ཧྥོར་ནི་ཡ། – 藏语</t>
-  </si>
-  <si>
-    <t>https://bpy.wikipedia.org/wiki/%E0%A6%95%E0%A7%8D%E0%A6%AF%E0%A6%BE%E0%A6%B2%E0%A6%BF%E0%A6%AB%E0%A7%8B%E0%A6%B0%E0%A7%8D%E0%A6%A8%E0%A6%BF%E0%A6%AF%E0%A6%BC%E0%A6%BE</t>
-  </si>
-  <si>
-    <t>ক্যালিফোর্নিয়া – Bishnupriya</t>
-  </si>
-  <si>
-    <t>https://br.wikipedia.org/wiki/Kalifornia</t>
-  </si>
-  <si>
-    <t>Kalifornia – 布列塔尼语</t>
-  </si>
-  <si>
-    <t>https://bs.wikipedia.org/wiki/Kalifornija</t>
-  </si>
-  <si>
-    <t>Kalifornija – 波斯尼亚语</t>
-  </si>
-  <si>
-    <t>https://bxr.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8</t>
-  </si>
-  <si>
-    <t>Калифорни – Russia Buriat</t>
-  </si>
-  <si>
-    <t>https://ca.wikipedia.org/wiki/Calif%C3%B2rnia</t>
-  </si>
-  <si>
-    <t>Califòrnia – 加泰罗尼亚语</t>
-  </si>
-  <si>
-    <t>https://cbk-zam.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – Chavacano</t>
-  </si>
-  <si>
-    <t>https://cdo.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – Min Dong Chinese</t>
-  </si>
-  <si>
-    <t>https://ce.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8</t>
-  </si>
-  <si>
-    <t>Калифорни – 车臣语</t>
-  </si>
-  <si>
-    <t>https://ceb.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 宿务语</t>
-  </si>
-  <si>
-    <t>https://chy.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 夏延语</t>
-  </si>
-  <si>
-    <t>https://ckb.wikipedia.org/wiki/%DA%A9%D8%A7%D9%84%DB%8C%D9%81%DB%86%D8%B1%D9%86%DB%8C%D8%A7</t>
-  </si>
-  <si>
-    <t>کالیفۆرنیا – 中库尔德语</t>
-  </si>
-  <si>
-    <t>https://co.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 科西嘉语</t>
-  </si>
-  <si>
-    <t>https://cs.wikipedia.org/wiki/Kalifornie</t>
-  </si>
-  <si>
-    <t>Kalifornie – 捷克语</t>
-  </si>
-  <si>
-    <t>https://cv.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8</t>
-  </si>
-  <si>
-    <t>Калифорни – 楚瓦什语</t>
-  </si>
-  <si>
-    <t>https://cy.wikipedia.org/wiki/Califfornia</t>
-  </si>
-  <si>
-    <t>Califfornia – 威尔士语</t>
-  </si>
-  <si>
-    <t>https://da.wikipedia.org/wiki/Californien</t>
-  </si>
-  <si>
-    <t>Californien – 丹麦语</t>
-  </si>
-  <si>
-    <t>https://de.wikipedia.org/wiki/Kalifornien</t>
-  </si>
-  <si>
-    <t>Kalifornien – 德语</t>
-  </si>
-  <si>
-    <t>https://diq.wikipedia.org/wiki/Kaliforniya</t>
-  </si>
-  <si>
-    <t>Kaliforniya – Zazaki</t>
-  </si>
-  <si>
-    <t>https://dsb.wikipedia.org/wiki/Kaliforniska</t>
-  </si>
-  <si>
-    <t>Kaliforniska – 下索布语</t>
-  </si>
-  <si>
-    <t>https://el.wikipedia.org/wiki/%CE%9A%CE%B1%CE%BB%CE%B9%CF%86%CF%8C%CF%81%CE%BD%CE%B9%CE%B1</t>
-  </si>
-  <si>
-    <t>Καλιφόρνια – 希腊语</t>
-  </si>
-  <si>
-    <t>https://eml.wikipedia.org/wiki/Calif%C3%B2rgna</t>
-  </si>
-  <si>
-    <t>Califòrgna – Emiliano-Romagnolo</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 英语</t>
-  </si>
-  <si>
-    <t>https://eo.wikipedia.org/wiki/Kalifornio</t>
-  </si>
-  <si>
-    <t>Kalifornio – 世界语</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 西班牙语</t>
-  </si>
-  <si>
-    <t>https://et.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 爱沙尼亚语</t>
-  </si>
-  <si>
-    <t>https://eu.wikipedia.org/wiki/Kalifornia</t>
-  </si>
-  <si>
-    <t>Kalifornia – 巴斯克语</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%DA%A9%D8%A7%D9%84%DB%8C%D9%81%D8%B1%D9%86%DB%8C%D8%A7</t>
-  </si>
-  <si>
-    <t>کالیفرنیا – 波斯语</t>
-  </si>
-  <si>
-    <t>https://fi.wikipedia.org/wiki/Kalifornia</t>
-  </si>
-  <si>
-    <t>Kalifornia – 芬兰语</t>
-  </si>
-  <si>
-    <t>https://fo.wikipedia.org/wiki/Kalifornia</t>
-  </si>
-  <si>
-    <t>Kalifornia – 法罗语</t>
-  </si>
-  <si>
-    <t>https://fr.wikipedia.org/wiki/Californie</t>
-  </si>
-  <si>
-    <t>Californie – 法语</t>
-  </si>
-  <si>
-    <t>https://frp.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – Arpitan</t>
-  </si>
-  <si>
-    <t>https://frr.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 北弗里西亚语</t>
-  </si>
-  <si>
-    <t>https://fy.wikipedia.org/wiki/Kalifornje</t>
-  </si>
-  <si>
-    <t>Kalifornje – 西弗里西亚语</t>
-  </si>
-  <si>
-    <t>https://ga.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 爱尔兰语</t>
-  </si>
-  <si>
-    <t>https://gag.wikipedia.org/wiki/Kaliforniya</t>
-  </si>
-  <si>
-    <t>Kaliforniya – 加告兹语</t>
-  </si>
-  <si>
-    <t>https://gan.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亞州 – 赣语</t>
-  </si>
-  <si>
-    <t>https://gd.wikipedia.org/wiki/Calaf%C3%B2rnia</t>
-  </si>
-  <si>
-    <t>Calafòrnia – 苏格兰盖尔语</t>
-  </si>
-  <si>
-    <t>https://gl.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 加利西亚语</t>
-  </si>
-  <si>
-    <t>https://gn.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 瓜拉尼语</t>
-  </si>
-  <si>
-    <t>https://gu.wikipedia.org/wiki/%E0%AA%95%E0%AB%87%E0%AA%B2%E0%AA%BF%E0%AA%AB%E0%AB%8B%E0%AA%B0%E0%AB%8D%E0%AA%A8%E0%AA%BF%E0%AA%AF%E0%AA%BE</t>
-  </si>
-  <si>
-    <t>કેલિફોર્નિયા – 古吉拉特语</t>
-  </si>
-  <si>
-    <t>https://gv.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 马恩语</t>
-  </si>
-  <si>
-    <t>https://hak.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 客家语</t>
-  </si>
-  <si>
-    <t>https://haw.wikipedia.org/wiki/Kaleponi</t>
-  </si>
-  <si>
-    <t>Kaleponi – 夏威夷语</t>
-  </si>
-  <si>
-    <t>https://he.wikipedia.org/wiki/%D7%A7%D7%9C%D7%99%D7%A4%D7%95%D7%A8%D7%A0%D7%99%D7%94</t>
-  </si>
-  <si>
-    <t>קליפורניה – 希伯来语</t>
-  </si>
-  <si>
-    <t>https://hi.wikipedia.org/wiki/%E0%A4%95%E0%A5%88%E0%A4%B2%E0%A4%BF%E0%A4%AB%E0%A4%BC%E0%A5%8B%E0%A4%B0%E0%A5%8D%E0%A4%A8%E0%A4%BF%E0%A4%AF%E0%A4%BE</t>
-  </si>
-  <si>
-    <t>कैलिफ़ोर्निया – 印地语</t>
-  </si>
-  <si>
-    <t>https://hif.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – Fiji Hindi</t>
-  </si>
-  <si>
-    <t>https://hr.wikipedia.org/wiki/Kalifornija</t>
-  </si>
-  <si>
-    <t>Kalifornija – 克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://hsb.wikipedia.org/wiki/Kaliforniska</t>
-  </si>
-  <si>
-    <t>Kaliforniska – 上索布语</t>
-  </si>
-  <si>
-    <t>https://ht.wikipedia.org/wiki/Kalif%C3%B2ni</t>
-  </si>
-  <si>
-    <t>Kalifòni – 海地克里奥尔语</t>
-  </si>
-  <si>
-    <t>https://hu.wikipedia.org/wiki/Kalifornia</t>
-  </si>
-  <si>
-    <t>Kalifornia – 匈牙利语</t>
-  </si>
-  <si>
-    <t>https://hy.wikipedia.org/wiki/%D4%BF%D5%A1%D5%AC%D5%AB%D6%86%D5%B8%D5%BC%D5%B6%D5%AB%D5%A1</t>
-  </si>
-  <si>
-    <t>Կալիֆոռնիա – 亚美尼亚语</t>
-  </si>
-  <si>
-    <t>https://ia.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 国际语</t>
-  </si>
-  <si>
-    <t>https://id.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 印度尼西亚语</t>
-  </si>
-  <si>
-    <t>https://ie.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 国际文字（E）</t>
-  </si>
-  <si>
-    <t>https://ig.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 伊博语</t>
-  </si>
-  <si>
-    <t>https://ik.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 伊努皮克语</t>
-  </si>
-  <si>
-    <t>https://ilo.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 伊洛卡诺语</t>
-  </si>
-  <si>
-    <t>https://io.wikipedia.org/wiki/Kalifornia</t>
-  </si>
-  <si>
-    <t>Kalifornia – 伊多语</t>
-  </si>
-  <si>
-    <t>https://is.wikipedia.org/wiki/Kaliforn%C3%ADa</t>
-  </si>
-  <si>
-    <t>Kalifornía – 冰岛语</t>
-  </si>
-  <si>
-    <t>https://it.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 意大利语</t>
-  </si>
-  <si>
-    <t>https://iu.wikipedia.org/wiki/%E1%91%B3%E1%93%96%E1%90%B4%E1%95%90%E1%93%83%E1%90%8A</t>
-  </si>
-  <si>
-    <t>ᑳᓖᐴᕐᓃᐊ – 因纽特语</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E3%82%AB%E3%83%AA%E3%83%95%E3%82%A9%E3%83%AB%E3%83%8B%E3%82%A2%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>カリフォルニア州 – 日语</t>
-  </si>
-  <si>
-    <t>https://jbo.wikipedia.org/wiki/kalifornias</t>
-  </si>
-  <si>
-    <t>kalifornias – 逻辑语</t>
-  </si>
-  <si>
-    <t>https://jv.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 爪哇语</t>
-  </si>
-  <si>
-    <t>https://ka.wikipedia.org/wiki/%E1%83%99%E1%83%90%E1%83%9A%E1%83%98%E1%83%A4%E1%83%9D%E1%83%A0%E1%83%9C%E1%83%98%E1%83%90</t>
-  </si>
-  <si>
-    <t>კალიფორნია – 格鲁吉亚语</t>
-  </si>
-  <si>
-    <t>https://kaa.wikipedia.org/wiki/Kaliforniya_shtati</t>
-  </si>
-  <si>
-    <t>Kaliforniya shtati – 卡拉卡尔帕克语</t>
-  </si>
-  <si>
-    <t>https://kab.wikipedia.org/wiki/Kalifurnya</t>
-  </si>
-  <si>
-    <t>Kalifurnya – 卡拜尔语</t>
-  </si>
-  <si>
-    <t>https://kk.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F</t>
-  </si>
-  <si>
-    <t>Калифорния – 哈萨克语</t>
-  </si>
-  <si>
-    <t>https://kn.wikipedia.org/wiki/%E0%B2%95%E0%B3%8D%E0%B2%AF%E0%B2%BE%E0%B2%B2%E0%B2%BF%E0%B2%AB%E0%B3%8A%E0%B2%B0%E0%B3%8D%E0%B2%A8%E0%B2%BF%E0%B2%AF</t>
-  </si>
-  <si>
-    <t>ಕ್ಯಾಲಿಫೊರ್ನಿಯ – 卡纳达语</t>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EC%BA%98%EB%A6%AC%ED%8F%AC%EB%8B%88%EC%95%84_%EC%A3%BC</t>
-  </si>
-  <si>
-    <t>캘리포니아 주 – 韩语</t>
-  </si>
-  <si>
-    <t>https://krc.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F</t>
-  </si>
-  <si>
-    <t>Калифорния – 卡拉恰伊巴尔卡尔语</t>
-  </si>
-  <si>
-    <t>https://ku.wikipedia.org/wiki/Kal%C3%AEforniya</t>
-  </si>
-  <si>
-    <t>Kalîforniya – 库尔德语</t>
-  </si>
-  <si>
-    <t>https://kw.wikipedia.org/wiki/Kaliforni</t>
-  </si>
-  <si>
-    <t>Kaliforni – 康沃尔语</t>
-  </si>
-  <si>
-    <t>https://la.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 拉丁语</t>
-  </si>
-  <si>
-    <t>https://lad.wikipedia.org/wiki/Kalifornia</t>
-  </si>
-  <si>
-    <t>Kalifornia – 拉迪诺语</t>
-  </si>
-  <si>
-    <t>https://lb.wikipedia.org/wiki/Kalifornien</t>
-  </si>
-  <si>
-    <t>Kalifornien – 卢森堡语</t>
-  </si>
-  <si>
-    <t>https://li.wikipedia.org/wiki/Californi%C3%AB</t>
-  </si>
-  <si>
-    <t>Californië – 林堡语</t>
-  </si>
-  <si>
-    <t>https://lij.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – Ligurian</t>
-  </si>
-  <si>
-    <t>https://lmo.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – Lombard</t>
-  </si>
-  <si>
-    <t>https://lrc.wikipedia.org/wiki/%DA%A9%D8%A7%D9%84%D9%8A%D9%81%D9%88%D8%B1%D9%86%D9%8A%D8%A7</t>
-  </si>
-  <si>
-    <t>کاليفورنيا – 北卢尔语</t>
-  </si>
-  <si>
-    <t>https://lt.wikipedia.org/wiki/Kalifornija</t>
-  </si>
-  <si>
-    <t>Kalifornija – 立陶宛语</t>
-  </si>
-  <si>
-    <t>https://lv.wikipedia.org/wiki/Kalifornija</t>
-  </si>
-  <si>
-    <t>Kalifornija – 拉脱维亚语</t>
-  </si>
-  <si>
-    <t>https://mai.wikipedia.org/wiki/%E0%A4%95%E0%A5%8D%E0%A4%AF%E0%A4%BE%E0%A4%B2%E0%A4%BF%E0%A4%AB%E0%A5%8B%E0%A4%B0%E0%A5%8D%E0%A4%A8%E0%A4%BF%E0%A4%AF%E0%A4%BE</t>
-  </si>
-  <si>
-    <t>क्यालिफोर्निया – 迈蒂利语</t>
-  </si>
-  <si>
-    <t>https://mg.wikipedia.org/wiki/Kalifornia</t>
-  </si>
-  <si>
-    <t>Kalifornia – 马拉加斯语</t>
-  </si>
-  <si>
-    <t>https://mhr.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D0%B9</t>
-  </si>
-  <si>
-    <t>Калифорний – Eastern Mari</t>
-  </si>
-  <si>
-    <t>https://mi.wikipedia.org/wiki/Karap%C5%8Dnia</t>
-  </si>
-  <si>
-    <t>Karapōnia – 毛利语</t>
-  </si>
-  <si>
-    <t>https://mk.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%98%D0%B0</t>
-  </si>
-  <si>
-    <t>Калифорнија – 马其顿语</t>
-  </si>
-  <si>
-    <t>https://ml.wikipedia.org/wiki/%E0%B4%95%E0%B4%BE%E0%B4%B2%E0%B4%BF%E0%B4%AB%E0%B5%8B%E0%B5%BC%E0%B4%A3%E0%B4%BF%E0%B4%AF</t>
-  </si>
-  <si>
-    <t>കാലിഫോർണിയ – 马拉雅拉姆语</t>
-  </si>
-  <si>
-    <t>https://mn.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8</t>
-  </si>
-  <si>
-    <t>Калифорни – 蒙古语</t>
-  </si>
-  <si>
-    <t>https://mo.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F</t>
-  </si>
-  <si>
-    <t>Калифорния – молдовеняскэ</t>
-  </si>
-  <si>
-    <t>https://mr.wikipedia.org/wiki/%E0%A4%95%E0%A5%85%E0%A4%B2%E0%A4%BF%E0%A4%AB%E0%A5%8B%E0%A4%B0%E0%A5%8D%E0%A4%A8%E0%A4%BF%E0%A4%AF%E0%A4%BE</t>
-  </si>
-  <si>
-    <t>कॅलिफोर्निया – 马拉地语</t>
-  </si>
-  <si>
-    <t>https://mrj.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8</t>
-  </si>
-  <si>
-    <t>Калифорни – Western Mari</t>
-  </si>
-  <si>
-    <t>https://ms.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 马来语</t>
-  </si>
-  <si>
-    <t>https://my.wikipedia.org/wiki/%E1%80%80%E1%80%9A%E1%80%BA%E1%80%9C%E1%80%AE%E1%80%96%E1%80%AD%E1%80%AF%E1%80%B8%E1%80%94%E1%80%AE%E1%80%B8%E1%80%9A%E1%80%AC%E1%80%B8%E1%80%95%E1%80%BC%E1%80%8A%E1%80%BA%E1%80%94%E1%80%9A%E1%80%BA</t>
-  </si>
-  <si>
-    <t>ကယ်လီဖိုးနီးယားပြည်နယ် – 缅甸语</t>
-  </si>
-  <si>
-    <t>https://mzn.wikipedia.org/wiki/%DA%A9%D8%A7%D9%84%DB%8C%D9%81%D8%B1%D9%86%DB%8C%D8%A7</t>
-  </si>
-  <si>
-    <t>کالیفرنیا – 马赞德兰语</t>
-  </si>
-  <si>
-    <t>https://na.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 瑙鲁语</t>
-  </si>
-  <si>
-    <t>https://nah.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – Nāhuatl</t>
-  </si>
-  <si>
-    <t>https://nds.wikipedia.org/wiki/Kalifornien</t>
-  </si>
-  <si>
-    <t>Kalifornien – 低地德语</t>
-  </si>
-  <si>
-    <t>https://nds-nl.wikipedia.org/wiki/Kaliforni%C3%AB</t>
-  </si>
-  <si>
-    <t>Kalifornië – 低萨克森语</t>
-  </si>
-  <si>
-    <t>https://ne.wikipedia.org/wiki/%E0%A4%95%E0%A5%8D%E0%A4%AF%E0%A4%BE%E0%A4%B2%E0%A4%BF%E0%A4%AB%E0%A5%8B%E0%A4%B0%E0%A5%8D%E0%A4%A8%E0%A4%BF%E0%A4%AF%E0%A4%BE</t>
-  </si>
-  <si>
-    <t>क्यालिफोर्निया – 尼泊尔语</t>
-  </si>
-  <si>
-    <t>https://new.wikipedia.org/wiki/%E0%A4%95%E0%A5%8D%E0%A4%AF%E0%A4%BE%E0%A4%B2%E0%A4%BF%E0%A4%AB%E0%A5%8B%E0%A4%B0%E0%A5%8D%E0%A4%A8%E0%A4%BF%E0%A4%AF%E0%A4%BE</t>
-  </si>
-  <si>
-    <t>क्यालिफोर्निया – 尼瓦尔语</t>
-  </si>
-  <si>
-    <t>https://nl.wikipedia.org/wiki/Californi%C3%AB</t>
-  </si>
-  <si>
-    <t>Californië – 荷兰语</t>
-  </si>
-  <si>
-    <t>https://nn.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 挪威尼诺斯克语</t>
-  </si>
-  <si>
-    <t>https://no.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 挪威语</t>
-  </si>
-  <si>
-    <t>https://nv.wikipedia.org/wiki/Ah%C3%A9%C3%A9h%C3%A1sh%C4%AF%CC%81%C4%AF%CC%81h_Hahoodzo</t>
-  </si>
-  <si>
-    <t>Ahééháshį́į́h Hahoodzo – 纳瓦霍语</t>
-  </si>
-  <si>
-    <t>https://oc.wikipedia.org/wiki/Calif%C3%B2rnia</t>
-  </si>
-  <si>
-    <t>Califòrnia – 奥克语</t>
-  </si>
-  <si>
-    <t>https://os.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8</t>
-  </si>
-  <si>
-    <t>Калифорни – 奥塞梯语</t>
-  </si>
-  <si>
-    <t>https://pa.wikipedia.org/wiki/%E0%A8%95%E0%A9%88%E0%A8%B2%E0%A9%80%E0%A8%AB%E0%A8%BC%E0%A9%8B%E0%A8%B0%E0%A8%A8%E0%A9%80%E0%A8%86</t>
-  </si>
-  <si>
-    <t>ਕੈਲੀਫ਼ੋਰਨੀਆ – 旁遮普语</t>
-  </si>
-  <si>
-    <t>https://pag.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 邦阿西南语</t>
-  </si>
-  <si>
-    <t>https://pam.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 邦板牙语</t>
-  </si>
-  <si>
-    <t>https://pap.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 帕皮阿门托语</t>
-  </si>
-  <si>
-    <t>https://pcd.wikipedia.org/wiki/Californie</t>
-  </si>
-  <si>
-    <t>Californie – Picard</t>
-  </si>
-  <si>
-    <t>https://pdc.wikipedia.org/wiki/Kalifornie</t>
-  </si>
-  <si>
-    <t>Kalifornie – Pennsylvania German</t>
-  </si>
-  <si>
-    <t>https://pi.wikipedia.org/wiki/%E0%A4%95%E0%A5%8D%E0%A4%AF%E0%A4%BE%E0%A4%B2%E0%A4%BF%E0%A4%AB%E0%A5%8B%E0%A4%B0%E0%A5%8D%E0%A4%A8%E0%A4%BF%E0%A4%AF%E0%A4%BE</t>
-  </si>
-  <si>
-    <t>क्यालिफोर्निया – 巴利语</t>
-  </si>
-  <si>
-    <t>https://pl.wikipedia.org/wiki/Kalifornia</t>
-  </si>
-  <si>
-    <t>Kalifornia – 波兰语</t>
-  </si>
-  <si>
-    <t>https://pms.wikipedia.org/wiki/Calif%C3%B2rnia</t>
-  </si>
-  <si>
-    <t>Califòrnia – Piedmontese</t>
-  </si>
-  <si>
-    <t>https://pnb.wikipedia.org/wiki/%DA%A9%DB%8C%D9%84%DB%8C%D9%81%D9%88%D8%B1%D9%86%DB%8C%D8%A7</t>
-  </si>
-  <si>
-    <t>کیلیفورنیا – Western Punjabi</t>
-  </si>
-  <si>
-    <t>https://ps.wikipedia.org/wiki/%DA%A9%D8%A7%D9%84%D9%8A%D9%81%D9%88%D8%B1%D9%86%D9%8A%D8%A7</t>
-  </si>
-  <si>
-    <t>کاليفورنيا – 普什图语</t>
-  </si>
-  <si>
-    <t>https://pt.wikipedia.org/wiki/Calif%C3%B3rnia</t>
-  </si>
-  <si>
-    <t>Califórnia – 葡萄牙语</t>
-  </si>
-  <si>
-    <t>https://qu.wikipedia.org/wiki/California_suyu</t>
-  </si>
-  <si>
-    <t>California suyu – 克丘亚语</t>
-  </si>
-  <si>
-    <t>https://rm.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 罗曼什语</t>
-  </si>
-  <si>
-    <t>https://ro.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 罗马尼亚语</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F</t>
-  </si>
-  <si>
-    <t>Калифорния – 俄语</t>
-  </si>
-  <si>
-    <t>https://sa.wikipedia.org/wiki/%E0%A4%95%E0%A4%BE%E0%A4%B2%E0%A4%BF%E0%A4%AB%E0%A4%BC%E0%A5%8B%E0%A4%B0%E0%A5%8D%E0%A4%A8%E0%A4%BF%E0%A4%AF%E0%A4%BE</t>
-  </si>
-  <si>
-    <t>कालिफ़ोर्निया – 梵语</t>
-  </si>
-  <si>
-    <t>https://sah.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F</t>
-  </si>
-  <si>
-    <t>Калифорния – 萨哈语</t>
-  </si>
-  <si>
-    <t>https://sc.wikipedia.org/wiki/Calif%C3%B2rnia</t>
-  </si>
-  <si>
-    <t>Califòrnia – 萨丁语</t>
-  </si>
-  <si>
-    <t>https://scn.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 西西里语</t>
-  </si>
-  <si>
-    <t>https://sco.wikipedia.org/wiki/Californie</t>
-  </si>
-  <si>
-    <t>Californie – 苏格兰语</t>
-  </si>
-  <si>
-    <t>https://se.wikipedia.org/wiki/Kalifornia</t>
-  </si>
-  <si>
-    <t>Kalifornia – 北方萨米语</t>
-  </si>
-  <si>
-    <t>https://sh.wikipedia.org/wiki/Kalifornija</t>
-  </si>
-  <si>
-    <t>Kalifornija – 塞尔维亚-克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://simple.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – Simple English</t>
-  </si>
-  <si>
-    <t>https://sk.wikipedia.org/wiki/Kalifornia</t>
-  </si>
-  <si>
-    <t>Kalifornia – 斯洛伐克语</t>
-  </si>
-  <si>
-    <t>https://sl.wikipedia.org/wiki/Kalifornija</t>
-  </si>
-  <si>
-    <t>Kalifornija – 斯洛文尼亚语</t>
-  </si>
-  <si>
-    <t>https://sm.wikipedia.org/wiki/Kalefonia</t>
-  </si>
-  <si>
-    <t>Kalefonia – 萨摩亚语</t>
-  </si>
-  <si>
-    <t>https://so.wikipedia.org/wiki/Kalifornia</t>
-  </si>
-  <si>
-    <t>Kalifornia – 索马里语</t>
-  </si>
-  <si>
-    <t>https://sq.wikipedia.org/wiki/Kalifornia</t>
-  </si>
-  <si>
-    <t>Kalifornia – 阿尔巴尼亚语</t>
-  </si>
-  <si>
-    <t>https://sr.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%98%D0%B0</t>
-  </si>
-  <si>
-    <t>Калифорнија – 塞尔维亚语</t>
-  </si>
-  <si>
-    <t>https://stq.wikipedia.org/wiki/Kalifornien</t>
-  </si>
-  <si>
-    <t>Kalifornien – Saterland Frisian</t>
-  </si>
-  <si>
-    <t>https://su.wikipedia.org/wiki/Kalifornia</t>
-  </si>
-  <si>
-    <t>Kalifornia – 巽他语</t>
-  </si>
-  <si>
-    <t>https://sv.wikipedia.org/wiki/Kalifornien</t>
-  </si>
-  <si>
-    <t>Kalifornien – 瑞典语</t>
-  </si>
-  <si>
-    <t>https://sw.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 斯瓦希里语</t>
-  </si>
-  <si>
-    <t>https://szl.wikipedia.org/wiki/Kalifor%C5%84ijo</t>
-  </si>
-  <si>
-    <t>Kaliforńijo – Silesian</t>
-  </si>
-  <si>
-    <t>https://ta.wikipedia.org/wiki/%E0%AE%95%E0%AE%B2%E0%AE%BF%E0%AE%AA%E0%AF%8B%E0%AE%B0%E0%AF%8D%E0%AE%A9%E0%AE%BF%E0%AE%AF%E0%AE%BE</t>
-  </si>
-  <si>
-    <t>கலிபோர்னியா – 泰米尔语</t>
-  </si>
-  <si>
-    <t>https://te.wikipedia.org/wiki/%E0%B0%95%E0%B0%BE%E0%B0%B2%E0%B0%BF%E0%B0%AB%E0%B1%8B%E0%B0%B0%E0%B1%8D%E0%B0%A8%E0%B0%BF%E0%B0%AF%E0%B0%BE</t>
-  </si>
-  <si>
-    <t>కాలిఫోర్నియా – 泰卢固语</t>
-  </si>
-  <si>
-    <t>https://tet.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 德顿语</t>
-  </si>
-  <si>
-    <t>https://tg.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F</t>
-  </si>
-  <si>
-    <t>Калифорния – 塔吉克语</t>
-  </si>
-  <si>
-    <t>https://th.wikipedia.org/wiki/%E0%B8%A3%E0%B8%B1%E0%B8%90%E0%B9%81%E0%B8%84%E0%B8%A5%E0%B8%B4%E0%B8%9F%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2</t>
-  </si>
-  <si>
-    <t>รัฐแคลิฟอร์เนีย – 泰语</t>
-  </si>
-  <si>
-    <t>https://tl.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 他加禄语</t>
-  </si>
-  <si>
-    <t>https://tr.wikipedia.org/wiki/Kaliforniya</t>
-  </si>
-  <si>
-    <t>Kaliforniya – 土耳其语</t>
-  </si>
-  <si>
-    <t>https://tt.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F_(%D1%88%D1%82%D0%B0%D1%82)</t>
-  </si>
-  <si>
-    <t>Калифорния (штат) – 鞑靼语</t>
-  </si>
-  <si>
-    <t>https://ug.wikipedia.org/wiki/Kaliforniye_Shitati</t>
-  </si>
-  <si>
-    <t>Kaliforniye Shitati – 维吾尔语</t>
-  </si>
-  <si>
-    <t>https://uk.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D1%96%D1%84%D0%BE%D1%80%D0%BD%D1%96%D1%8F</t>
-  </si>
-  <si>
-    <t>Каліфорнія – 乌克兰语</t>
-  </si>
-  <si>
-    <t>https://ur.wikipedia.org/wiki/%DA%A9%DB%8C%D9%84%DB%8C%D9%81%D9%88%D8%B1%D9%86%DB%8C%D8%A7</t>
-  </si>
-  <si>
-    <t>کیلیفورنیا – 乌尔都语</t>
-  </si>
-  <si>
-    <t>https://uz.wikipedia.org/wiki/Kaliforniya</t>
-  </si>
-  <si>
-    <t>Kaliforniya – 乌兹别克语</t>
-  </si>
-  <si>
-    <t>https://vec.wikipedia.org/wiki/Ca%C5%82ifornia</t>
-  </si>
-  <si>
-    <t>Całifornia – Venetian</t>
-  </si>
-  <si>
-    <t>https://vi.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 越南语</t>
-  </si>
-  <si>
-    <t>https://vo.wikipedia.org/wiki/Kalifon%C3%A4n</t>
-  </si>
-  <si>
-    <t>Kalifonän – 沃拉普克语</t>
-  </si>
-  <si>
-    <t>https://wa.wikipedia.org/wiki/Californeye</t>
-  </si>
-  <si>
-    <t>Californeye – 瓦隆语</t>
-  </si>
-  <si>
-    <t>https://war.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 瓦瑞语</t>
-  </si>
-  <si>
-    <t>https://wuu.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>加利福尼亚 – 吴语</t>
-  </si>
-  <si>
-    <t>https://xal.wikipedia.org/wiki/%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F</t>
-  </si>
-  <si>
-    <t>Калифорния – 卡尔梅克语</t>
-  </si>
-  <si>
-    <t>https://xmf.wikipedia.org/wiki/%E1%83%99%E1%83%90%E1%83%9A%E1%83%98%E1%83%A4%E1%83%9D%E1%83%A0%E1%83%9C%E1%83%98%E1%83%90</t>
-  </si>
-  <si>
-    <t>კალიფორნია – Mingrelian</t>
-  </si>
-  <si>
-    <t>https://yi.wikipedia.org/wiki/%D7%A7%D7%90%D7%9C%D7%99%D7%A4%D7%90%D7%A8%D7%A0%D7%99%D7%A2</t>
-  </si>
-  <si>
-    <t>קאליפארניע – 意第绪语</t>
-  </si>
-  <si>
-    <t>https://yo.wikipedia.org/wiki/Kalif%E1%BB%8D%CC%81rn%C3%AD%C3%A0</t>
-  </si>
-  <si>
-    <t>Kalifọ́rníà – 约鲁巴语</t>
-  </si>
-  <si>
-    <t>https://zea.wikipedia.org/wiki/Californi%C3%AB</t>
-  </si>
-  <si>
-    <t>Californië – Zeelandic</t>
-  </si>
-  <si>
-    <t>https://zh-classical.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亞州 – Classical Chinese</t>
-  </si>
-  <si>
-    <t>https://zh-min-nan.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – Chinese (Min Nan)</t>
-  </si>
-  <si>
-    <t>https://zh-yue.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亞州 – Cantonese</t>
-  </si>
-  <si>
-    <t>https://zu.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California – 祖鲁语</t>
   </si>
 </sst>
 </file>
@@ -4665,7 +3519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I742"/>
+  <dimension ref="A1:I551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5560,7 +4414,7 @@
         <v>62</v>
       </c>
       <c r="G31" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -9794,7 +8648,7 @@
         <v>334</v>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -20646,5545 +19500,6 @@
         <v>4</v>
       </c>
       <c r="I551" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="552" spans="1:9">
-      <c r="A552" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B552" t="s">
-        <v>0</v>
-      </c>
-      <c r="C552" t="s">
-        <v>1</v>
-      </c>
-      <c r="D552" t="n">
-        <v>551</v>
-      </c>
-      <c r="E552" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F552" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G552" t="n">
-        <v>1</v>
-      </c>
-      <c r="H552" t="s">
-        <v>4</v>
-      </c>
-      <c r="I552" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="553" spans="1:9">
-      <c r="A553" s="1" t="n">
-        <v>551</v>
-      </c>
-      <c r="B553" t="s">
-        <v>0</v>
-      </c>
-      <c r="C553" t="s">
-        <v>1</v>
-      </c>
-      <c r="D553" t="n">
-        <v>552</v>
-      </c>
-      <c r="E553" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F553" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G553" t="n">
-        <v>1</v>
-      </c>
-      <c r="H553" t="s">
-        <v>4</v>
-      </c>
-      <c r="I553" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="554" spans="1:9">
-      <c r="A554" s="1" t="n">
-        <v>552</v>
-      </c>
-      <c r="B554" t="s">
-        <v>0</v>
-      </c>
-      <c r="C554" t="s">
-        <v>1</v>
-      </c>
-      <c r="D554" t="n">
-        <v>553</v>
-      </c>
-      <c r="E554" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F554" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G554" t="n">
-        <v>1</v>
-      </c>
-      <c r="H554" t="s">
-        <v>4</v>
-      </c>
-      <c r="I554" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="555" spans="1:9">
-      <c r="A555" s="1" t="n">
-        <v>553</v>
-      </c>
-      <c r="B555" t="s">
-        <v>0</v>
-      </c>
-      <c r="C555" t="s">
-        <v>1</v>
-      </c>
-      <c r="D555" t="n">
-        <v>554</v>
-      </c>
-      <c r="E555" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F555" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G555" t="n">
-        <v>1</v>
-      </c>
-      <c r="H555" t="s">
-        <v>4</v>
-      </c>
-      <c r="I555" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="556" spans="1:9">
-      <c r="A556" s="1" t="n">
-        <v>554</v>
-      </c>
-      <c r="B556" t="s">
-        <v>0</v>
-      </c>
-      <c r="C556" t="s">
-        <v>1</v>
-      </c>
-      <c r="D556" t="n">
-        <v>555</v>
-      </c>
-      <c r="E556" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F556" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G556" t="n">
-        <v>1</v>
-      </c>
-      <c r="H556" t="s">
-        <v>4</v>
-      </c>
-      <c r="I556" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="557" spans="1:9">
-      <c r="A557" s="1" t="n">
-        <v>555</v>
-      </c>
-      <c r="B557" t="s">
-        <v>0</v>
-      </c>
-      <c r="C557" t="s">
-        <v>1</v>
-      </c>
-      <c r="D557" t="n">
-        <v>556</v>
-      </c>
-      <c r="E557" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F557" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G557" t="n">
-        <v>1</v>
-      </c>
-      <c r="H557" t="s">
-        <v>4</v>
-      </c>
-      <c r="I557" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="558" spans="1:9">
-      <c r="A558" s="1" t="n">
-        <v>556</v>
-      </c>
-      <c r="B558" t="s">
-        <v>0</v>
-      </c>
-      <c r="C558" t="s">
-        <v>1</v>
-      </c>
-      <c r="D558" t="n">
-        <v>557</v>
-      </c>
-      <c r="E558" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F558" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G558" t="n">
-        <v>1</v>
-      </c>
-      <c r="H558" t="s">
-        <v>4</v>
-      </c>
-      <c r="I558" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="559" spans="1:9">
-      <c r="A559" s="1" t="n">
-        <v>557</v>
-      </c>
-      <c r="B559" t="s">
-        <v>0</v>
-      </c>
-      <c r="C559" t="s">
-        <v>1</v>
-      </c>
-      <c r="D559" t="n">
-        <v>558</v>
-      </c>
-      <c r="E559" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F559" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G559" t="n">
-        <v>1</v>
-      </c>
-      <c r="H559" t="s">
-        <v>4</v>
-      </c>
-      <c r="I559" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="560" spans="1:9">
-      <c r="A560" s="1" t="n">
-        <v>558</v>
-      </c>
-      <c r="B560" t="s">
-        <v>0</v>
-      </c>
-      <c r="C560" t="s">
-        <v>1</v>
-      </c>
-      <c r="D560" t="n">
-        <v>559</v>
-      </c>
-      <c r="E560" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F560" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G560" t="n">
-        <v>1</v>
-      </c>
-      <c r="H560" t="s">
-        <v>4</v>
-      </c>
-      <c r="I560" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="561" spans="1:9">
-      <c r="A561" s="1" t="n">
-        <v>559</v>
-      </c>
-      <c r="B561" t="s">
-        <v>0</v>
-      </c>
-      <c r="C561" t="s">
-        <v>1</v>
-      </c>
-      <c r="D561" t="n">
-        <v>560</v>
-      </c>
-      <c r="E561" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F561" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G561" t="n">
-        <v>1</v>
-      </c>
-      <c r="H561" t="s">
-        <v>4</v>
-      </c>
-      <c r="I561" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="562" spans="1:9">
-      <c r="A562" s="1" t="n">
-        <v>560</v>
-      </c>
-      <c r="B562" t="s">
-        <v>0</v>
-      </c>
-      <c r="C562" t="s">
-        <v>1</v>
-      </c>
-      <c r="D562" t="n">
-        <v>561</v>
-      </c>
-      <c r="E562" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F562" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G562" t="n">
-        <v>1</v>
-      </c>
-      <c r="H562" t="s">
-        <v>4</v>
-      </c>
-      <c r="I562" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="563" spans="1:9">
-      <c r="A563" s="1" t="n">
-        <v>561</v>
-      </c>
-      <c r="B563" t="s">
-        <v>0</v>
-      </c>
-      <c r="C563" t="s">
-        <v>1</v>
-      </c>
-      <c r="D563" t="n">
-        <v>562</v>
-      </c>
-      <c r="E563" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F563" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G563" t="n">
-        <v>1</v>
-      </c>
-      <c r="H563" t="s">
-        <v>4</v>
-      </c>
-      <c r="I563" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="564" spans="1:9">
-      <c r="A564" s="1" t="n">
-        <v>562</v>
-      </c>
-      <c r="B564" t="s">
-        <v>0</v>
-      </c>
-      <c r="C564" t="s">
-        <v>1</v>
-      </c>
-      <c r="D564" t="n">
-        <v>563</v>
-      </c>
-      <c r="E564" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F564" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G564" t="n">
-        <v>1</v>
-      </c>
-      <c r="H564" t="s">
-        <v>4</v>
-      </c>
-      <c r="I564" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="565" spans="1:9">
-      <c r="A565" s="1" t="n">
-        <v>563</v>
-      </c>
-      <c r="B565" t="s">
-        <v>0</v>
-      </c>
-      <c r="C565" t="s">
-        <v>1</v>
-      </c>
-      <c r="D565" t="n">
-        <v>564</v>
-      </c>
-      <c r="E565" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F565" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G565" t="n">
-        <v>1</v>
-      </c>
-      <c r="H565" t="s">
-        <v>4</v>
-      </c>
-      <c r="I565" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="566" spans="1:9">
-      <c r="A566" s="1" t="n">
-        <v>564</v>
-      </c>
-      <c r="B566" t="s">
-        <v>0</v>
-      </c>
-      <c r="C566" t="s">
-        <v>1</v>
-      </c>
-      <c r="D566" t="n">
-        <v>565</v>
-      </c>
-      <c r="E566" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F566" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G566" t="n">
-        <v>1</v>
-      </c>
-      <c r="H566" t="s">
-        <v>4</v>
-      </c>
-      <c r="I566" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="567" spans="1:9">
-      <c r="A567" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="B567" t="s">
-        <v>0</v>
-      </c>
-      <c r="C567" t="s">
-        <v>1</v>
-      </c>
-      <c r="D567" t="n">
-        <v>566</v>
-      </c>
-      <c r="E567" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F567" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G567" t="n">
-        <v>2</v>
-      </c>
-      <c r="H567" t="s">
-        <v>4</v>
-      </c>
-      <c r="I567" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="568" spans="1:9">
-      <c r="A568" s="1" t="n">
-        <v>566</v>
-      </c>
-      <c r="B568" t="s">
-        <v>0</v>
-      </c>
-      <c r="C568" t="s">
-        <v>1</v>
-      </c>
-      <c r="D568" t="n">
-        <v>567</v>
-      </c>
-      <c r="E568" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F568" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G568" t="n">
-        <v>1</v>
-      </c>
-      <c r="H568" t="s">
-        <v>4</v>
-      </c>
-      <c r="I568" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="569" spans="1:9">
-      <c r="A569" s="1" t="n">
-        <v>567</v>
-      </c>
-      <c r="B569" t="s">
-        <v>0</v>
-      </c>
-      <c r="C569" t="s">
-        <v>1</v>
-      </c>
-      <c r="D569" t="n">
-        <v>568</v>
-      </c>
-      <c r="E569" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F569" t="s">
-        <v>1087</v>
-      </c>
-      <c r="G569" t="n">
-        <v>1</v>
-      </c>
-      <c r="H569" t="s">
-        <v>4</v>
-      </c>
-      <c r="I569" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="570" spans="1:9">
-      <c r="A570" s="1" t="n">
-        <v>568</v>
-      </c>
-      <c r="B570" t="s">
-        <v>0</v>
-      </c>
-      <c r="C570" t="s">
-        <v>1</v>
-      </c>
-      <c r="D570" t="n">
-        <v>569</v>
-      </c>
-      <c r="E570" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F570" t="s">
-        <v>1089</v>
-      </c>
-      <c r="G570" t="n">
-        <v>1</v>
-      </c>
-      <c r="H570" t="s">
-        <v>4</v>
-      </c>
-      <c r="I570" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="571" spans="1:9">
-      <c r="A571" s="1" t="n">
-        <v>569</v>
-      </c>
-      <c r="B571" t="s">
-        <v>0</v>
-      </c>
-      <c r="C571" t="s">
-        <v>1</v>
-      </c>
-      <c r="D571" t="n">
-        <v>570</v>
-      </c>
-      <c r="E571" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F571" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G571" t="n">
-        <v>1</v>
-      </c>
-      <c r="H571" t="s">
-        <v>4</v>
-      </c>
-      <c r="I571" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="572" spans="1:9">
-      <c r="A572" s="1" t="n">
-        <v>570</v>
-      </c>
-      <c r="B572" t="s">
-        <v>0</v>
-      </c>
-      <c r="C572" t="s">
-        <v>1</v>
-      </c>
-      <c r="D572" t="n">
-        <v>571</v>
-      </c>
-      <c r="E572" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F572" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G572" t="n">
-        <v>1</v>
-      </c>
-      <c r="H572" t="s">
-        <v>4</v>
-      </c>
-      <c r="I572" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="573" spans="1:9">
-      <c r="A573" s="1" t="n">
-        <v>571</v>
-      </c>
-      <c r="B573" t="s">
-        <v>0</v>
-      </c>
-      <c r="C573" t="s">
-        <v>1</v>
-      </c>
-      <c r="D573" t="n">
-        <v>572</v>
-      </c>
-      <c r="E573" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F573" t="s">
-        <v>1095</v>
-      </c>
-      <c r="G573" t="n">
-        <v>1</v>
-      </c>
-      <c r="H573" t="s">
-        <v>4</v>
-      </c>
-      <c r="I573" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="574" spans="1:9">
-      <c r="A574" s="1" t="n">
-        <v>572</v>
-      </c>
-      <c r="B574" t="s">
-        <v>0</v>
-      </c>
-      <c r="C574" t="s">
-        <v>1</v>
-      </c>
-      <c r="D574" t="n">
-        <v>573</v>
-      </c>
-      <c r="E574" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F574" t="s">
-        <v>1097</v>
-      </c>
-      <c r="G574" t="n">
-        <v>1</v>
-      </c>
-      <c r="H574" t="s">
-        <v>4</v>
-      </c>
-      <c r="I574" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="575" spans="1:9">
-      <c r="A575" s="1" t="n">
-        <v>573</v>
-      </c>
-      <c r="B575" t="s">
-        <v>0</v>
-      </c>
-      <c r="C575" t="s">
-        <v>1</v>
-      </c>
-      <c r="D575" t="n">
-        <v>574</v>
-      </c>
-      <c r="E575" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F575" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G575" t="n">
-        <v>1</v>
-      </c>
-      <c r="H575" t="s">
-        <v>4</v>
-      </c>
-      <c r="I575" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="576" spans="1:9">
-      <c r="A576" s="1" t="n">
-        <v>574</v>
-      </c>
-      <c r="B576" t="s">
-        <v>0</v>
-      </c>
-      <c r="C576" t="s">
-        <v>1</v>
-      </c>
-      <c r="D576" t="n">
-        <v>575</v>
-      </c>
-      <c r="E576" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F576" t="s">
-        <v>1101</v>
-      </c>
-      <c r="G576" t="n">
-        <v>1</v>
-      </c>
-      <c r="H576" t="s">
-        <v>4</v>
-      </c>
-      <c r="I576" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="577" spans="1:9">
-      <c r="A577" s="1" t="n">
-        <v>575</v>
-      </c>
-      <c r="B577" t="s">
-        <v>0</v>
-      </c>
-      <c r="C577" t="s">
-        <v>1</v>
-      </c>
-      <c r="D577" t="n">
-        <v>576</v>
-      </c>
-      <c r="E577" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F577" t="s">
-        <v>1103</v>
-      </c>
-      <c r="G577" t="n">
-        <v>1</v>
-      </c>
-      <c r="H577" t="s">
-        <v>4</v>
-      </c>
-      <c r="I577" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="578" spans="1:9">
-      <c r="A578" s="1" t="n">
-        <v>576</v>
-      </c>
-      <c r="B578" t="s">
-        <v>0</v>
-      </c>
-      <c r="C578" t="s">
-        <v>1</v>
-      </c>
-      <c r="D578" t="n">
-        <v>577</v>
-      </c>
-      <c r="E578" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F578" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G578" t="n">
-        <v>1</v>
-      </c>
-      <c r="H578" t="s">
-        <v>4</v>
-      </c>
-      <c r="I578" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="579" spans="1:9">
-      <c r="A579" s="1" t="n">
-        <v>577</v>
-      </c>
-      <c r="B579" t="s">
-        <v>0</v>
-      </c>
-      <c r="C579" t="s">
-        <v>1</v>
-      </c>
-      <c r="D579" t="n">
-        <v>578</v>
-      </c>
-      <c r="E579" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F579" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G579" t="n">
-        <v>1</v>
-      </c>
-      <c r="H579" t="s">
-        <v>4</v>
-      </c>
-      <c r="I579" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="580" spans="1:9">
-      <c r="A580" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="B580" t="s">
-        <v>0</v>
-      </c>
-      <c r="C580" t="s">
-        <v>1</v>
-      </c>
-      <c r="D580" t="n">
-        <v>579</v>
-      </c>
-      <c r="E580" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F580" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G580" t="n">
-        <v>1</v>
-      </c>
-      <c r="H580" t="s">
-        <v>4</v>
-      </c>
-      <c r="I580" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="581" spans="1:9">
-      <c r="A581" s="1" t="n">
-        <v>579</v>
-      </c>
-      <c r="B581" t="s">
-        <v>0</v>
-      </c>
-      <c r="C581" t="s">
-        <v>1</v>
-      </c>
-      <c r="D581" t="n">
-        <v>580</v>
-      </c>
-      <c r="E581" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F581" t="s">
-        <v>1111</v>
-      </c>
-      <c r="G581" t="n">
-        <v>1</v>
-      </c>
-      <c r="H581" t="s">
-        <v>4</v>
-      </c>
-      <c r="I581" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="582" spans="1:9">
-      <c r="A582" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" t="s">
-        <v>0</v>
-      </c>
-      <c r="C582" t="s">
-        <v>1</v>
-      </c>
-      <c r="D582" t="n">
-        <v>581</v>
-      </c>
-      <c r="E582" t="s">
-        <v>1112</v>
-      </c>
-      <c r="F582" t="s">
-        <v>1113</v>
-      </c>
-      <c r="G582" t="n">
-        <v>1</v>
-      </c>
-      <c r="H582" t="s">
-        <v>4</v>
-      </c>
-      <c r="I582" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="583" spans="1:9">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="s">
-        <v>0</v>
-      </c>
-      <c r="C583" t="s">
-        <v>1</v>
-      </c>
-      <c r="D583" t="n">
-        <v>582</v>
-      </c>
-      <c r="E583" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F583" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G583" t="n">
-        <v>1</v>
-      </c>
-      <c r="H583" t="s">
-        <v>4</v>
-      </c>
-      <c r="I583" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="584" spans="1:9">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="s">
-        <v>0</v>
-      </c>
-      <c r="C584" t="s">
-        <v>1</v>
-      </c>
-      <c r="D584" t="n">
-        <v>583</v>
-      </c>
-      <c r="E584" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F584" t="s">
-        <v>1117</v>
-      </c>
-      <c r="G584" t="n">
-        <v>1</v>
-      </c>
-      <c r="H584" t="s">
-        <v>4</v>
-      </c>
-      <c r="I584" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="585" spans="1:9">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="s">
-        <v>0</v>
-      </c>
-      <c r="C585" t="s">
-        <v>1</v>
-      </c>
-      <c r="D585" t="n">
-        <v>584</v>
-      </c>
-      <c r="E585" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F585" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G585" t="n">
-        <v>1</v>
-      </c>
-      <c r="H585" t="s">
-        <v>4</v>
-      </c>
-      <c r="I585" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="586" spans="1:9">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="s">
-        <v>0</v>
-      </c>
-      <c r="C586" t="s">
-        <v>1</v>
-      </c>
-      <c r="D586" t="n">
-        <v>585</v>
-      </c>
-      <c r="E586" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F586" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G586" t="n">
-        <v>1</v>
-      </c>
-      <c r="H586" t="s">
-        <v>4</v>
-      </c>
-      <c r="I586" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="587" spans="1:9">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="s">
-        <v>0</v>
-      </c>
-      <c r="C587" t="s">
-        <v>1</v>
-      </c>
-      <c r="D587" t="n">
-        <v>586</v>
-      </c>
-      <c r="E587" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F587" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G587" t="n">
-        <v>1</v>
-      </c>
-      <c r="H587" t="s">
-        <v>4</v>
-      </c>
-      <c r="I587" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="588" spans="1:9">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="s">
-        <v>0</v>
-      </c>
-      <c r="C588" t="s">
-        <v>1</v>
-      </c>
-      <c r="D588" t="n">
-        <v>587</v>
-      </c>
-      <c r="E588" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F588" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G588" t="n">
-        <v>1</v>
-      </c>
-      <c r="H588" t="s">
-        <v>4</v>
-      </c>
-      <c r="I588" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="589" spans="1:9">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="s">
-        <v>0</v>
-      </c>
-      <c r="C589" t="s">
-        <v>1</v>
-      </c>
-      <c r="D589" t="n">
-        <v>588</v>
-      </c>
-      <c r="E589" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F589" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G589" t="n">
-        <v>1</v>
-      </c>
-      <c r="H589" t="s">
-        <v>4</v>
-      </c>
-      <c r="I589" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="590" spans="1:9">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="s">
-        <v>0</v>
-      </c>
-      <c r="C590" t="s">
-        <v>1</v>
-      </c>
-      <c r="D590" t="n">
-        <v>589</v>
-      </c>
-      <c r="E590" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F590" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G590" t="n">
-        <v>1</v>
-      </c>
-      <c r="H590" t="s">
-        <v>4</v>
-      </c>
-      <c r="I590" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="591" spans="1:9">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="s">
-        <v>0</v>
-      </c>
-      <c r="C591" t="s">
-        <v>1</v>
-      </c>
-      <c r="D591" t="n">
-        <v>590</v>
-      </c>
-      <c r="E591" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F591" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G591" t="n">
-        <v>1</v>
-      </c>
-      <c r="H591" t="s">
-        <v>4</v>
-      </c>
-      <c r="I591" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="592" spans="1:9">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="s">
-        <v>0</v>
-      </c>
-      <c r="C592" t="s">
-        <v>1</v>
-      </c>
-      <c r="D592" t="n">
-        <v>591</v>
-      </c>
-      <c r="E592" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F592" t="s">
-        <v>1133</v>
-      </c>
-      <c r="G592" t="n">
-        <v>1</v>
-      </c>
-      <c r="H592" t="s">
-        <v>4</v>
-      </c>
-      <c r="I592" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="593" spans="1:9">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="s">
-        <v>0</v>
-      </c>
-      <c r="C593" t="s">
-        <v>1</v>
-      </c>
-      <c r="D593" t="n">
-        <v>592</v>
-      </c>
-      <c r="E593" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F593" t="s">
-        <v>1135</v>
-      </c>
-      <c r="G593" t="n">
-        <v>1</v>
-      </c>
-      <c r="H593" t="s">
-        <v>4</v>
-      </c>
-      <c r="I593" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="594" spans="1:9">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="s">
-        <v>0</v>
-      </c>
-      <c r="C594" t="s">
-        <v>1</v>
-      </c>
-      <c r="D594" t="n">
-        <v>593</v>
-      </c>
-      <c r="E594" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F594" t="s">
-        <v>1137</v>
-      </c>
-      <c r="G594" t="n">
-        <v>1</v>
-      </c>
-      <c r="H594" t="s">
-        <v>4</v>
-      </c>
-      <c r="I594" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="595" spans="1:9">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="s">
-        <v>0</v>
-      </c>
-      <c r="C595" t="s">
-        <v>1</v>
-      </c>
-      <c r="D595" t="n">
-        <v>594</v>
-      </c>
-      <c r="E595" t="s">
-        <v>1138</v>
-      </c>
-      <c r="F595" t="s">
-        <v>1139</v>
-      </c>
-      <c r="G595" t="n">
-        <v>4</v>
-      </c>
-      <c r="H595" t="s">
-        <v>4</v>
-      </c>
-      <c r="I595" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="596" spans="1:9">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="s">
-        <v>0</v>
-      </c>
-      <c r="C596" t="s">
-        <v>1</v>
-      </c>
-      <c r="D596" t="n">
-        <v>595</v>
-      </c>
-      <c r="E596" t="s">
-        <v>1140</v>
-      </c>
-      <c r="F596" t="s">
-        <v>1141</v>
-      </c>
-      <c r="G596" t="n">
-        <v>1</v>
-      </c>
-      <c r="H596" t="s">
-        <v>4</v>
-      </c>
-      <c r="I596" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="597" spans="1:9">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="s">
-        <v>0</v>
-      </c>
-      <c r="C597" t="s">
-        <v>1</v>
-      </c>
-      <c r="D597" t="n">
-        <v>596</v>
-      </c>
-      <c r="E597" t="s">
-        <v>1142</v>
-      </c>
-      <c r="F597" t="s">
-        <v>1143</v>
-      </c>
-      <c r="G597" t="n">
-        <v>1</v>
-      </c>
-      <c r="H597" t="s">
-        <v>4</v>
-      </c>
-      <c r="I597" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="598" spans="1:9">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="s">
-        <v>0</v>
-      </c>
-      <c r="C598" t="s">
-        <v>1</v>
-      </c>
-      <c r="D598" t="n">
-        <v>597</v>
-      </c>
-      <c r="E598" t="s">
-        <v>1144</v>
-      </c>
-      <c r="F598" t="s">
-        <v>1145</v>
-      </c>
-      <c r="G598" t="n">
-        <v>1</v>
-      </c>
-      <c r="H598" t="s">
-        <v>4</v>
-      </c>
-      <c r="I598" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="599" spans="1:9">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="s">
-        <v>0</v>
-      </c>
-      <c r="C599" t="s">
-        <v>1</v>
-      </c>
-      <c r="D599" t="n">
-        <v>598</v>
-      </c>
-      <c r="E599" t="s">
-        <v>1146</v>
-      </c>
-      <c r="F599" t="s">
-        <v>1147</v>
-      </c>
-      <c r="G599" t="n">
-        <v>1</v>
-      </c>
-      <c r="H599" t="s">
-        <v>4</v>
-      </c>
-      <c r="I599" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="600" spans="1:9">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="s">
-        <v>0</v>
-      </c>
-      <c r="C600" t="s">
-        <v>1</v>
-      </c>
-      <c r="D600" t="n">
-        <v>599</v>
-      </c>
-      <c r="E600" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F600" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G600" t="n">
-        <v>1</v>
-      </c>
-      <c r="H600" t="s">
-        <v>4</v>
-      </c>
-      <c r="I600" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="601" spans="1:9">
-      <c r="A601" s="1" t="n">
-        <v>599</v>
-      </c>
-      <c r="B601" t="s">
-        <v>0</v>
-      </c>
-      <c r="C601" t="s">
-        <v>1</v>
-      </c>
-      <c r="D601" t="n">
-        <v>600</v>
-      </c>
-      <c r="E601" t="s">
-        <v>1150</v>
-      </c>
-      <c r="F601" t="s">
-        <v>1151</v>
-      </c>
-      <c r="G601" t="n">
-        <v>1</v>
-      </c>
-      <c r="H601" t="s">
-        <v>4</v>
-      </c>
-      <c r="I601" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="602" spans="1:9">
-      <c r="A602" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="B602" t="s">
-        <v>0</v>
-      </c>
-      <c r="C602" t="s">
-        <v>1</v>
-      </c>
-      <c r="D602" t="n">
-        <v>601</v>
-      </c>
-      <c r="E602" t="s">
-        <v>1152</v>
-      </c>
-      <c r="F602" t="s">
-        <v>1153</v>
-      </c>
-      <c r="G602" t="n">
-        <v>1</v>
-      </c>
-      <c r="H602" t="s">
-        <v>4</v>
-      </c>
-      <c r="I602" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="603" spans="1:9">
-      <c r="A603" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B603" t="s">
-        <v>0</v>
-      </c>
-      <c r="C603" t="s">
-        <v>1</v>
-      </c>
-      <c r="D603" t="n">
-        <v>602</v>
-      </c>
-      <c r="E603" t="s">
-        <v>1154</v>
-      </c>
-      <c r="F603" t="s">
-        <v>1155</v>
-      </c>
-      <c r="G603" t="n">
-        <v>1</v>
-      </c>
-      <c r="H603" t="s">
-        <v>4</v>
-      </c>
-      <c r="I603" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="604" spans="1:9">
-      <c r="A604" s="1" t="n">
-        <v>602</v>
-      </c>
-      <c r="B604" t="s">
-        <v>0</v>
-      </c>
-      <c r="C604" t="s">
-        <v>1</v>
-      </c>
-      <c r="D604" t="n">
-        <v>603</v>
-      </c>
-      <c r="E604" t="s">
-        <v>1156</v>
-      </c>
-      <c r="F604" t="s">
-        <v>1157</v>
-      </c>
-      <c r="G604" t="n">
-        <v>1</v>
-      </c>
-      <c r="H604" t="s">
-        <v>4</v>
-      </c>
-      <c r="I604" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="605" spans="1:9">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="s">
-        <v>0</v>
-      </c>
-      <c r="C605" t="s">
-        <v>1</v>
-      </c>
-      <c r="D605" t="n">
-        <v>604</v>
-      </c>
-      <c r="E605" t="s">
-        <v>1158</v>
-      </c>
-      <c r="F605" t="s">
-        <v>1159</v>
-      </c>
-      <c r="G605" t="n">
-        <v>1</v>
-      </c>
-      <c r="H605" t="s">
-        <v>4</v>
-      </c>
-      <c r="I605" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="606" spans="1:9">
-      <c r="A606" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="B606" t="s">
-        <v>0</v>
-      </c>
-      <c r="C606" t="s">
-        <v>1</v>
-      </c>
-      <c r="D606" t="n">
-        <v>605</v>
-      </c>
-      <c r="E606" t="s">
-        <v>1160</v>
-      </c>
-      <c r="F606" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G606" t="n">
-        <v>1</v>
-      </c>
-      <c r="H606" t="s">
-        <v>4</v>
-      </c>
-      <c r="I606" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="607" spans="1:9">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="s">
-        <v>0</v>
-      </c>
-      <c r="C607" t="s">
-        <v>1</v>
-      </c>
-      <c r="D607" t="n">
-        <v>606</v>
-      </c>
-      <c r="E607" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F607" t="s">
-        <v>1163</v>
-      </c>
-      <c r="G607" t="n">
-        <v>1</v>
-      </c>
-      <c r="H607" t="s">
-        <v>4</v>
-      </c>
-      <c r="I607" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="608" spans="1:9">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="s">
-        <v>0</v>
-      </c>
-      <c r="C608" t="s">
-        <v>1</v>
-      </c>
-      <c r="D608" t="n">
-        <v>607</v>
-      </c>
-      <c r="E608" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F608" t="s">
-        <v>1165</v>
-      </c>
-      <c r="G608" t="n">
-        <v>1</v>
-      </c>
-      <c r="H608" t="s">
-        <v>4</v>
-      </c>
-      <c r="I608" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="609" spans="1:9">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="s">
-        <v>0</v>
-      </c>
-      <c r="C609" t="s">
-        <v>1</v>
-      </c>
-      <c r="D609" t="n">
-        <v>608</v>
-      </c>
-      <c r="E609" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F609" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G609" t="n">
-        <v>1</v>
-      </c>
-      <c r="H609" t="s">
-        <v>4</v>
-      </c>
-      <c r="I609" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="610" spans="1:9">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="s">
-        <v>0</v>
-      </c>
-      <c r="C610" t="s">
-        <v>1</v>
-      </c>
-      <c r="D610" t="n">
-        <v>609</v>
-      </c>
-      <c r="E610" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F610" t="s">
-        <v>1169</v>
-      </c>
-      <c r="G610" t="n">
-        <v>1</v>
-      </c>
-      <c r="H610" t="s">
-        <v>4</v>
-      </c>
-      <c r="I610" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="611" spans="1:9">
-      <c r="A611" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B611" t="s">
-        <v>0</v>
-      </c>
-      <c r="C611" t="s">
-        <v>1</v>
-      </c>
-      <c r="D611" t="n">
-        <v>610</v>
-      </c>
-      <c r="E611" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F611" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G611" t="n">
-        <v>1</v>
-      </c>
-      <c r="H611" t="s">
-        <v>4</v>
-      </c>
-      <c r="I611" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="612" spans="1:9">
-      <c r="A612" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="B612" t="s">
-        <v>0</v>
-      </c>
-      <c r="C612" t="s">
-        <v>1</v>
-      </c>
-      <c r="D612" t="n">
-        <v>611</v>
-      </c>
-      <c r="E612" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F612" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G612" t="n">
-        <v>1</v>
-      </c>
-      <c r="H612" t="s">
-        <v>4</v>
-      </c>
-      <c r="I612" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="613" spans="1:9">
-      <c r="A613" s="1" t="n">
-        <v>611</v>
-      </c>
-      <c r="B613" t="s">
-        <v>0</v>
-      </c>
-      <c r="C613" t="s">
-        <v>1</v>
-      </c>
-      <c r="D613" t="n">
-        <v>612</v>
-      </c>
-      <c r="E613" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F613" t="s">
-        <v>1175</v>
-      </c>
-      <c r="G613" t="n">
-        <v>1</v>
-      </c>
-      <c r="H613" t="s">
-        <v>4</v>
-      </c>
-      <c r="I613" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="614" spans="1:9">
-      <c r="A614" s="1" t="n">
-        <v>612</v>
-      </c>
-      <c r="B614" t="s">
-        <v>0</v>
-      </c>
-      <c r="C614" t="s">
-        <v>1</v>
-      </c>
-      <c r="D614" t="n">
-        <v>613</v>
-      </c>
-      <c r="E614" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F614" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G614" t="n">
-        <v>1</v>
-      </c>
-      <c r="H614" t="s">
-        <v>4</v>
-      </c>
-      <c r="I614" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="615" spans="1:9">
-      <c r="A615" s="1" t="n">
-        <v>613</v>
-      </c>
-      <c r="B615" t="s">
-        <v>0</v>
-      </c>
-      <c r="C615" t="s">
-        <v>1</v>
-      </c>
-      <c r="D615" t="n">
-        <v>614</v>
-      </c>
-      <c r="E615" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F615" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G615" t="n">
-        <v>1</v>
-      </c>
-      <c r="H615" t="s">
-        <v>4</v>
-      </c>
-      <c r="I615" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="616" spans="1:9">
-      <c r="A616" s="1" t="n">
-        <v>614</v>
-      </c>
-      <c r="B616" t="s">
-        <v>0</v>
-      </c>
-      <c r="C616" t="s">
-        <v>1</v>
-      </c>
-      <c r="D616" t="n">
-        <v>615</v>
-      </c>
-      <c r="E616" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F616" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G616" t="n">
-        <v>1</v>
-      </c>
-      <c r="H616" t="s">
-        <v>4</v>
-      </c>
-      <c r="I616" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="617" spans="1:9">
-      <c r="A617" s="1" t="n">
-        <v>615</v>
-      </c>
-      <c r="B617" t="s">
-        <v>0</v>
-      </c>
-      <c r="C617" t="s">
-        <v>1</v>
-      </c>
-      <c r="D617" t="n">
-        <v>616</v>
-      </c>
-      <c r="E617" t="s">
-        <v>1182</v>
-      </c>
-      <c r="F617" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G617" t="n">
-        <v>1</v>
-      </c>
-      <c r="H617" t="s">
-        <v>4</v>
-      </c>
-      <c r="I617" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="618" spans="1:9">
-      <c r="A618" s="1" t="n">
-        <v>616</v>
-      </c>
-      <c r="B618" t="s">
-        <v>0</v>
-      </c>
-      <c r="C618" t="s">
-        <v>1</v>
-      </c>
-      <c r="D618" t="n">
-        <v>617</v>
-      </c>
-      <c r="E618" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F618" t="s">
-        <v>1185</v>
-      </c>
-      <c r="G618" t="n">
-        <v>1</v>
-      </c>
-      <c r="H618" t="s">
-        <v>4</v>
-      </c>
-      <c r="I618" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="619" spans="1:9">
-      <c r="A619" s="1" t="n">
-        <v>617</v>
-      </c>
-      <c r="B619" t="s">
-        <v>0</v>
-      </c>
-      <c r="C619" t="s">
-        <v>1</v>
-      </c>
-      <c r="D619" t="n">
-        <v>618</v>
-      </c>
-      <c r="E619" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F619" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G619" t="n">
-        <v>1</v>
-      </c>
-      <c r="H619" t="s">
-        <v>4</v>
-      </c>
-      <c r="I619" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="620" spans="1:9">
-      <c r="A620" s="1" t="n">
-        <v>618</v>
-      </c>
-      <c r="B620" t="s">
-        <v>0</v>
-      </c>
-      <c r="C620" t="s">
-        <v>1</v>
-      </c>
-      <c r="D620" t="n">
-        <v>619</v>
-      </c>
-      <c r="E620" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F620" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G620" t="n">
-        <v>1</v>
-      </c>
-      <c r="H620" t="s">
-        <v>4</v>
-      </c>
-      <c r="I620" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="621" spans="1:9">
-      <c r="A621" s="1" t="n">
-        <v>619</v>
-      </c>
-      <c r="B621" t="s">
-        <v>0</v>
-      </c>
-      <c r="C621" t="s">
-        <v>1</v>
-      </c>
-      <c r="D621" t="n">
-        <v>620</v>
-      </c>
-      <c r="E621" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F621" t="s">
-        <v>1191</v>
-      </c>
-      <c r="G621" t="n">
-        <v>1</v>
-      </c>
-      <c r="H621" t="s">
-        <v>4</v>
-      </c>
-      <c r="I621" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="622" spans="1:9">
-      <c r="A622" s="1" t="n">
-        <v>620</v>
-      </c>
-      <c r="B622" t="s">
-        <v>0</v>
-      </c>
-      <c r="C622" t="s">
-        <v>1</v>
-      </c>
-      <c r="D622" t="n">
-        <v>621</v>
-      </c>
-      <c r="E622" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F622" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G622" t="n">
-        <v>1</v>
-      </c>
-      <c r="H622" t="s">
-        <v>4</v>
-      </c>
-      <c r="I622" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="623" spans="1:9">
-      <c r="A623" s="1" t="n">
-        <v>621</v>
-      </c>
-      <c r="B623" t="s">
-        <v>0</v>
-      </c>
-      <c r="C623" t="s">
-        <v>1</v>
-      </c>
-      <c r="D623" t="n">
-        <v>622</v>
-      </c>
-      <c r="E623" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F623" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G623" t="n">
-        <v>1</v>
-      </c>
-      <c r="H623" t="s">
-        <v>4</v>
-      </c>
-      <c r="I623" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="624" spans="1:9">
-      <c r="A624" s="1" t="n">
-        <v>622</v>
-      </c>
-      <c r="B624" t="s">
-        <v>0</v>
-      </c>
-      <c r="C624" t="s">
-        <v>1</v>
-      </c>
-      <c r="D624" t="n">
-        <v>623</v>
-      </c>
-      <c r="E624" t="s">
-        <v>1196</v>
-      </c>
-      <c r="F624" t="s">
-        <v>1197</v>
-      </c>
-      <c r="G624" t="n">
-        <v>1</v>
-      </c>
-      <c r="H624" t="s">
-        <v>4</v>
-      </c>
-      <c r="I624" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="625" spans="1:9">
-      <c r="A625" s="1" t="n">
-        <v>623</v>
-      </c>
-      <c r="B625" t="s">
-        <v>0</v>
-      </c>
-      <c r="C625" t="s">
-        <v>1</v>
-      </c>
-      <c r="D625" t="n">
-        <v>624</v>
-      </c>
-      <c r="E625" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F625" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G625" t="n">
-        <v>1</v>
-      </c>
-      <c r="H625" t="s">
-        <v>4</v>
-      </c>
-      <c r="I625" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="626" spans="1:9">
-      <c r="A626" s="1" t="n">
-        <v>624</v>
-      </c>
-      <c r="B626" t="s">
-        <v>0</v>
-      </c>
-      <c r="C626" t="s">
-        <v>1</v>
-      </c>
-      <c r="D626" t="n">
-        <v>625</v>
-      </c>
-      <c r="E626" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F626" t="s">
-        <v>1201</v>
-      </c>
-      <c r="G626" t="n">
-        <v>1</v>
-      </c>
-      <c r="H626" t="s">
-        <v>4</v>
-      </c>
-      <c r="I626" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="627" spans="1:9">
-      <c r="A627" s="1" t="n">
-        <v>625</v>
-      </c>
-      <c r="B627" t="s">
-        <v>0</v>
-      </c>
-      <c r="C627" t="s">
-        <v>1</v>
-      </c>
-      <c r="D627" t="n">
-        <v>626</v>
-      </c>
-      <c r="E627" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F627" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G627" t="n">
-        <v>1</v>
-      </c>
-      <c r="H627" t="s">
-        <v>4</v>
-      </c>
-      <c r="I627" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="628" spans="1:9">
-      <c r="A628" s="1" t="n">
-        <v>626</v>
-      </c>
-      <c r="B628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C628" t="s">
-        <v>1</v>
-      </c>
-      <c r="D628" t="n">
-        <v>627</v>
-      </c>
-      <c r="E628" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F628" t="s">
-        <v>1205</v>
-      </c>
-      <c r="G628" t="n">
-        <v>1</v>
-      </c>
-      <c r="H628" t="s">
-        <v>4</v>
-      </c>
-      <c r="I628" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="629" spans="1:9">
-      <c r="A629" s="1" t="n">
-        <v>627</v>
-      </c>
-      <c r="B629" t="s">
-        <v>0</v>
-      </c>
-      <c r="C629" t="s">
-        <v>1</v>
-      </c>
-      <c r="D629" t="n">
-        <v>628</v>
-      </c>
-      <c r="E629" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F629" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G629" t="n">
-        <v>1</v>
-      </c>
-      <c r="H629" t="s">
-        <v>4</v>
-      </c>
-      <c r="I629" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="630" spans="1:9">
-      <c r="A630" s="1" t="n">
-        <v>628</v>
-      </c>
-      <c r="B630" t="s">
-        <v>0</v>
-      </c>
-      <c r="C630" t="s">
-        <v>1</v>
-      </c>
-      <c r="D630" t="n">
-        <v>629</v>
-      </c>
-      <c r="E630" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F630" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G630" t="n">
-        <v>1</v>
-      </c>
-      <c r="H630" t="s">
-        <v>4</v>
-      </c>
-      <c r="I630" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="631" spans="1:9">
-      <c r="A631" s="1" t="n">
-        <v>629</v>
-      </c>
-      <c r="B631" t="s">
-        <v>0</v>
-      </c>
-      <c r="C631" t="s">
-        <v>1</v>
-      </c>
-      <c r="D631" t="n">
-        <v>630</v>
-      </c>
-      <c r="E631" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F631" t="s">
-        <v>1211</v>
-      </c>
-      <c r="G631" t="n">
-        <v>1</v>
-      </c>
-      <c r="H631" t="s">
-        <v>4</v>
-      </c>
-      <c r="I631" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="632" spans="1:9">
-      <c r="A632" s="1" t="n">
-        <v>630</v>
-      </c>
-      <c r="B632" t="s">
-        <v>0</v>
-      </c>
-      <c r="C632" t="s">
-        <v>1</v>
-      </c>
-      <c r="D632" t="n">
-        <v>631</v>
-      </c>
-      <c r="E632" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F632" t="s">
-        <v>1213</v>
-      </c>
-      <c r="G632" t="n">
-        <v>1</v>
-      </c>
-      <c r="H632" t="s">
-        <v>4</v>
-      </c>
-      <c r="I632" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="633" spans="1:9">
-      <c r="A633" s="1" t="n">
-        <v>631</v>
-      </c>
-      <c r="B633" t="s">
-        <v>0</v>
-      </c>
-      <c r="C633" t="s">
-        <v>1</v>
-      </c>
-      <c r="D633" t="n">
-        <v>632</v>
-      </c>
-      <c r="E633" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F633" t="s">
-        <v>1215</v>
-      </c>
-      <c r="G633" t="n">
-        <v>1</v>
-      </c>
-      <c r="H633" t="s">
-        <v>4</v>
-      </c>
-      <c r="I633" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="634" spans="1:9">
-      <c r="A634" s="1" t="n">
-        <v>632</v>
-      </c>
-      <c r="B634" t="s">
-        <v>0</v>
-      </c>
-      <c r="C634" t="s">
-        <v>1</v>
-      </c>
-      <c r="D634" t="n">
-        <v>633</v>
-      </c>
-      <c r="E634" t="s">
-        <v>1216</v>
-      </c>
-      <c r="F634" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G634" t="n">
-        <v>1</v>
-      </c>
-      <c r="H634" t="s">
-        <v>4</v>
-      </c>
-      <c r="I634" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="635" spans="1:9">
-      <c r="A635" s="1" t="n">
-        <v>633</v>
-      </c>
-      <c r="B635" t="s">
-        <v>0</v>
-      </c>
-      <c r="C635" t="s">
-        <v>1</v>
-      </c>
-      <c r="D635" t="n">
-        <v>634</v>
-      </c>
-      <c r="E635" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F635" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G635" t="n">
-        <v>1</v>
-      </c>
-      <c r="H635" t="s">
-        <v>4</v>
-      </c>
-      <c r="I635" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="636" spans="1:9">
-      <c r="A636" s="1" t="n">
-        <v>634</v>
-      </c>
-      <c r="B636" t="s">
-        <v>0</v>
-      </c>
-      <c r="C636" t="s">
-        <v>1</v>
-      </c>
-      <c r="D636" t="n">
-        <v>635</v>
-      </c>
-      <c r="E636" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F636" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G636" t="n">
-        <v>1</v>
-      </c>
-      <c r="H636" t="s">
-        <v>4</v>
-      </c>
-      <c r="I636" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="637" spans="1:9">
-      <c r="A637" s="1" t="n">
-        <v>635</v>
-      </c>
-      <c r="B637" t="s">
-        <v>0</v>
-      </c>
-      <c r="C637" t="s">
-        <v>1</v>
-      </c>
-      <c r="D637" t="n">
-        <v>636</v>
-      </c>
-      <c r="E637" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F637" t="s">
-        <v>1223</v>
-      </c>
-      <c r="G637" t="n">
-        <v>1</v>
-      </c>
-      <c r="H637" t="s">
-        <v>4</v>
-      </c>
-      <c r="I637" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="638" spans="1:9">
-      <c r="A638" s="1" t="n">
-        <v>636</v>
-      </c>
-      <c r="B638" t="s">
-        <v>0</v>
-      </c>
-      <c r="C638" t="s">
-        <v>1</v>
-      </c>
-      <c r="D638" t="n">
-        <v>637</v>
-      </c>
-      <c r="E638" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F638" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G638" t="n">
-        <v>1</v>
-      </c>
-      <c r="H638" t="s">
-        <v>4</v>
-      </c>
-      <c r="I638" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="639" spans="1:9">
-      <c r="A639" s="1" t="n">
-        <v>637</v>
-      </c>
-      <c r="B639" t="s">
-        <v>0</v>
-      </c>
-      <c r="C639" t="s">
-        <v>1</v>
-      </c>
-      <c r="D639" t="n">
-        <v>638</v>
-      </c>
-      <c r="E639" t="s">
-        <v>1226</v>
-      </c>
-      <c r="F639" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G639" t="n">
-        <v>1</v>
-      </c>
-      <c r="H639" t="s">
-        <v>4</v>
-      </c>
-      <c r="I639" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="640" spans="1:9">
-      <c r="A640" s="1" t="n">
-        <v>638</v>
-      </c>
-      <c r="B640" t="s">
-        <v>0</v>
-      </c>
-      <c r="C640" t="s">
-        <v>1</v>
-      </c>
-      <c r="D640" t="n">
-        <v>639</v>
-      </c>
-      <c r="E640" t="s">
-        <v>1228</v>
-      </c>
-      <c r="F640" t="s">
-        <v>1229</v>
-      </c>
-      <c r="G640" t="n">
-        <v>1</v>
-      </c>
-      <c r="H640" t="s">
-        <v>4</v>
-      </c>
-      <c r="I640" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="641" spans="1:9">
-      <c r="A641" s="1" t="n">
-        <v>639</v>
-      </c>
-      <c r="B641" t="s">
-        <v>0</v>
-      </c>
-      <c r="C641" t="s">
-        <v>1</v>
-      </c>
-      <c r="D641" t="n">
-        <v>640</v>
-      </c>
-      <c r="E641" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F641" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G641" t="n">
-        <v>1</v>
-      </c>
-      <c r="H641" t="s">
-        <v>4</v>
-      </c>
-      <c r="I641" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="642" spans="1:9">
-      <c r="A642" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="B642" t="s">
-        <v>0</v>
-      </c>
-      <c r="C642" t="s">
-        <v>1</v>
-      </c>
-      <c r="D642" t="n">
-        <v>641</v>
-      </c>
-      <c r="E642" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F642" t="s">
-        <v>1233</v>
-      </c>
-      <c r="G642" t="n">
-        <v>1</v>
-      </c>
-      <c r="H642" t="s">
-        <v>4</v>
-      </c>
-      <c r="I642" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="643" spans="1:9">
-      <c r="A643" s="1" t="n">
-        <v>641</v>
-      </c>
-      <c r="B643" t="s">
-        <v>0</v>
-      </c>
-      <c r="C643" t="s">
-        <v>1</v>
-      </c>
-      <c r="D643" t="n">
-        <v>642</v>
-      </c>
-      <c r="E643" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F643" t="s">
-        <v>1235</v>
-      </c>
-      <c r="G643" t="n">
-        <v>1</v>
-      </c>
-      <c r="H643" t="s">
-        <v>4</v>
-      </c>
-      <c r="I643" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="644" spans="1:9">
-      <c r="A644" s="1" t="n">
-        <v>642</v>
-      </c>
-      <c r="B644" t="s">
-        <v>0</v>
-      </c>
-      <c r="C644" t="s">
-        <v>1</v>
-      </c>
-      <c r="D644" t="n">
-        <v>643</v>
-      </c>
-      <c r="E644" t="s">
-        <v>1236</v>
-      </c>
-      <c r="F644" t="s">
-        <v>1237</v>
-      </c>
-      <c r="G644" t="n">
-        <v>1</v>
-      </c>
-      <c r="H644" t="s">
-        <v>4</v>
-      </c>
-      <c r="I644" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="645" spans="1:9">
-      <c r="A645" s="1" t="n">
-        <v>643</v>
-      </c>
-      <c r="B645" t="s">
-        <v>0</v>
-      </c>
-      <c r="C645" t="s">
-        <v>1</v>
-      </c>
-      <c r="D645" t="n">
-        <v>644</v>
-      </c>
-      <c r="E645" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F645" t="s">
-        <v>1239</v>
-      </c>
-      <c r="G645" t="n">
-        <v>1</v>
-      </c>
-      <c r="H645" t="s">
-        <v>4</v>
-      </c>
-      <c r="I645" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="646" spans="1:9">
-      <c r="A646" s="1" t="n">
-        <v>644</v>
-      </c>
-      <c r="B646" t="s">
-        <v>0</v>
-      </c>
-      <c r="C646" t="s">
-        <v>1</v>
-      </c>
-      <c r="D646" t="n">
-        <v>645</v>
-      </c>
-      <c r="E646" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F646" t="s">
-        <v>1241</v>
-      </c>
-      <c r="G646" t="n">
-        <v>1</v>
-      </c>
-      <c r="H646" t="s">
-        <v>4</v>
-      </c>
-      <c r="I646" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="647" spans="1:9">
-      <c r="A647" s="1" t="n">
-        <v>645</v>
-      </c>
-      <c r="B647" t="s">
-        <v>0</v>
-      </c>
-      <c r="C647" t="s">
-        <v>1</v>
-      </c>
-      <c r="D647" t="n">
-        <v>646</v>
-      </c>
-      <c r="E647" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F647" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G647" t="n">
-        <v>1</v>
-      </c>
-      <c r="H647" t="s">
-        <v>4</v>
-      </c>
-      <c r="I647" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="648" spans="1:9">
-      <c r="A648" s="1" t="n">
-        <v>646</v>
-      </c>
-      <c r="B648" t="s">
-        <v>0</v>
-      </c>
-      <c r="C648" t="s">
-        <v>1</v>
-      </c>
-      <c r="D648" t="n">
-        <v>647</v>
-      </c>
-      <c r="E648" t="s">
-        <v>1244</v>
-      </c>
-      <c r="F648" t="s">
-        <v>1245</v>
-      </c>
-      <c r="G648" t="n">
-        <v>1</v>
-      </c>
-      <c r="H648" t="s">
-        <v>4</v>
-      </c>
-      <c r="I648" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="649" spans="1:9">
-      <c r="A649" s="1" t="n">
-        <v>647</v>
-      </c>
-      <c r="B649" t="s">
-        <v>0</v>
-      </c>
-      <c r="C649" t="s">
-        <v>1</v>
-      </c>
-      <c r="D649" t="n">
-        <v>648</v>
-      </c>
-      <c r="E649" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F649" t="s">
-        <v>1247</v>
-      </c>
-      <c r="G649" t="n">
-        <v>1</v>
-      </c>
-      <c r="H649" t="s">
-        <v>4</v>
-      </c>
-      <c r="I649" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="650" spans="1:9">
-      <c r="A650" s="1" t="n">
-        <v>648</v>
-      </c>
-      <c r="B650" t="s">
-        <v>0</v>
-      </c>
-      <c r="C650" t="s">
-        <v>1</v>
-      </c>
-      <c r="D650" t="n">
-        <v>649</v>
-      </c>
-      <c r="E650" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F650" t="s">
-        <v>1249</v>
-      </c>
-      <c r="G650" t="n">
-        <v>1</v>
-      </c>
-      <c r="H650" t="s">
-        <v>4</v>
-      </c>
-      <c r="I650" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="651" spans="1:9">
-      <c r="A651" s="1" t="n">
-        <v>649</v>
-      </c>
-      <c r="B651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C651" t="s">
-        <v>1</v>
-      </c>
-      <c r="D651" t="n">
-        <v>650</v>
-      </c>
-      <c r="E651" t="s">
-        <v>1250</v>
-      </c>
-      <c r="F651" t="s">
-        <v>1251</v>
-      </c>
-      <c r="G651" t="n">
-        <v>1</v>
-      </c>
-      <c r="H651" t="s">
-        <v>4</v>
-      </c>
-      <c r="I651" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="652" spans="1:9">
-      <c r="A652" s="1" t="n">
-        <v>650</v>
-      </c>
-      <c r="B652" t="s">
-        <v>0</v>
-      </c>
-      <c r="C652" t="s">
-        <v>1</v>
-      </c>
-      <c r="D652" t="n">
-        <v>651</v>
-      </c>
-      <c r="E652" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F652" t="s">
-        <v>1253</v>
-      </c>
-      <c r="G652" t="n">
-        <v>1</v>
-      </c>
-      <c r="H652" t="s">
-        <v>4</v>
-      </c>
-      <c r="I652" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="653" spans="1:9">
-      <c r="A653" s="1" t="n">
-        <v>651</v>
-      </c>
-      <c r="B653" t="s">
-        <v>0</v>
-      </c>
-      <c r="C653" t="s">
-        <v>1</v>
-      </c>
-      <c r="D653" t="n">
-        <v>652</v>
-      </c>
-      <c r="E653" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F653" t="s">
-        <v>1255</v>
-      </c>
-      <c r="G653" t="n">
-        <v>1</v>
-      </c>
-      <c r="H653" t="s">
-        <v>4</v>
-      </c>
-      <c r="I653" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="654" spans="1:9">
-      <c r="A654" s="1" t="n">
-        <v>652</v>
-      </c>
-      <c r="B654" t="s">
-        <v>0</v>
-      </c>
-      <c r="C654" t="s">
-        <v>1</v>
-      </c>
-      <c r="D654" t="n">
-        <v>653</v>
-      </c>
-      <c r="E654" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F654" t="s">
-        <v>1257</v>
-      </c>
-      <c r="G654" t="n">
-        <v>1</v>
-      </c>
-      <c r="H654" t="s">
-        <v>4</v>
-      </c>
-      <c r="I654" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="655" spans="1:9">
-      <c r="A655" s="1" t="n">
-        <v>653</v>
-      </c>
-      <c r="B655" t="s">
-        <v>0</v>
-      </c>
-      <c r="C655" t="s">
-        <v>1</v>
-      </c>
-      <c r="D655" t="n">
-        <v>654</v>
-      </c>
-      <c r="E655" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F655" t="s">
-        <v>1259</v>
-      </c>
-      <c r="G655" t="n">
-        <v>1</v>
-      </c>
-      <c r="H655" t="s">
-        <v>4</v>
-      </c>
-      <c r="I655" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="656" spans="1:9">
-      <c r="A656" s="1" t="n">
-        <v>654</v>
-      </c>
-      <c r="B656" t="s">
-        <v>0</v>
-      </c>
-      <c r="C656" t="s">
-        <v>1</v>
-      </c>
-      <c r="D656" t="n">
-        <v>655</v>
-      </c>
-      <c r="E656" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F656" t="s">
-        <v>1261</v>
-      </c>
-      <c r="G656" t="n">
-        <v>1</v>
-      </c>
-      <c r="H656" t="s">
-        <v>4</v>
-      </c>
-      <c r="I656" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="657" spans="1:9">
-      <c r="A657" s="1" t="n">
-        <v>655</v>
-      </c>
-      <c r="B657" t="s">
-        <v>0</v>
-      </c>
-      <c r="C657" t="s">
-        <v>1</v>
-      </c>
-      <c r="D657" t="n">
-        <v>656</v>
-      </c>
-      <c r="E657" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F657" t="s">
-        <v>1263</v>
-      </c>
-      <c r="G657" t="n">
-        <v>1</v>
-      </c>
-      <c r="H657" t="s">
-        <v>4</v>
-      </c>
-      <c r="I657" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="658" spans="1:9">
-      <c r="A658" s="1" t="n">
-        <v>656</v>
-      </c>
-      <c r="B658" t="s">
-        <v>0</v>
-      </c>
-      <c r="C658" t="s">
-        <v>1</v>
-      </c>
-      <c r="D658" t="n">
-        <v>657</v>
-      </c>
-      <c r="E658" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F658" t="s">
-        <v>1265</v>
-      </c>
-      <c r="G658" t="n">
-        <v>1</v>
-      </c>
-      <c r="H658" t="s">
-        <v>4</v>
-      </c>
-      <c r="I658" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="659" spans="1:9">
-      <c r="A659" s="1" t="n">
-        <v>657</v>
-      </c>
-      <c r="B659" t="s">
-        <v>0</v>
-      </c>
-      <c r="C659" t="s">
-        <v>1</v>
-      </c>
-      <c r="D659" t="n">
-        <v>658</v>
-      </c>
-      <c r="E659" t="s">
-        <v>1266</v>
-      </c>
-      <c r="F659" t="s">
-        <v>1267</v>
-      </c>
-      <c r="G659" t="n">
-        <v>1</v>
-      </c>
-      <c r="H659" t="s">
-        <v>4</v>
-      </c>
-      <c r="I659" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="660" spans="1:9">
-      <c r="A660" s="1" t="n">
-        <v>658</v>
-      </c>
-      <c r="B660" t="s">
-        <v>0</v>
-      </c>
-      <c r="C660" t="s">
-        <v>1</v>
-      </c>
-      <c r="D660" t="n">
-        <v>659</v>
-      </c>
-      <c r="E660" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F660" t="s">
-        <v>1269</v>
-      </c>
-      <c r="G660" t="n">
-        <v>1</v>
-      </c>
-      <c r="H660" t="s">
-        <v>4</v>
-      </c>
-      <c r="I660" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="661" spans="1:9">
-      <c r="A661" s="1" t="n">
-        <v>659</v>
-      </c>
-      <c r="B661" t="s">
-        <v>0</v>
-      </c>
-      <c r="C661" t="s">
-        <v>1</v>
-      </c>
-      <c r="D661" t="n">
-        <v>660</v>
-      </c>
-      <c r="E661" t="s">
-        <v>1270</v>
-      </c>
-      <c r="F661" t="s">
-        <v>1271</v>
-      </c>
-      <c r="G661" t="n">
-        <v>1</v>
-      </c>
-      <c r="H661" t="s">
-        <v>4</v>
-      </c>
-      <c r="I661" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="662" spans="1:9">
-      <c r="A662" s="1" t="n">
-        <v>660</v>
-      </c>
-      <c r="B662" t="s">
-        <v>0</v>
-      </c>
-      <c r="C662" t="s">
-        <v>1</v>
-      </c>
-      <c r="D662" t="n">
-        <v>661</v>
-      </c>
-      <c r="E662" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F662" t="s">
-        <v>1273</v>
-      </c>
-      <c r="G662" t="n">
-        <v>1</v>
-      </c>
-      <c r="H662" t="s">
-        <v>4</v>
-      </c>
-      <c r="I662" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="663" spans="1:9">
-      <c r="A663" s="1" t="n">
-        <v>661</v>
-      </c>
-      <c r="B663" t="s">
-        <v>0</v>
-      </c>
-      <c r="C663" t="s">
-        <v>1</v>
-      </c>
-      <c r="D663" t="n">
-        <v>662</v>
-      </c>
-      <c r="E663" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F663" t="s">
-        <v>1275</v>
-      </c>
-      <c r="G663" t="n">
-        <v>1</v>
-      </c>
-      <c r="H663" t="s">
-        <v>4</v>
-      </c>
-      <c r="I663" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="664" spans="1:9">
-      <c r="A664" s="1" t="n">
-        <v>662</v>
-      </c>
-      <c r="B664" t="s">
-        <v>0</v>
-      </c>
-      <c r="C664" t="s">
-        <v>1</v>
-      </c>
-      <c r="D664" t="n">
-        <v>663</v>
-      </c>
-      <c r="E664" t="s">
-        <v>1276</v>
-      </c>
-      <c r="F664" t="s">
-        <v>1277</v>
-      </c>
-      <c r="G664" t="n">
-        <v>1</v>
-      </c>
-      <c r="H664" t="s">
-        <v>4</v>
-      </c>
-      <c r="I664" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="665" spans="1:9">
-      <c r="A665" s="1" t="n">
-        <v>663</v>
-      </c>
-      <c r="B665" t="s">
-        <v>0</v>
-      </c>
-      <c r="C665" t="s">
-        <v>1</v>
-      </c>
-      <c r="D665" t="n">
-        <v>664</v>
-      </c>
-      <c r="E665" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F665" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G665" t="n">
-        <v>1</v>
-      </c>
-      <c r="H665" t="s">
-        <v>4</v>
-      </c>
-      <c r="I665" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="666" spans="1:9">
-      <c r="A666" s="1" t="n">
-        <v>664</v>
-      </c>
-      <c r="B666" t="s">
-        <v>0</v>
-      </c>
-      <c r="C666" t="s">
-        <v>1</v>
-      </c>
-      <c r="D666" t="n">
-        <v>665</v>
-      </c>
-      <c r="E666" t="s">
-        <v>1280</v>
-      </c>
-      <c r="F666" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G666" t="n">
-        <v>1</v>
-      </c>
-      <c r="H666" t="s">
-        <v>4</v>
-      </c>
-      <c r="I666" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="667" spans="1:9">
-      <c r="A667" s="1" t="n">
-        <v>665</v>
-      </c>
-      <c r="B667" t="s">
-        <v>0</v>
-      </c>
-      <c r="C667" t="s">
-        <v>1</v>
-      </c>
-      <c r="D667" t="n">
-        <v>666</v>
-      </c>
-      <c r="E667" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F667" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G667" t="n">
-        <v>1</v>
-      </c>
-      <c r="H667" t="s">
-        <v>4</v>
-      </c>
-      <c r="I667" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="668" spans="1:9">
-      <c r="A668" s="1" t="n">
-        <v>666</v>
-      </c>
-      <c r="B668" t="s">
-        <v>0</v>
-      </c>
-      <c r="C668" t="s">
-        <v>1</v>
-      </c>
-      <c r="D668" t="n">
-        <v>667</v>
-      </c>
-      <c r="E668" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F668" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G668" t="n">
-        <v>1</v>
-      </c>
-      <c r="H668" t="s">
-        <v>4</v>
-      </c>
-      <c r="I668" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="669" spans="1:9">
-      <c r="A669" s="1" t="n">
-        <v>667</v>
-      </c>
-      <c r="B669" t="s">
-        <v>0</v>
-      </c>
-      <c r="C669" t="s">
-        <v>1</v>
-      </c>
-      <c r="D669" t="n">
-        <v>668</v>
-      </c>
-      <c r="E669" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F669" t="s">
-        <v>1287</v>
-      </c>
-      <c r="G669" t="n">
-        <v>1</v>
-      </c>
-      <c r="H669" t="s">
-        <v>4</v>
-      </c>
-      <c r="I669" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="670" spans="1:9">
-      <c r="A670" s="1" t="n">
-        <v>668</v>
-      </c>
-      <c r="B670" t="s">
-        <v>0</v>
-      </c>
-      <c r="C670" t="s">
-        <v>1</v>
-      </c>
-      <c r="D670" t="n">
-        <v>669</v>
-      </c>
-      <c r="E670" t="s">
-        <v>1288</v>
-      </c>
-      <c r="F670" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G670" t="n">
-        <v>1</v>
-      </c>
-      <c r="H670" t="s">
-        <v>4</v>
-      </c>
-      <c r="I670" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="671" spans="1:9">
-      <c r="A671" s="1" t="n">
-        <v>669</v>
-      </c>
-      <c r="B671" t="s">
-        <v>0</v>
-      </c>
-      <c r="C671" t="s">
-        <v>1</v>
-      </c>
-      <c r="D671" t="n">
-        <v>670</v>
-      </c>
-      <c r="E671" t="s">
-        <v>1290</v>
-      </c>
-      <c r="F671" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G671" t="n">
-        <v>1</v>
-      </c>
-      <c r="H671" t="s">
-        <v>4</v>
-      </c>
-      <c r="I671" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="672" spans="1:9">
-      <c r="A672" s="1" t="n">
-        <v>670</v>
-      </c>
-      <c r="B672" t="s">
-        <v>0</v>
-      </c>
-      <c r="C672" t="s">
-        <v>1</v>
-      </c>
-      <c r="D672" t="n">
-        <v>671</v>
-      </c>
-      <c r="E672" t="s">
-        <v>1292</v>
-      </c>
-      <c r="F672" t="s">
-        <v>1293</v>
-      </c>
-      <c r="G672" t="n">
-        <v>1</v>
-      </c>
-      <c r="H672" t="s">
-        <v>4</v>
-      </c>
-      <c r="I672" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="673" spans="1:9">
-      <c r="A673" s="1" t="n">
-        <v>671</v>
-      </c>
-      <c r="B673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C673" t="s">
-        <v>1</v>
-      </c>
-      <c r="D673" t="n">
-        <v>672</v>
-      </c>
-      <c r="E673" t="s">
-        <v>1294</v>
-      </c>
-      <c r="F673" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G673" t="n">
-        <v>1</v>
-      </c>
-      <c r="H673" t="s">
-        <v>4</v>
-      </c>
-      <c r="I673" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="674" spans="1:9">
-      <c r="A674" s="1" t="n">
-        <v>672</v>
-      </c>
-      <c r="B674" t="s">
-        <v>0</v>
-      </c>
-      <c r="C674" t="s">
-        <v>1</v>
-      </c>
-      <c r="D674" t="n">
-        <v>673</v>
-      </c>
-      <c r="E674" t="s">
-        <v>1296</v>
-      </c>
-      <c r="F674" t="s">
-        <v>1297</v>
-      </c>
-      <c r="G674" t="n">
-        <v>1</v>
-      </c>
-      <c r="H674" t="s">
-        <v>4</v>
-      </c>
-      <c r="I674" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="675" spans="1:9">
-      <c r="A675" s="1" t="n">
-        <v>673</v>
-      </c>
-      <c r="B675" t="s">
-        <v>0</v>
-      </c>
-      <c r="C675" t="s">
-        <v>1</v>
-      </c>
-      <c r="D675" t="n">
-        <v>674</v>
-      </c>
-      <c r="E675" t="s">
-        <v>1298</v>
-      </c>
-      <c r="F675" t="s">
-        <v>1299</v>
-      </c>
-      <c r="G675" t="n">
-        <v>1</v>
-      </c>
-      <c r="H675" t="s">
-        <v>4</v>
-      </c>
-      <c r="I675" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="676" spans="1:9">
-      <c r="A676" s="1" t="n">
-        <v>674</v>
-      </c>
-      <c r="B676" t="s">
-        <v>0</v>
-      </c>
-      <c r="C676" t="s">
-        <v>1</v>
-      </c>
-      <c r="D676" t="n">
-        <v>675</v>
-      </c>
-      <c r="E676" t="s">
-        <v>1300</v>
-      </c>
-      <c r="F676" t="s">
-        <v>1301</v>
-      </c>
-      <c r="G676" t="n">
-        <v>1</v>
-      </c>
-      <c r="H676" t="s">
-        <v>4</v>
-      </c>
-      <c r="I676" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="677" spans="1:9">
-      <c r="A677" s="1" t="n">
-        <v>675</v>
-      </c>
-      <c r="B677" t="s">
-        <v>0</v>
-      </c>
-      <c r="C677" t="s">
-        <v>1</v>
-      </c>
-      <c r="D677" t="n">
-        <v>676</v>
-      </c>
-      <c r="E677" t="s">
-        <v>1302</v>
-      </c>
-      <c r="F677" t="s">
-        <v>1303</v>
-      </c>
-      <c r="G677" t="n">
-        <v>2</v>
-      </c>
-      <c r="H677" t="s">
-        <v>4</v>
-      </c>
-      <c r="I677" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="678" spans="1:9">
-      <c r="A678" s="1" t="n">
-        <v>676</v>
-      </c>
-      <c r="B678" t="s">
-        <v>0</v>
-      </c>
-      <c r="C678" t="s">
-        <v>1</v>
-      </c>
-      <c r="D678" t="n">
-        <v>677</v>
-      </c>
-      <c r="E678" t="s">
-        <v>1304</v>
-      </c>
-      <c r="F678" t="s">
-        <v>1305</v>
-      </c>
-      <c r="G678" t="n">
-        <v>1</v>
-      </c>
-      <c r="H678" t="s">
-        <v>4</v>
-      </c>
-      <c r="I678" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="679" spans="1:9">
-      <c r="A679" s="1" t="n">
-        <v>677</v>
-      </c>
-      <c r="B679" t="s">
-        <v>0</v>
-      </c>
-      <c r="C679" t="s">
-        <v>1</v>
-      </c>
-      <c r="D679" t="n">
-        <v>678</v>
-      </c>
-      <c r="E679" t="s">
-        <v>1306</v>
-      </c>
-      <c r="F679" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G679" t="n">
-        <v>1</v>
-      </c>
-      <c r="H679" t="s">
-        <v>4</v>
-      </c>
-      <c r="I679" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="680" spans="1:9">
-      <c r="A680" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="B680" t="s">
-        <v>0</v>
-      </c>
-      <c r="C680" t="s">
-        <v>1</v>
-      </c>
-      <c r="D680" t="n">
-        <v>679</v>
-      </c>
-      <c r="E680" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F680" t="s">
-        <v>1309</v>
-      </c>
-      <c r="G680" t="n">
-        <v>1</v>
-      </c>
-      <c r="H680" t="s">
-        <v>4</v>
-      </c>
-      <c r="I680" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="681" spans="1:9">
-      <c r="A681" s="1" t="n">
-        <v>679</v>
-      </c>
-      <c r="B681" t="s">
-        <v>0</v>
-      </c>
-      <c r="C681" t="s">
-        <v>1</v>
-      </c>
-      <c r="D681" t="n">
-        <v>680</v>
-      </c>
-      <c r="E681" t="s">
-        <v>1310</v>
-      </c>
-      <c r="F681" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G681" t="n">
-        <v>1</v>
-      </c>
-      <c r="H681" t="s">
-        <v>4</v>
-      </c>
-      <c r="I681" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="682" spans="1:9">
-      <c r="A682" s="1" t="n">
-        <v>680</v>
-      </c>
-      <c r="B682" t="s">
-        <v>0</v>
-      </c>
-      <c r="C682" t="s">
-        <v>1</v>
-      </c>
-      <c r="D682" t="n">
-        <v>681</v>
-      </c>
-      <c r="E682" t="s">
-        <v>1312</v>
-      </c>
-      <c r="F682" t="s">
-        <v>1313</v>
-      </c>
-      <c r="G682" t="n">
-        <v>1</v>
-      </c>
-      <c r="H682" t="s">
-        <v>4</v>
-      </c>
-      <c r="I682" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="683" spans="1:9">
-      <c r="A683" s="1" t="n">
-        <v>681</v>
-      </c>
-      <c r="B683" t="s">
-        <v>0</v>
-      </c>
-      <c r="C683" t="s">
-        <v>1</v>
-      </c>
-      <c r="D683" t="n">
-        <v>682</v>
-      </c>
-      <c r="E683" t="s">
-        <v>1314</v>
-      </c>
-      <c r="F683" t="s">
-        <v>1315</v>
-      </c>
-      <c r="G683" t="n">
-        <v>1</v>
-      </c>
-      <c r="H683" t="s">
-        <v>4</v>
-      </c>
-      <c r="I683" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="684" spans="1:9">
-      <c r="A684" s="1" t="n">
-        <v>682</v>
-      </c>
-      <c r="B684" t="s">
-        <v>0</v>
-      </c>
-      <c r="C684" t="s">
-        <v>1</v>
-      </c>
-      <c r="D684" t="n">
-        <v>683</v>
-      </c>
-      <c r="E684" t="s">
-        <v>1316</v>
-      </c>
-      <c r="F684" t="s">
-        <v>1317</v>
-      </c>
-      <c r="G684" t="n">
-        <v>1</v>
-      </c>
-      <c r="H684" t="s">
-        <v>4</v>
-      </c>
-      <c r="I684" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="685" spans="1:9">
-      <c r="A685" s="1" t="n">
-        <v>683</v>
-      </c>
-      <c r="B685" t="s">
-        <v>0</v>
-      </c>
-      <c r="C685" t="s">
-        <v>1</v>
-      </c>
-      <c r="D685" t="n">
-        <v>684</v>
-      </c>
-      <c r="E685" t="s">
-        <v>1318</v>
-      </c>
-      <c r="F685" t="s">
-        <v>1319</v>
-      </c>
-      <c r="G685" t="n">
-        <v>1</v>
-      </c>
-      <c r="H685" t="s">
-        <v>4</v>
-      </c>
-      <c r="I685" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="686" spans="1:9">
-      <c r="A686" s="1" t="n">
-        <v>684</v>
-      </c>
-      <c r="B686" t="s">
-        <v>0</v>
-      </c>
-      <c r="C686" t="s">
-        <v>1</v>
-      </c>
-      <c r="D686" t="n">
-        <v>685</v>
-      </c>
-      <c r="E686" t="s">
-        <v>1320</v>
-      </c>
-      <c r="F686" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G686" t="n">
-        <v>1</v>
-      </c>
-      <c r="H686" t="s">
-        <v>4</v>
-      </c>
-      <c r="I686" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="687" spans="1:9">
-      <c r="A687" s="1" t="n">
-        <v>685</v>
-      </c>
-      <c r="B687" t="s">
-        <v>0</v>
-      </c>
-      <c r="C687" t="s">
-        <v>1</v>
-      </c>
-      <c r="D687" t="n">
-        <v>686</v>
-      </c>
-      <c r="E687" t="s">
-        <v>1322</v>
-      </c>
-      <c r="F687" t="s">
-        <v>1323</v>
-      </c>
-      <c r="G687" t="n">
-        <v>1</v>
-      </c>
-      <c r="H687" t="s">
-        <v>4</v>
-      </c>
-      <c r="I687" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="688" spans="1:9">
-      <c r="A688" s="1" t="n">
-        <v>686</v>
-      </c>
-      <c r="B688" t="s">
-        <v>0</v>
-      </c>
-      <c r="C688" t="s">
-        <v>1</v>
-      </c>
-      <c r="D688" t="n">
-        <v>687</v>
-      </c>
-      <c r="E688" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F688" t="s">
-        <v>1325</v>
-      </c>
-      <c r="G688" t="n">
-        <v>1</v>
-      </c>
-      <c r="H688" t="s">
-        <v>4</v>
-      </c>
-      <c r="I688" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="689" spans="1:9">
-      <c r="A689" s="1" t="n">
-        <v>687</v>
-      </c>
-      <c r="B689" t="s">
-        <v>0</v>
-      </c>
-      <c r="C689" t="s">
-        <v>1</v>
-      </c>
-      <c r="D689" t="n">
-        <v>688</v>
-      </c>
-      <c r="E689" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F689" t="s">
-        <v>1327</v>
-      </c>
-      <c r="G689" t="n">
-        <v>1</v>
-      </c>
-      <c r="H689" t="s">
-        <v>4</v>
-      </c>
-      <c r="I689" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="690" spans="1:9">
-      <c r="A690" s="1" t="n">
-        <v>688</v>
-      </c>
-      <c r="B690" t="s">
-        <v>0</v>
-      </c>
-      <c r="C690" t="s">
-        <v>1</v>
-      </c>
-      <c r="D690" t="n">
-        <v>689</v>
-      </c>
-      <c r="E690" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F690" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G690" t="n">
-        <v>1</v>
-      </c>
-      <c r="H690" t="s">
-        <v>4</v>
-      </c>
-      <c r="I690" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="691" spans="1:9">
-      <c r="A691" s="1" t="n">
-        <v>689</v>
-      </c>
-      <c r="B691" t="s">
-        <v>0</v>
-      </c>
-      <c r="C691" t="s">
-        <v>1</v>
-      </c>
-      <c r="D691" t="n">
-        <v>690</v>
-      </c>
-      <c r="E691" t="s">
-        <v>1330</v>
-      </c>
-      <c r="F691" t="s">
-        <v>1331</v>
-      </c>
-      <c r="G691" t="n">
-        <v>1</v>
-      </c>
-      <c r="H691" t="s">
-        <v>4</v>
-      </c>
-      <c r="I691" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="692" spans="1:9">
-      <c r="A692" s="1" t="n">
-        <v>690</v>
-      </c>
-      <c r="B692" t="s">
-        <v>0</v>
-      </c>
-      <c r="C692" t="s">
-        <v>1</v>
-      </c>
-      <c r="D692" t="n">
-        <v>691</v>
-      </c>
-      <c r="E692" t="s">
-        <v>1332</v>
-      </c>
-      <c r="F692" t="s">
-        <v>1333</v>
-      </c>
-      <c r="G692" t="n">
-        <v>1</v>
-      </c>
-      <c r="H692" t="s">
-        <v>4</v>
-      </c>
-      <c r="I692" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="693" spans="1:9">
-      <c r="A693" s="1" t="n">
-        <v>691</v>
-      </c>
-      <c r="B693" t="s">
-        <v>0</v>
-      </c>
-      <c r="C693" t="s">
-        <v>1</v>
-      </c>
-      <c r="D693" t="n">
-        <v>692</v>
-      </c>
-      <c r="E693" t="s">
-        <v>1334</v>
-      </c>
-      <c r="F693" t="s">
-        <v>1335</v>
-      </c>
-      <c r="G693" t="n">
-        <v>1</v>
-      </c>
-      <c r="H693" t="s">
-        <v>4</v>
-      </c>
-      <c r="I693" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="694" spans="1:9">
-      <c r="A694" s="1" t="n">
-        <v>692</v>
-      </c>
-      <c r="B694" t="s">
-        <v>0</v>
-      </c>
-      <c r="C694" t="s">
-        <v>1</v>
-      </c>
-      <c r="D694" t="n">
-        <v>693</v>
-      </c>
-      <c r="E694" t="s">
-        <v>1336</v>
-      </c>
-      <c r="F694" t="s">
-        <v>1337</v>
-      </c>
-      <c r="G694" t="n">
-        <v>1</v>
-      </c>
-      <c r="H694" t="s">
-        <v>4</v>
-      </c>
-      <c r="I694" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="695" spans="1:9">
-      <c r="A695" s="1" t="n">
-        <v>693</v>
-      </c>
-      <c r="B695" t="s">
-        <v>0</v>
-      </c>
-      <c r="C695" t="s">
-        <v>1</v>
-      </c>
-      <c r="D695" t="n">
-        <v>694</v>
-      </c>
-      <c r="E695" t="s">
-        <v>1338</v>
-      </c>
-      <c r="F695" t="s">
-        <v>1339</v>
-      </c>
-      <c r="G695" t="n">
-        <v>1</v>
-      </c>
-      <c r="H695" t="s">
-        <v>4</v>
-      </c>
-      <c r="I695" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="696" spans="1:9">
-      <c r="A696" s="1" t="n">
-        <v>694</v>
-      </c>
-      <c r="B696" t="s">
-        <v>0</v>
-      </c>
-      <c r="C696" t="s">
-        <v>1</v>
-      </c>
-      <c r="D696" t="n">
-        <v>695</v>
-      </c>
-      <c r="E696" t="s">
-        <v>1340</v>
-      </c>
-      <c r="F696" t="s">
-        <v>1341</v>
-      </c>
-      <c r="G696" t="n">
-        <v>1</v>
-      </c>
-      <c r="H696" t="s">
-        <v>4</v>
-      </c>
-      <c r="I696" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="697" spans="1:9">
-      <c r="A697" s="1" t="n">
-        <v>695</v>
-      </c>
-      <c r="B697" t="s">
-        <v>0</v>
-      </c>
-      <c r="C697" t="s">
-        <v>1</v>
-      </c>
-      <c r="D697" t="n">
-        <v>696</v>
-      </c>
-      <c r="E697" t="s">
-        <v>1342</v>
-      </c>
-      <c r="F697" t="s">
-        <v>1343</v>
-      </c>
-      <c r="G697" t="n">
-        <v>1</v>
-      </c>
-      <c r="H697" t="s">
-        <v>4</v>
-      </c>
-      <c r="I697" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="698" spans="1:9">
-      <c r="A698" s="1" t="n">
-        <v>696</v>
-      </c>
-      <c r="B698" t="s">
-        <v>0</v>
-      </c>
-      <c r="C698" t="s">
-        <v>1</v>
-      </c>
-      <c r="D698" t="n">
-        <v>697</v>
-      </c>
-      <c r="E698" t="s">
-        <v>1344</v>
-      </c>
-      <c r="F698" t="s">
-        <v>1345</v>
-      </c>
-      <c r="G698" t="n">
-        <v>1</v>
-      </c>
-      <c r="H698" t="s">
-        <v>4</v>
-      </c>
-      <c r="I698" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="699" spans="1:9">
-      <c r="A699" s="1" t="n">
-        <v>697</v>
-      </c>
-      <c r="B699" t="s">
-        <v>0</v>
-      </c>
-      <c r="C699" t="s">
-        <v>1</v>
-      </c>
-      <c r="D699" t="n">
-        <v>698</v>
-      </c>
-      <c r="E699" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F699" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G699" t="n">
-        <v>1</v>
-      </c>
-      <c r="H699" t="s">
-        <v>4</v>
-      </c>
-      <c r="I699" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="700" spans="1:9">
-      <c r="A700" s="1" t="n">
-        <v>698</v>
-      </c>
-      <c r="B700" t="s">
-        <v>0</v>
-      </c>
-      <c r="C700" t="s">
-        <v>1</v>
-      </c>
-      <c r="D700" t="n">
-        <v>699</v>
-      </c>
-      <c r="E700" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F700" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G700" t="n">
-        <v>1</v>
-      </c>
-      <c r="H700" t="s">
-        <v>4</v>
-      </c>
-      <c r="I700" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="701" spans="1:9">
-      <c r="A701" s="1" t="n">
-        <v>699</v>
-      </c>
-      <c r="B701" t="s">
-        <v>0</v>
-      </c>
-      <c r="C701" t="s">
-        <v>1</v>
-      </c>
-      <c r="D701" t="n">
-        <v>700</v>
-      </c>
-      <c r="E701" t="s">
-        <v>1350</v>
-      </c>
-      <c r="F701" t="s">
-        <v>1351</v>
-      </c>
-      <c r="G701" t="n">
-        <v>1</v>
-      </c>
-      <c r="H701" t="s">
-        <v>4</v>
-      </c>
-      <c r="I701" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="702" spans="1:9">
-      <c r="A702" s="1" t="n">
-        <v>700</v>
-      </c>
-      <c r="B702" t="s">
-        <v>0</v>
-      </c>
-      <c r="C702" t="s">
-        <v>1</v>
-      </c>
-      <c r="D702" t="n">
-        <v>701</v>
-      </c>
-      <c r="E702" t="s">
-        <v>1352</v>
-      </c>
-      <c r="F702" t="s">
-        <v>1353</v>
-      </c>
-      <c r="G702" t="n">
-        <v>1</v>
-      </c>
-      <c r="H702" t="s">
-        <v>4</v>
-      </c>
-      <c r="I702" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="703" spans="1:9">
-      <c r="A703" s="1" t="n">
-        <v>701</v>
-      </c>
-      <c r="B703" t="s">
-        <v>0</v>
-      </c>
-      <c r="C703" t="s">
-        <v>1</v>
-      </c>
-      <c r="D703" t="n">
-        <v>702</v>
-      </c>
-      <c r="E703" t="s">
-        <v>1354</v>
-      </c>
-      <c r="F703" t="s">
-        <v>1355</v>
-      </c>
-      <c r="G703" t="n">
-        <v>1</v>
-      </c>
-      <c r="H703" t="s">
-        <v>4</v>
-      </c>
-      <c r="I703" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="704" spans="1:9">
-      <c r="A704" s="1" t="n">
-        <v>702</v>
-      </c>
-      <c r="B704" t="s">
-        <v>0</v>
-      </c>
-      <c r="C704" t="s">
-        <v>1</v>
-      </c>
-      <c r="D704" t="n">
-        <v>703</v>
-      </c>
-      <c r="E704" t="s">
-        <v>1356</v>
-      </c>
-      <c r="F704" t="s">
-        <v>1357</v>
-      </c>
-      <c r="G704" t="n">
-        <v>1</v>
-      </c>
-      <c r="H704" t="s">
-        <v>4</v>
-      </c>
-      <c r="I704" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="705" spans="1:9">
-      <c r="A705" s="1" t="n">
-        <v>703</v>
-      </c>
-      <c r="B705" t="s">
-        <v>0</v>
-      </c>
-      <c r="C705" t="s">
-        <v>1</v>
-      </c>
-      <c r="D705" t="n">
-        <v>704</v>
-      </c>
-      <c r="E705" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F705" t="s">
-        <v>1359</v>
-      </c>
-      <c r="G705" t="n">
-        <v>1</v>
-      </c>
-      <c r="H705" t="s">
-        <v>4</v>
-      </c>
-      <c r="I705" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="706" spans="1:9">
-      <c r="A706" s="1" t="n">
-        <v>704</v>
-      </c>
-      <c r="B706" t="s">
-        <v>0</v>
-      </c>
-      <c r="C706" t="s">
-        <v>1</v>
-      </c>
-      <c r="D706" t="n">
-        <v>705</v>
-      </c>
-      <c r="E706" t="s">
-        <v>1360</v>
-      </c>
-      <c r="F706" t="s">
-        <v>1361</v>
-      </c>
-      <c r="G706" t="n">
-        <v>1</v>
-      </c>
-      <c r="H706" t="s">
-        <v>4</v>
-      </c>
-      <c r="I706" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="707" spans="1:9">
-      <c r="A707" s="1" t="n">
-        <v>705</v>
-      </c>
-      <c r="B707" t="s">
-        <v>0</v>
-      </c>
-      <c r="C707" t="s">
-        <v>1</v>
-      </c>
-      <c r="D707" t="n">
-        <v>706</v>
-      </c>
-      <c r="E707" t="s">
-        <v>1362</v>
-      </c>
-      <c r="F707" t="s">
-        <v>1363</v>
-      </c>
-      <c r="G707" t="n">
-        <v>1</v>
-      </c>
-      <c r="H707" t="s">
-        <v>4</v>
-      </c>
-      <c r="I707" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="708" spans="1:9">
-      <c r="A708" s="1" t="n">
-        <v>706</v>
-      </c>
-      <c r="B708" t="s">
-        <v>0</v>
-      </c>
-      <c r="C708" t="s">
-        <v>1</v>
-      </c>
-      <c r="D708" t="n">
-        <v>707</v>
-      </c>
-      <c r="E708" t="s">
-        <v>1364</v>
-      </c>
-      <c r="F708" t="s">
-        <v>1365</v>
-      </c>
-      <c r="G708" t="n">
-        <v>1</v>
-      </c>
-      <c r="H708" t="s">
-        <v>4</v>
-      </c>
-      <c r="I708" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="709" spans="1:9">
-      <c r="A709" s="1" t="n">
-        <v>707</v>
-      </c>
-      <c r="B709" t="s">
-        <v>0</v>
-      </c>
-      <c r="C709" t="s">
-        <v>1</v>
-      </c>
-      <c r="D709" t="n">
-        <v>708</v>
-      </c>
-      <c r="E709" t="s">
-        <v>1366</v>
-      </c>
-      <c r="F709" t="s">
-        <v>1367</v>
-      </c>
-      <c r="G709" t="n">
-        <v>1</v>
-      </c>
-      <c r="H709" t="s">
-        <v>4</v>
-      </c>
-      <c r="I709" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="710" spans="1:9">
-      <c r="A710" s="1" t="n">
-        <v>708</v>
-      </c>
-      <c r="B710" t="s">
-        <v>0</v>
-      </c>
-      <c r="C710" t="s">
-        <v>1</v>
-      </c>
-      <c r="D710" t="n">
-        <v>709</v>
-      </c>
-      <c r="E710" t="s">
-        <v>1368</v>
-      </c>
-      <c r="F710" t="s">
-        <v>1369</v>
-      </c>
-      <c r="G710" t="n">
-        <v>1</v>
-      </c>
-      <c r="H710" t="s">
-        <v>4</v>
-      </c>
-      <c r="I710" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="711" spans="1:9">
-      <c r="A711" s="1" t="n">
-        <v>709</v>
-      </c>
-      <c r="B711" t="s">
-        <v>0</v>
-      </c>
-      <c r="C711" t="s">
-        <v>1</v>
-      </c>
-      <c r="D711" t="n">
-        <v>710</v>
-      </c>
-      <c r="E711" t="s">
-        <v>1370</v>
-      </c>
-      <c r="F711" t="s">
-        <v>1371</v>
-      </c>
-      <c r="G711" t="n">
-        <v>1</v>
-      </c>
-      <c r="H711" t="s">
-        <v>4</v>
-      </c>
-      <c r="I711" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="712" spans="1:9">
-      <c r="A712" s="1" t="n">
-        <v>710</v>
-      </c>
-      <c r="B712" t="s">
-        <v>0</v>
-      </c>
-      <c r="C712" t="s">
-        <v>1</v>
-      </c>
-      <c r="D712" t="n">
-        <v>711</v>
-      </c>
-      <c r="E712" t="s">
-        <v>1372</v>
-      </c>
-      <c r="F712" t="s">
-        <v>1373</v>
-      </c>
-      <c r="G712" t="n">
-        <v>1</v>
-      </c>
-      <c r="H712" t="s">
-        <v>4</v>
-      </c>
-      <c r="I712" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="713" spans="1:9">
-      <c r="A713" s="1" t="n">
-        <v>711</v>
-      </c>
-      <c r="B713" t="s">
-        <v>0</v>
-      </c>
-      <c r="C713" t="s">
-        <v>1</v>
-      </c>
-      <c r="D713" t="n">
-        <v>712</v>
-      </c>
-      <c r="E713" t="s">
-        <v>1374</v>
-      </c>
-      <c r="F713" t="s">
-        <v>1375</v>
-      </c>
-      <c r="G713" t="n">
-        <v>1</v>
-      </c>
-      <c r="H713" t="s">
-        <v>4</v>
-      </c>
-      <c r="I713" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="714" spans="1:9">
-      <c r="A714" s="1" t="n">
-        <v>712</v>
-      </c>
-      <c r="B714" t="s">
-        <v>0</v>
-      </c>
-      <c r="C714" t="s">
-        <v>1</v>
-      </c>
-      <c r="D714" t="n">
-        <v>713</v>
-      </c>
-      <c r="E714" t="s">
-        <v>1376</v>
-      </c>
-      <c r="F714" t="s">
-        <v>1377</v>
-      </c>
-      <c r="G714" t="n">
-        <v>1</v>
-      </c>
-      <c r="H714" t="s">
-        <v>4</v>
-      </c>
-      <c r="I714" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="715" spans="1:9">
-      <c r="A715" s="1" t="n">
-        <v>713</v>
-      </c>
-      <c r="B715" t="s">
-        <v>0</v>
-      </c>
-      <c r="C715" t="s">
-        <v>1</v>
-      </c>
-      <c r="D715" t="n">
-        <v>714</v>
-      </c>
-      <c r="E715" t="s">
-        <v>1378</v>
-      </c>
-      <c r="F715" t="s">
-        <v>1379</v>
-      </c>
-      <c r="G715" t="n">
-        <v>1</v>
-      </c>
-      <c r="H715" t="s">
-        <v>4</v>
-      </c>
-      <c r="I715" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="716" spans="1:9">
-      <c r="A716" s="1" t="n">
-        <v>714</v>
-      </c>
-      <c r="B716" t="s">
-        <v>0</v>
-      </c>
-      <c r="C716" t="s">
-        <v>1</v>
-      </c>
-      <c r="D716" t="n">
-        <v>715</v>
-      </c>
-      <c r="E716" t="s">
-        <v>1380</v>
-      </c>
-      <c r="F716" t="s">
-        <v>1381</v>
-      </c>
-      <c r="G716" t="n">
-        <v>1</v>
-      </c>
-      <c r="H716" t="s">
-        <v>4</v>
-      </c>
-      <c r="I716" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="717" spans="1:9">
-      <c r="A717" s="1" t="n">
-        <v>715</v>
-      </c>
-      <c r="B717" t="s">
-        <v>0</v>
-      </c>
-      <c r="C717" t="s">
-        <v>1</v>
-      </c>
-      <c r="D717" t="n">
-        <v>716</v>
-      </c>
-      <c r="E717" t="s">
-        <v>1382</v>
-      </c>
-      <c r="F717" t="s">
-        <v>1383</v>
-      </c>
-      <c r="G717" t="n">
-        <v>1</v>
-      </c>
-      <c r="H717" t="s">
-        <v>4</v>
-      </c>
-      <c r="I717" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="718" spans="1:9">
-      <c r="A718" s="1" t="n">
-        <v>716</v>
-      </c>
-      <c r="B718" t="s">
-        <v>0</v>
-      </c>
-      <c r="C718" t="s">
-        <v>1</v>
-      </c>
-      <c r="D718" t="n">
-        <v>717</v>
-      </c>
-      <c r="E718" t="s">
-        <v>1384</v>
-      </c>
-      <c r="F718" t="s">
-        <v>1385</v>
-      </c>
-      <c r="G718" t="n">
-        <v>1</v>
-      </c>
-      <c r="H718" t="s">
-        <v>4</v>
-      </c>
-      <c r="I718" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="719" spans="1:9">
-      <c r="A719" s="1" t="n">
-        <v>717</v>
-      </c>
-      <c r="B719" t="s">
-        <v>0</v>
-      </c>
-      <c r="C719" t="s">
-        <v>1</v>
-      </c>
-      <c r="D719" t="n">
-        <v>718</v>
-      </c>
-      <c r="E719" t="s">
-        <v>1386</v>
-      </c>
-      <c r="F719" t="s">
-        <v>1387</v>
-      </c>
-      <c r="G719" t="n">
-        <v>1</v>
-      </c>
-      <c r="H719" t="s">
-        <v>4</v>
-      </c>
-      <c r="I719" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="720" spans="1:9">
-      <c r="A720" s="1" t="n">
-        <v>718</v>
-      </c>
-      <c r="B720" t="s">
-        <v>0</v>
-      </c>
-      <c r="C720" t="s">
-        <v>1</v>
-      </c>
-      <c r="D720" t="n">
-        <v>719</v>
-      </c>
-      <c r="E720" t="s">
-        <v>1388</v>
-      </c>
-      <c r="F720" t="s">
-        <v>1389</v>
-      </c>
-      <c r="G720" t="n">
-        <v>1</v>
-      </c>
-      <c r="H720" t="s">
-        <v>4</v>
-      </c>
-      <c r="I720" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="721" spans="1:9">
-      <c r="A721" s="1" t="n">
-        <v>719</v>
-      </c>
-      <c r="B721" t="s">
-        <v>0</v>
-      </c>
-      <c r="C721" t="s">
-        <v>1</v>
-      </c>
-      <c r="D721" t="n">
-        <v>720</v>
-      </c>
-      <c r="E721" t="s">
-        <v>1390</v>
-      </c>
-      <c r="F721" t="s">
-        <v>1391</v>
-      </c>
-      <c r="G721" t="n">
-        <v>1</v>
-      </c>
-      <c r="H721" t="s">
-        <v>4</v>
-      </c>
-      <c r="I721" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="722" spans="1:9">
-      <c r="A722" s="1" t="n">
-        <v>720</v>
-      </c>
-      <c r="B722" t="s">
-        <v>0</v>
-      </c>
-      <c r="C722" t="s">
-        <v>1</v>
-      </c>
-      <c r="D722" t="n">
-        <v>721</v>
-      </c>
-      <c r="E722" t="s">
-        <v>1392</v>
-      </c>
-      <c r="F722" t="s">
-        <v>1393</v>
-      </c>
-      <c r="G722" t="n">
-        <v>1</v>
-      </c>
-      <c r="H722" t="s">
-        <v>4</v>
-      </c>
-      <c r="I722" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="723" spans="1:9">
-      <c r="A723" s="1" t="n">
-        <v>721</v>
-      </c>
-      <c r="B723" t="s">
-        <v>0</v>
-      </c>
-      <c r="C723" t="s">
-        <v>1</v>
-      </c>
-      <c r="D723" t="n">
-        <v>722</v>
-      </c>
-      <c r="E723" t="s">
-        <v>1394</v>
-      </c>
-      <c r="F723" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G723" t="n">
-        <v>1</v>
-      </c>
-      <c r="H723" t="s">
-        <v>4</v>
-      </c>
-      <c r="I723" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="724" spans="1:9">
-      <c r="A724" s="1" t="n">
-        <v>722</v>
-      </c>
-      <c r="B724" t="s">
-        <v>0</v>
-      </c>
-      <c r="C724" t="s">
-        <v>1</v>
-      </c>
-      <c r="D724" t="n">
-        <v>723</v>
-      </c>
-      <c r="E724" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F724" t="s">
-        <v>1397</v>
-      </c>
-      <c r="G724" t="n">
-        <v>1</v>
-      </c>
-      <c r="H724" t="s">
-        <v>4</v>
-      </c>
-      <c r="I724" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="725" spans="1:9">
-      <c r="A725" s="1" t="n">
-        <v>723</v>
-      </c>
-      <c r="B725" t="s">
-        <v>0</v>
-      </c>
-      <c r="C725" t="s">
-        <v>1</v>
-      </c>
-      <c r="D725" t="n">
-        <v>724</v>
-      </c>
-      <c r="E725" t="s">
-        <v>1398</v>
-      </c>
-      <c r="F725" t="s">
-        <v>1399</v>
-      </c>
-      <c r="G725" t="n">
-        <v>1</v>
-      </c>
-      <c r="H725" t="s">
-        <v>4</v>
-      </c>
-      <c r="I725" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="726" spans="1:9">
-      <c r="A726" s="1" t="n">
-        <v>724</v>
-      </c>
-      <c r="B726" t="s">
-        <v>0</v>
-      </c>
-      <c r="C726" t="s">
-        <v>1</v>
-      </c>
-      <c r="D726" t="n">
-        <v>725</v>
-      </c>
-      <c r="E726" t="s">
-        <v>1400</v>
-      </c>
-      <c r="F726" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G726" t="n">
-        <v>1</v>
-      </c>
-      <c r="H726" t="s">
-        <v>4</v>
-      </c>
-      <c r="I726" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="727" spans="1:9">
-      <c r="A727" s="1" t="n">
-        <v>725</v>
-      </c>
-      <c r="B727" t="s">
-        <v>0</v>
-      </c>
-      <c r="C727" t="s">
-        <v>1</v>
-      </c>
-      <c r="D727" t="n">
-        <v>726</v>
-      </c>
-      <c r="E727" t="s">
-        <v>1402</v>
-      </c>
-      <c r="F727" t="s">
-        <v>1403</v>
-      </c>
-      <c r="G727" t="n">
-        <v>1</v>
-      </c>
-      <c r="H727" t="s">
-        <v>4</v>
-      </c>
-      <c r="I727" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="728" spans="1:9">
-      <c r="A728" s="1" t="n">
-        <v>726</v>
-      </c>
-      <c r="B728" t="s">
-        <v>0</v>
-      </c>
-      <c r="C728" t="s">
-        <v>1</v>
-      </c>
-      <c r="D728" t="n">
-        <v>727</v>
-      </c>
-      <c r="E728" t="s">
-        <v>1404</v>
-      </c>
-      <c r="F728" t="s">
-        <v>1405</v>
-      </c>
-      <c r="G728" t="n">
-        <v>1</v>
-      </c>
-      <c r="H728" t="s">
-        <v>4</v>
-      </c>
-      <c r="I728" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="729" spans="1:9">
-      <c r="A729" s="1" t="n">
-        <v>727</v>
-      </c>
-      <c r="B729" t="s">
-        <v>0</v>
-      </c>
-      <c r="C729" t="s">
-        <v>1</v>
-      </c>
-      <c r="D729" t="n">
-        <v>728</v>
-      </c>
-      <c r="E729" t="s">
-        <v>1406</v>
-      </c>
-      <c r="F729" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G729" t="n">
-        <v>1</v>
-      </c>
-      <c r="H729" t="s">
-        <v>4</v>
-      </c>
-      <c r="I729" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="730" spans="1:9">
-      <c r="A730" s="1" t="n">
-        <v>728</v>
-      </c>
-      <c r="B730" t="s">
-        <v>0</v>
-      </c>
-      <c r="C730" t="s">
-        <v>1</v>
-      </c>
-      <c r="D730" t="n">
-        <v>729</v>
-      </c>
-      <c r="E730" t="s">
-        <v>1408</v>
-      </c>
-      <c r="F730" t="s">
-        <v>1409</v>
-      </c>
-      <c r="G730" t="n">
-        <v>1</v>
-      </c>
-      <c r="H730" t="s">
-        <v>4</v>
-      </c>
-      <c r="I730" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="731" spans="1:9">
-      <c r="A731" s="1" t="n">
-        <v>729</v>
-      </c>
-      <c r="B731" t="s">
-        <v>0</v>
-      </c>
-      <c r="C731" t="s">
-        <v>1</v>
-      </c>
-      <c r="D731" t="n">
-        <v>730</v>
-      </c>
-      <c r="E731" t="s">
-        <v>1410</v>
-      </c>
-      <c r="F731" t="s">
-        <v>1411</v>
-      </c>
-      <c r="G731" t="n">
-        <v>1</v>
-      </c>
-      <c r="H731" t="s">
-        <v>4</v>
-      </c>
-      <c r="I731" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="732" spans="1:9">
-      <c r="A732" s="1" t="n">
-        <v>730</v>
-      </c>
-      <c r="B732" t="s">
-        <v>0</v>
-      </c>
-      <c r="C732" t="s">
-        <v>1</v>
-      </c>
-      <c r="D732" t="n">
-        <v>731</v>
-      </c>
-      <c r="E732" t="s">
-        <v>1412</v>
-      </c>
-      <c r="F732" t="s">
-        <v>1413</v>
-      </c>
-      <c r="G732" t="n">
-        <v>1</v>
-      </c>
-      <c r="H732" t="s">
-        <v>4</v>
-      </c>
-      <c r="I732" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="733" spans="1:9">
-      <c r="A733" s="1" t="n">
-        <v>731</v>
-      </c>
-      <c r="B733" t="s">
-        <v>0</v>
-      </c>
-      <c r="C733" t="s">
-        <v>1</v>
-      </c>
-      <c r="D733" t="n">
-        <v>732</v>
-      </c>
-      <c r="E733" t="s">
-        <v>1414</v>
-      </c>
-      <c r="F733" t="s">
-        <v>1415</v>
-      </c>
-      <c r="G733" t="n">
-        <v>1</v>
-      </c>
-      <c r="H733" t="s">
-        <v>4</v>
-      </c>
-      <c r="I733" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="734" spans="1:9">
-      <c r="A734" s="1" t="n">
-        <v>732</v>
-      </c>
-      <c r="B734" t="s">
-        <v>0</v>
-      </c>
-      <c r="C734" t="s">
-        <v>1</v>
-      </c>
-      <c r="D734" t="n">
-        <v>733</v>
-      </c>
-      <c r="E734" t="s">
-        <v>1416</v>
-      </c>
-      <c r="F734" t="s">
-        <v>1417</v>
-      </c>
-      <c r="G734" t="n">
-        <v>1</v>
-      </c>
-      <c r="H734" t="s">
-        <v>4</v>
-      </c>
-      <c r="I734" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="735" spans="1:9">
-      <c r="A735" s="1" t="n">
-        <v>733</v>
-      </c>
-      <c r="B735" t="s">
-        <v>0</v>
-      </c>
-      <c r="C735" t="s">
-        <v>1</v>
-      </c>
-      <c r="D735" t="n">
-        <v>734</v>
-      </c>
-      <c r="E735" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F735" t="s">
-        <v>1419</v>
-      </c>
-      <c r="G735" t="n">
-        <v>1</v>
-      </c>
-      <c r="H735" t="s">
-        <v>4</v>
-      </c>
-      <c r="I735" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="736" spans="1:9">
-      <c r="A736" s="1" t="n">
-        <v>734</v>
-      </c>
-      <c r="B736" t="s">
-        <v>0</v>
-      </c>
-      <c r="C736" t="s">
-        <v>1</v>
-      </c>
-      <c r="D736" t="n">
-        <v>735</v>
-      </c>
-      <c r="E736" t="s">
-        <v>1420</v>
-      </c>
-      <c r="F736" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G736" t="n">
-        <v>1</v>
-      </c>
-      <c r="H736" t="s">
-        <v>4</v>
-      </c>
-      <c r="I736" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="737" spans="1:9">
-      <c r="A737" s="1" t="n">
-        <v>735</v>
-      </c>
-      <c r="B737" t="s">
-        <v>0</v>
-      </c>
-      <c r="C737" t="s">
-        <v>1</v>
-      </c>
-      <c r="D737" t="n">
-        <v>736</v>
-      </c>
-      <c r="E737" t="s">
-        <v>1422</v>
-      </c>
-      <c r="F737" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G737" t="n">
-        <v>1</v>
-      </c>
-      <c r="H737" t="s">
-        <v>4</v>
-      </c>
-      <c r="I737" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="738" spans="1:9">
-      <c r="A738" s="1" t="n">
-        <v>736</v>
-      </c>
-      <c r="B738" t="s">
-        <v>0</v>
-      </c>
-      <c r="C738" t="s">
-        <v>1</v>
-      </c>
-      <c r="D738" t="n">
-        <v>737</v>
-      </c>
-      <c r="E738" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F738" t="s">
-        <v>1425</v>
-      </c>
-      <c r="G738" t="n">
-        <v>1</v>
-      </c>
-      <c r="H738" t="s">
-        <v>4</v>
-      </c>
-      <c r="I738" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="739" spans="1:9">
-      <c r="A739" s="1" t="n">
-        <v>737</v>
-      </c>
-      <c r="B739" t="s">
-        <v>0</v>
-      </c>
-      <c r="C739" t="s">
-        <v>1</v>
-      </c>
-      <c r="D739" t="n">
-        <v>738</v>
-      </c>
-      <c r="E739" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F739" t="s">
-        <v>1427</v>
-      </c>
-      <c r="G739" t="n">
-        <v>1</v>
-      </c>
-      <c r="H739" t="s">
-        <v>4</v>
-      </c>
-      <c r="I739" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="740" spans="1:9">
-      <c r="A740" s="1" t="n">
-        <v>738</v>
-      </c>
-      <c r="B740" t="s">
-        <v>0</v>
-      </c>
-      <c r="C740" t="s">
-        <v>1</v>
-      </c>
-      <c r="D740" t="n">
-        <v>739</v>
-      </c>
-      <c r="E740" t="s">
-        <v>1428</v>
-      </c>
-      <c r="F740" t="s">
-        <v>1429</v>
-      </c>
-      <c r="G740" t="n">
-        <v>1</v>
-      </c>
-      <c r="H740" t="s">
-        <v>4</v>
-      </c>
-      <c r="I740" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="741" spans="1:9">
-      <c r="A741" s="1" t="n">
-        <v>739</v>
-      </c>
-      <c r="B741" t="s">
-        <v>0</v>
-      </c>
-      <c r="C741" t="s">
-        <v>1</v>
-      </c>
-      <c r="D741" t="n">
-        <v>740</v>
-      </c>
-      <c r="E741" t="s">
-        <v>1430</v>
-      </c>
-      <c r="F741" t="s">
-        <v>1431</v>
-      </c>
-      <c r="G741" t="n">
-        <v>1</v>
-      </c>
-      <c r="H741" t="s">
-        <v>4</v>
-      </c>
-      <c r="I741" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="742" spans="1:9">
-      <c r="A742" s="1" t="n">
-        <v>740</v>
-      </c>
-      <c r="B742" t="s">
-        <v>0</v>
-      </c>
-      <c r="C742" t="s">
-        <v>1</v>
-      </c>
-      <c r="D742" t="n">
-        <v>741</v>
-      </c>
-      <c r="E742" t="s">
-        <v>1432</v>
-      </c>
-      <c r="F742" t="s">
-        <v>1433</v>
-      </c>
-      <c r="G742" t="n">
-        <v>1</v>
-      </c>
-      <c r="H742" t="s">
-        <v>4</v>
-      </c>
-      <c r="I742" t="n">
         <v>2</v>
       </c>
     </row>

--- a/xlsx/政策_政策_加州_intext.xlsx
+++ b/xlsx/政策_政策_加州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1048">
   <si>
     <t>加州</t>
   </si>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E5%B7%9E%E6%97%97</t>
   </si>
   <si>
-    <t>加利福尼亞州州旗</t>
+    <t>加利福尼亚州州旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E5%B7%9E%E5%BE%BD</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E5%B7%9E%E9%95%B7</t>
   </si>
   <si>
-    <t>加利福尼亞州州長</t>
+    <t>加利福尼亚州州长</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_Governors_of_California</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%9B%E5%AE%89%C2%B7%E8%B2%BB%E6%81%A9%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>黛安·費恩斯坦</t>
+    <t>黛安·费恩斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%91%AA%E6%8B%89%C2%B7%E5%93%88%E9%87%8C%E6%96%AF</t>
   </si>
   <si>
-    <t>卡瑪拉·哈里斯</t>
+    <t>卡玛拉·哈里斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -323,19 +323,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西部</t>
+    <t>美国西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%B2%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國太平洋沿岸地區</t>
+    <t>美国太平洋沿岸地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -347,13 +344,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_largest_California_cities_by_population</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%89%E4%BA%BA%E5%8F%A3%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>按人口排列的美國城市列表</t>
+    <t>按人口排列的美国城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
@@ -389,13 +386,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣</t>
+    <t>圣贝纳迪诺县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A2%E7%A9%8D%E6%9C%80%E5%A4%A7%E7%B8%A3%E4%BB%BD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國面積最大縣份列表</t>
+    <t>美国面积最大县份列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A8%8E%E5%A3%AB%E8%92%82%E6%9C%97</t>
   </si>
   <si>
-    <t>騎士蒂朗</t>
+    <t>骑士蒂朗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8D%A2%E7%9A%84%E9%98%BF%E7%8E%9B%E8%BF%AA%E6%96%AF</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞馬遜人</t>
+    <t>亚马逊人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
@@ -473,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>加利福尼亞州歷史</t>
+    <t>加利福尼亚州历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>下加利福尼亞州</t>
+    <t>下加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A</t>
@@ -575,13 +572,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BB%8D</t>
   </si>
   <si>
-    <t>北軍</t>
+    <t>北军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BB%8D</t>
   </si>
   <si>
-    <t>南軍</t>
+    <t>南军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E5%AF%A9%E8%A8%88%E9%95%B7</t>
   </si>
   <si>
-    <t>加利福尼亞州審計長</t>
+    <t>加利福尼亚州审计长</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/California_State_Treasurer</t>
@@ -671,31 +668,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E5%85%AC%E5%B9%B3%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>加利福尼亞州公平委員會</t>
+    <t>加利福尼亚州公平委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>參議員</t>
+    <t>参议员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BE%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>眾議員</t>
+    <t>众议员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E7%91%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙特瑞 (加利福尼亞州)</t>
+    <t>蒙特瑞 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E7%BE%8E%E5%9C%8B%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (美國加州)</t>
+    <t>圣荷西 (美国加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%97%E9%9C%8D_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -713,13 +710,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89%E4%BA%BA%E5%9C%98</t>
   </si>
   <si>
-    <t>美國選舉人團</t>
+    <t>美国选举人团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE%E4%BA%BA%E7%A5%A8</t>
@@ -737,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由主義</t>
+    <t>自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E5%AF%9F%C2%B7%E5%B0%BC%E5%85%8B%E6%A3%AE</t>
@@ -755,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%AB%BE%C2%B7%E5%8F%B2%E7%93%A6%E8%BE%9B%E6%A0%BC</t>
   </si>
   <si>
-    <t>阿諾·史瓦辛格</t>
+    <t>阿诺·史瓦辛格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%A0%BC%C2%B7%E6%83%A0%E7%89%B9%E6%9B%BC</t>
@@ -773,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Geography_of_California</t>
@@ -839,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1</t>
   </si>
   <si>
-    <t>內華達山</t>
+    <t>内华达山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%98%E5%9C%A3%E7%BE%8E%E5%9C%B0%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -857,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%B3%A5</t>
   </si>
   <si>
-    <t>海鳥</t>
+    <t>海鸟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Owens_Valley</t>
@@ -869,13 +866,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E8%AB%BE%E6%B9%96</t>
   </si>
   <si>
-    <t>莫諾湖</t>
+    <t>莫诺湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%88%BE%E9%A0%93%E6%B9%96</t>
   </si>
   <si>
-    <t>索爾頓湖</t>
+    <t>索尔顿湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%A6%E6%B2%99%E6%BC%A0</t>
@@ -917,13 +914,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%B4%8B%E6%B5%81</t>
   </si>
   <si>
-    <t>加利福尼亞洋流</t>
+    <t>加利福尼亚洋流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%9E%8B%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>地中海型氣候</t>
+    <t>地中海型气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%B1%B1%E6%B0%94%E5%80%99</t>
@@ -935,19 +932,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>紅木國家公園</t>
+    <t>红木国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E7%81%AB%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>拉森火山國家公園</t>
+    <t>拉森火山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E5%8B%9D%E7%BE%8E%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>優勝美地國家公園</t>
+    <t>优胜美地国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E7%8E%8B%E5%B3%A1%E8%B0%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -959,19 +956,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9D%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>紅杉國家公園</t>
+    <t>红杉国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>死亡谷國家公園</t>
+    <t>死亡谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9B%B8%E4%BA%9E%E6%A8%B9%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>約書亞樹國家公園</t>
+    <t>约书亚树国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B3%A1%E7%BE%A4%E5%B2%9B%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -983,13 +980,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%96%E9%A0%82%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>尖頂國家公園</t>
+    <t>尖顶国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>福特汽車</t>
+    <t>福特汽车</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Economy_of_California</t>
@@ -1031,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%E5%B7%9E</t>
   </si>
   <si>
-    <t>傑佛遜州</t>
+    <t>杰佛逊州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%BD%E8%B0%B7</t>
@@ -1079,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>娛樂</t>
+    <t>娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%A7%86</t>
@@ -1133,7 +1130,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82</t>
   </si>
   <si>
-    <t>醫療</t>
+    <t>医疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E6%B8%B8%E6%88%8F</t>
@@ -1205,15 +1202,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>拉丁裔美國人</t>
+    <t>拉丁裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
   </si>
   <si>
@@ -1223,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%87%B1%E8%BF%AA%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞凱迪亞</t>
+    <t>亚凯迪亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0</t>
@@ -1253,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%96%AF%E5%A1%94%E6%A2%85%E8%96%A9</t>
   </si>
   <si>
-    <t>科斯塔梅薩</t>
+    <t>科斯塔梅萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%85%B0%E6%88%B4%E5%B0%94</t>
@@ -1265,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E9%95%B7%E7%81%98</t>
   </si>
   <si>
-    <t>加州長灘</t>
+    <t>加州长滩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%88%A9%E5%B8%83_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1277,13 +1271,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%BE%E7%81%A3</t>
   </si>
   <si>
-    <t>爾灣</t>
+    <t>尔湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>蒙特利公園</t>
+    <t>蒙特利公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E8%90%A8%E8%BF%AA%E7%BA%B3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1313,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣 (加利福尼亞州)</t>
+    <t>圣贝纳迪诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A</t>
@@ -1343,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%80%AB%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>托倫斯 (加利福尼亞州)</t>
+    <t>托伦斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%A1%83%E5%B8%82</t>
@@ -1355,37 +1349,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>奧克蘭</t>
+    <t>奥克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E5%88%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伯克利 (加利福尼亞州)</t>
+    <t>伯克利 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94</t>
   </si>
   <si>
-    <t>阿拉米達</t>
+    <t>阿拉米达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
+    <t>费利蒙 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%AF%94%E8%92%82%E8%AB%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>庫比蒂諾 (加利福尼亞州)</t>
+    <t>库比蒂诺 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%85%8B%E6%96%AF%E8%8F%B2%E5%B0%94%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1409,7 +1403,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5</t>
   </si>
   <si>
-    <t>聖地牙哥</t>
+    <t>圣地牙哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%89%98%E5%85%8B%E9%A1%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1439,19 +1433,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞大學</t>
+    <t>加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學柏克萊分校</t>
+    <t>加利福尼亚大学柏克莱分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E6%88%B4%E7%B6%AD%E6%96%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學戴維斯分校</t>
+    <t>加利福尼亚大学戴维斯分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E5%93%88%E6%96%AF%E6%B1%80%E6%B3%95%E5%AD%A6%E9%99%A2</t>
@@ -1463,31 +1457,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E7%88%BE%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學爾灣分校</t>
+    <t>加利福尼亚大学尔湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學洛杉磯分校</t>
+    <t>加利福尼亚大学洛杉矶分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%86%B9%E5%BE%B7%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美熹德加利福尼亞大學</t>
+    <t>美熹德加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E6%B2%B3%E6%BF%B1%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學河濱分校</t>
+    <t>加利福尼亚大学河滨分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學聖地牙哥分校</t>
+    <t>加利福尼亚大学圣地牙哥分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6%E6%97%A7%E9%87%91%E5%B1%B1%E5%88%86%E6%A0%A1</t>
@@ -1499,19 +1493,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E8%81%96%E5%A1%94%E8%8A%AD%E8%8A%AD%E6%8B%89%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學聖塔芭芭拉分校</t>
+    <t>加利福尼亚大学圣塔芭芭拉分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E8%81%96%E5%A1%94%E5%85%8B%E9%AD%AF%E8%8C%B2%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學聖塔克魯茲分校</t>
+    <t>加利福尼亚大学圣塔克鲁兹分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞州立大學</t>
+    <t>加利福尼亚州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B7%AF%E6%98%93%E6%96%AF%E6%AC%A7%E6%AF%94%E6%96%AF%E6%99%AE%E5%88%86%E6%A0%A1</t>
@@ -1523,61 +1517,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%B5%B7%E4%BA%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加利福尼亞海事學院</t>
+    <t>加利福尼亚海事学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加州州立理工大學</t>
+    <t>加州州立理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8E%AB%E7%B4%8D%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>波莫納加州州立理工大學</t>
+    <t>波莫纳加州州立理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E8%B2%9D%E5%85%8B%E6%96%AF%E8%8F%B2%E7%88%BE%E5%BE%B7%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學貝克斯菲爾德分校</t>
+    <t>加州州立大学贝克斯菲尔德分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%B5%B7%E5%B3%BD%E7%BE%A4%E5%B3%B6%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學海峽群島分校</t>
+    <t>加州州立大学海峡群岛分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%A5%87%E7%A7%91%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學奇科分校</t>
+    <t>加州州立大学奇科分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%A4%9A%E6%98%8E%E6%A0%BC%E6%96%AF%E5%B1%B1%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學多明格斯山分校</t>
+    <t>加州州立大学多明格斯山分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%9D%B1%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學東灣分校</t>
+    <t>加州州立大学东湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%BC%97%E9%9B%B7%E6%96%AF%E8%AB%BE%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學弗雷斯諾分校</t>
+    <t>加州州立大学弗雷斯诺分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%AF%8C%E5%8B%92%E9%A0%93%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學富勒頓分校</t>
+    <t>加州州立大学富勒顿分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6%E9%95%BF%E6%BB%A9%E5%88%86%E6%A0%A1</t>
@@ -1589,55 +1583,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學洛杉磯分校</t>
+    <t>加州州立大学洛杉矶分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E8%92%99%E7%89%B9%E5%88%A9%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學蒙特利灣分校</t>
+    <t>加州州立大学蒙特利湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%8C%97%E5%B6%BA%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學北嶺分校</t>
+    <t>加州州立大学北岭分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%85%8B%E6%8B%89%E9%96%80%E6%89%98%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>薩克拉門托加州州立大學</t>
+    <t>萨克拉门托加州州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學聖貝納迪諾分校</t>
+    <t>加州州立大学圣贝纳迪诺分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E8%81%96%E9%A6%AC%E7%A7%91%E6%96%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學聖馬科斯分校</t>
+    <t>加州州立大学圣马科斯分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%96%AF%E5%9D%A6%E5%B0%BC%E6%96%AF%E6%B4%9B%E6%96%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學斯坦尼斯洛斯分校</t>
+    <t>加州州立大学斯坦尼斯洛斯分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>洪堡州立大學</t>
+    <t>洪堡州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖地牙哥州立大學</t>
+    <t>圣地牙哥州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -1649,13 +1643,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖荷西州立大學</t>
+    <t>圣荷西州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%AB%BE%E9%A6%AC%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>索諾馬州立大學</t>
+    <t>索诺马州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
@@ -1667,7 +1661,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E4%B8%AD%E5%BF%83%E8%A8%AD%E8%A8%88%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>藝術中心設計學院</t>
+    <t>艺术中心设计学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Claremont_Colleges</t>
@@ -1685,13 +1679,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E5%85%8B%E6%87%89%E7%94%A8%E7%94%9F%E5%91%BD%E7%A7%91%E5%AD%B8%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>凱克應用生命科學研究院</t>
+    <t>凯克应用生命科学研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8E%AB%E7%B4%8D%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>波莫納學院</t>
+    <t>波莫纳学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Claremont_McKenna_College</t>
@@ -1721,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>史丹佛大學</t>
+    <t>史丹佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E5%A4%A7%E5%AD%A6</t>
@@ -1739,19 +1733,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E7%8F%80%E4%BB%A3%E5%9B%A0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>佩珀代因大學</t>
+    <t>佩珀代因大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E8%B7%AF%E5%BE%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞路德大學</t>
+    <t>加利福尼亚路德大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖地牙哥大學</t>
+    <t>圣地牙哥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%A4%A7%E5%AD%A6</t>
@@ -1763,31 +1757,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E5%A4%A7%E5%AD%B8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>金門大學 (美國)</t>
+    <t>金门大学 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%9E%97%E9%81%94%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅馬林達大學</t>
+    <t>罗马林达大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%A5%BF%E7%91%9E%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>拉西瑞亞大學</t>
+    <t>拉西瑞亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E8%81%AF%E5%90%88%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>太平洋聯合學院</t>
+    <t>太平洋联合学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%98%87%E8%96%A9%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>阿蘇薩太平洋大學</t>
+    <t>阿苏萨太平洋大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%97%A8%E5%A4%A7%E6%A1%A5</t>
@@ -1799,19 +1793,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>洛杉磯國際機場</t>
+    <t>洛杉矶国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>聯合航空</t>
+    <t>联合航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>美國航空</t>
+    <t>美国航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -1823,37 +1817,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>舊金山國際機場</t>
+    <t>旧金山国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%8F%8D%E7%BE%8E%E5%9C%8B%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>維珍美國航空</t>
+    <t>维珍美国航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%9B%BC%C2%B7%E5%B3%B0%E7%94%B0%E8%81%96%E8%8D%B7%E8%A5%BF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>諾曼·峰田聖荷西國際機場</t>
+    <t>诺曼·峰田圣荷西国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>奧克蘭國際機場 (美國)</t>
+    <t>奥克兰国际机场 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>聖地牙哥國際機場</t>
+    <t>圣地牙哥国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E9%AB%98%E9%80%9F%E5%8F%8A%E5%BF%AB%E9%80%9F%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>加州高速及快速公路系統</t>
+    <t>加州高速及快速公路系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/99%E5%8F%B7%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E5%B7%9E%E9%81%93</t>
@@ -1889,7 +1883,7 @@
     <t>https://zh.wikipedia.org/wiki/8%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>8號州際公路</t>
+    <t>8号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/10%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E6%AE%B5</t>
@@ -1901,13 +1895,13 @@
     <t>https://zh.wikipedia.org/wiki/40%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>40號州際公路</t>
+    <t>40号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/580%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>580號州際公路 (加利福尼亞州)</t>
+    <t>580号州际公路 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/80%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E6%AE%B5</t>
@@ -1925,13 +1919,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD%E7%AA%81%E6%93%8A%E8%80%85</t>
   </si>
   <si>
-    <t>奧克蘭突擊者</t>
+    <t>奥克兰突击者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%85%AC%E7%BE%8A</t>
   </si>
   <si>
-    <t>洛杉磯公羊</t>
+    <t>洛杉矶公羊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%9B%9B%E5%8D%81%E4%B9%9D%E4%BA%BA</t>
@@ -1943,7 +1937,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職棒大聯盟</t>
+    <t>美国职棒大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MLB</t>
@@ -1955,97 +1949,97 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國聯盟</t>
+    <t>美国联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%AE%89%E9%82%A3%E7%BD%95%E5%A4%A9%E4%BD%BF</t>
   </si>
   <si>
-    <t>洛杉磯安那罕天使</t>
+    <t>洛杉矶安那罕天使</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD%E9%81%8B%E5%8B%95%E5%AE%B6</t>
   </si>
   <si>
-    <t>奧克蘭運動家</t>
+    <t>奥克兰运动家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國家聯盟</t>
+    <t>国家联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E9%81%93%E5%A5%87</t>
   </si>
   <si>
-    <t>洛杉磯道奇</t>
+    <t>洛杉矶道奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E6%95%99%E5%A3%AB</t>
   </si>
   <si>
-    <t>聖地牙哥教士</t>
+    <t>圣地牙哥教士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E5%B7%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>舊金山巨人</t>
+    <t>旧金山巨人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E9%81%8A%E9%A8%8E%E5%85%B5_(%E6%A3%92%E7%90%83)</t>
   </si>
   <si>
-    <t>德克薩斯遊騎兵 (棒球)</t>
+    <t>德克萨斯游骑兵 (棒球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E6%B0%B4%E6%89%8B</t>
   </si>
   <si>
-    <t>西雅圖水手</t>
+    <t>西雅图水手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%B4%85%E8%A5%AA</t>
   </si>
   <si>
-    <t>波士頓紅襪</t>
+    <t>波士顿红袜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B4%9B%E7%A3%AF</t>
   </si>
   <si>
-    <t>科羅拉多洛磯</t>
+    <t>科罗拉多洛矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B8%95%E7%81%A3%E5%85%89%E8%8A%92</t>
   </si>
   <si>
-    <t>坦帕灣光芒</t>
+    <t>坦帕湾光芒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A5%AD%E8%B6%B3%E7%90%83%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職業足球大聯盟</t>
+    <t>美国职业足球大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E9%8A%80%E6%B2%B3</t>
   </si>
   <si>
-    <t>洛杉磯銀河</t>
+    <t>洛杉矶银河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF%E5%9C%B0%E9%9C%87</t>
   </si>
   <si>
-    <t>聖荷西地震</t>
+    <t>圣荷西地震</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA</t>
@@ -2063,19 +2057,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%BF%AB%E8%89%87</t>
   </si>
   <si>
-    <t>洛杉磯快艇</t>
+    <t>洛杉矶快艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E6%B9%96%E4%BA%BA</t>
   </si>
   <si>
-    <t>洛杉磯湖人</t>
+    <t>洛杉矶湖人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6%E5%9C%8B%E7%8E%8B</t>
   </si>
   <si>
-    <t>沙加緬度國王</t>
+    <t>沙加缅度国王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WNBA</t>
@@ -2087,7 +2081,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E7%81%AB%E8%8A%B1</t>
   </si>
   <si>
-    <t>洛杉磯火花</t>
+    <t>洛杉矶火花</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NHL</t>
@@ -2099,19 +2093,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0%E9%B4%A8</t>
   </si>
   <si>
-    <t>安那翰鴨</t>
+    <t>安那翰鸭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%9C%8B%E7%8E%8B</t>
   </si>
   <si>
-    <t>洛杉磯國王</t>
+    <t>洛杉矶国王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF%E9%AF%8A%E9%AD%9A</t>
   </si>
   <si>
-    <t>聖荷西鯊魚</t>
+    <t>圣荷西鲨鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWE</t>
@@ -2123,7 +2117,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%C2%B7%E5%AF%86%E6%96%AF%E7%89%B9%E9%87%8C%E6%AD%90</t>
   </si>
   <si>
-    <t>雷·密斯特里歐</t>
+    <t>雷·密斯特里欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%8E</t>
@@ -2135,7 +2129,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Yes_California</t>
@@ -2159,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -2171,9 +2165,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
   </si>
   <si>
@@ -2183,7 +2174,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -2207,7 +2198,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -2243,7 +2234,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -2273,7 +2264,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -2285,7 +2276,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -2297,7 +2288,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -2309,7 +2300,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
@@ -2345,7 +2336,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -2357,7 +2348,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -2411,7 +2402,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -2429,7 +2420,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -2441,19 +2432,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -2471,7 +2462,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -2483,7 +2474,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -2495,7 +2486,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -2507,25 +2498,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -2555,7 +2546,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿拉米達縣</t>
+    <t>阿拉米达县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B4%BE%E6%81%A9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2573,7 +2564,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布特郡 (加利福尼亞州)</t>
+    <t>布特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%9F%A6%E6%8B%89%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2591,7 +2582,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E8%AF%BA%E7%89%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2609,7 +2600,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%B7%E6%96%AF%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費雷斯諾縣 (加利福尼亞州)</t>
+    <t>费雷斯诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E4%BC%A6%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2621,7 +2612,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (加利福尼亞州)</t>
+    <t>洪堡县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%9A%AE%E9%87%8C%E5%B0%94%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2651,7 +2642,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (加利福尼亞州)</t>
+    <t>莱克县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2663,7 +2654,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬德拉縣 (加利福尼亞州)</t>
+    <t>马德拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9E%97%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2687,7 +2678,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默塞德縣 (加利福尼亞州)</t>
+    <t>默塞德县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A4%9A%E5%85%8B%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2705,7 +2696,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙特雷縣 (加利福尼亞州)</t>
+    <t>蒙特雷县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95%E5%8E%BF</t>
@@ -2717,7 +2708,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E7%91%9F%E5%8E%BF</t>
@@ -2735,49 +2726,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝尼托縣 (加利福尼亞州)</t>
+    <t>圣贝尼托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥郡 (加利福尼亞州)</t>
+    <t>圣地牙哥郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖華金縣</t>
+    <t>圣华金县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E6%B3%A2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯波縣 (加利福尼亞州)</t>
+    <t>圣路易斯-奥比斯波县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E9%B2%81%E5%85%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2795,7 +2786,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝拉縣 (加利福尼亞州)</t>
+    <t>谢拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%96%AF%E5%9F%BA%E5%B0%A4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2861,7 +2852,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E6%B4%9B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>優洛縣 (加利福尼亞州)</t>
+    <t>优洛县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2891,13 +2882,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫德斯托 (加利福尼亞州)</t>
+    <t>莫德斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2927,13 +2918,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E6%9B%BE%E5%BE%B7%E5%A5%A7%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紹曾德奧克斯 (加利福尼亞州)</t>
+    <t>绍曾德奥克斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2957,13 +2948,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬可斯 (加利福尼亞州)</t>
+    <t>圣马可斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B0%BC%E9%9F%A6%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2975,13 +2966,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安那翰 (加利福尼亞州)</t>
+    <t>安那翰 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐文 (加利福尼亞州)</t>
+    <t>欧文 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%8E%9B%E4%B8%BD%E4%BA%9A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2999,7 +2990,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎 (加利福尼亞州)</t>
+    <t>圣罗莎 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%A1%94%E5%8D%A2%E9%A9%AC</t>
@@ -3017,7 +3008,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>維塞利亞 (加利福尼亞州)</t>
+    <t>维塞利亚 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -3029,7 +3020,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤巴城 (加利福尼亞州)</t>
+    <t>尤巴城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%8F%E5%B0%94</t>
@@ -3077,13 +3068,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>莫哈韋沙漠</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>北加利福尼亞州</t>
+    <t>北加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%E8%B0%B7</t>
@@ -3107,25 +3095,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖華金谷</t>
+    <t>圣华金谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞</t>
+    <t>南加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3149,7 +3137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3161,7 +3149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -5078,7 +5066,7 @@
         <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="G54" t="n">
         <v>30</v>
@@ -5104,10 +5092,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" t="s">
-        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -5133,10 +5121,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -5162,10 +5150,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
         <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>211</v>
@@ -5191,10 +5179,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
         <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>5</v>
@@ -5220,10 +5208,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
         <v>111</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>8</v>
@@ -5249,10 +5237,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
         <v>113</v>
-      </c>
-      <c r="F60" t="s">
-        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -5278,10 +5266,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
         <v>115</v>
-      </c>
-      <c r="F61" t="s">
-        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -5307,10 +5295,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -5336,10 +5324,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -5365,10 +5353,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -5394,10 +5382,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5423,10 +5411,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
         <v>125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5452,10 +5440,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>9</v>
@@ -5481,10 +5469,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5510,10 +5498,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -5539,10 +5527,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -5568,10 +5556,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5597,10 +5585,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>4</v>
@@ -5626,10 +5614,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>12</v>
@@ -5655,10 +5643,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5684,10 +5672,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5713,10 +5701,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -5742,10 +5730,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -5771,10 +5759,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5800,10 +5788,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5829,10 +5817,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>5</v>
@@ -5858,10 +5846,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5887,10 +5875,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5916,10 +5904,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5945,10 +5933,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -5974,10 +5962,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -6003,10 +5991,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -6032,10 +6020,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -6061,10 +6049,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -6090,10 +6078,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -6119,10 +6107,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -6148,10 +6136,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6177,10 +6165,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -6206,10 +6194,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -6235,10 +6223,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6264,10 +6252,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6293,10 +6281,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -6322,10 +6310,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6351,10 +6339,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>4</v>
@@ -6380,10 +6368,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -6409,10 +6397,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6438,10 +6426,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6467,10 +6455,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
@@ -6496,10 +6484,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -6525,10 +6513,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6583,10 +6571,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" t="s">
         <v>203</v>
-      </c>
-      <c r="F106" t="s">
-        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6612,10 +6600,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107" t="s">
         <v>205</v>
-      </c>
-      <c r="F107" t="s">
-        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6641,10 +6629,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>206</v>
+      </c>
+      <c r="F108" t="s">
         <v>207</v>
-      </c>
-      <c r="F108" t="s">
-        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6670,10 +6658,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>208</v>
+      </c>
+      <c r="F109" t="s">
         <v>209</v>
-      </c>
-      <c r="F109" t="s">
-        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6699,10 +6687,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>210</v>
+      </c>
+      <c r="F110" t="s">
         <v>211</v>
-      </c>
-      <c r="F110" t="s">
-        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6728,10 +6716,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>212</v>
+      </c>
+      <c r="F111" t="s">
         <v>213</v>
-      </c>
-      <c r="F111" t="s">
-        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6757,10 +6745,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" t="s">
         <v>215</v>
-      </c>
-      <c r="F112" t="s">
-        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6786,10 +6774,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>216</v>
+      </c>
+      <c r="F113" t="s">
         <v>217</v>
-      </c>
-      <c r="F113" t="s">
-        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6902,10 +6890,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>218</v>
+      </c>
+      <c r="F117" t="s">
         <v>219</v>
-      </c>
-      <c r="F117" t="s">
-        <v>220</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -6931,10 +6919,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>220</v>
+      </c>
+      <c r="F118" t="s">
         <v>221</v>
-      </c>
-      <c r="F118" t="s">
-        <v>222</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6989,10 +6977,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>188</v>
+      </c>
+      <c r="F120" t="s">
         <v>189</v>
-      </c>
-      <c r="F120" t="s">
-        <v>190</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -7018,10 +7006,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>222</v>
+      </c>
+      <c r="F121" t="s">
         <v>223</v>
-      </c>
-      <c r="F121" t="s">
-        <v>224</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -7047,10 +7035,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>224</v>
+      </c>
+      <c r="F122" t="s">
         <v>225</v>
-      </c>
-      <c r="F122" t="s">
-        <v>226</v>
       </c>
       <c r="G122" t="n">
         <v>7</v>
@@ -7076,10 +7064,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>226</v>
+      </c>
+      <c r="F123" t="s">
         <v>227</v>
-      </c>
-      <c r="F123" t="s">
-        <v>228</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -7105,10 +7093,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>228</v>
+      </c>
+      <c r="F124" t="s">
         <v>229</v>
-      </c>
-      <c r="F124" t="s">
-        <v>230</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7134,10 +7122,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>230</v>
+      </c>
+      <c r="F125" t="s">
         <v>231</v>
-      </c>
-      <c r="F125" t="s">
-        <v>232</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7163,10 +7151,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>232</v>
+      </c>
+      <c r="F126" t="s">
         <v>233</v>
-      </c>
-      <c r="F126" t="s">
-        <v>234</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7192,10 +7180,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>234</v>
+      </c>
+      <c r="F127" t="s">
         <v>235</v>
-      </c>
-      <c r="F127" t="s">
-        <v>236</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -7221,10 +7209,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>236</v>
+      </c>
+      <c r="F128" t="s">
         <v>237</v>
-      </c>
-      <c r="F128" t="s">
-        <v>238</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7250,10 +7238,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>238</v>
+      </c>
+      <c r="F129" t="s">
         <v>239</v>
-      </c>
-      <c r="F129" t="s">
-        <v>240</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7279,10 +7267,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>240</v>
+      </c>
+      <c r="F130" t="s">
         <v>241</v>
-      </c>
-      <c r="F130" t="s">
-        <v>242</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7308,10 +7296,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>242</v>
+      </c>
+      <c r="F131" t="s">
         <v>243</v>
-      </c>
-      <c r="F131" t="s">
-        <v>244</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7337,10 +7325,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>244</v>
+      </c>
+      <c r="F132" t="s">
         <v>245</v>
-      </c>
-      <c r="F132" t="s">
-        <v>246</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7395,10 +7383,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>246</v>
+      </c>
+      <c r="F134" t="s">
         <v>247</v>
-      </c>
-      <c r="F134" t="s">
-        <v>248</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7424,10 +7412,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>248</v>
+      </c>
+      <c r="F135" t="s">
         <v>249</v>
-      </c>
-      <c r="F135" t="s">
-        <v>250</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -7453,10 +7441,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>250</v>
+      </c>
+      <c r="F136" t="s">
         <v>251</v>
-      </c>
-      <c r="F136" t="s">
-        <v>252</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7482,10 +7470,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>252</v>
+      </c>
+      <c r="F137" t="s">
         <v>253</v>
-      </c>
-      <c r="F137" t="s">
-        <v>254</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7511,10 +7499,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>254</v>
+      </c>
+      <c r="F138" t="s">
         <v>255</v>
-      </c>
-      <c r="F138" t="s">
-        <v>256</v>
       </c>
       <c r="G138" t="n">
         <v>9</v>
@@ -7540,10 +7528,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>256</v>
+      </c>
+      <c r="F139" t="s">
         <v>257</v>
-      </c>
-      <c r="F139" t="s">
-        <v>258</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7569,10 +7557,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>258</v>
+      </c>
+      <c r="F140" t="s">
         <v>259</v>
-      </c>
-      <c r="F140" t="s">
-        <v>260</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7598,10 +7586,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>260</v>
+      </c>
+      <c r="F141" t="s">
         <v>261</v>
-      </c>
-      <c r="F141" t="s">
-        <v>262</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7627,10 +7615,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>262</v>
+      </c>
+      <c r="F142" t="s">
         <v>263</v>
-      </c>
-      <c r="F142" t="s">
-        <v>264</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -7656,10 +7644,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>264</v>
+      </c>
+      <c r="F143" t="s">
         <v>265</v>
-      </c>
-      <c r="F143" t="s">
-        <v>266</v>
       </c>
       <c r="G143" t="n">
         <v>7</v>
@@ -7685,10 +7673,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>266</v>
+      </c>
+      <c r="F144" t="s">
         <v>267</v>
-      </c>
-      <c r="F144" t="s">
-        <v>268</v>
       </c>
       <c r="G144" t="n">
         <v>7</v>
@@ -7714,10 +7702,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>268</v>
+      </c>
+      <c r="F145" t="s">
         <v>269</v>
-      </c>
-      <c r="F145" t="s">
-        <v>270</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7743,10 +7731,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>270</v>
+      </c>
+      <c r="F146" t="s">
         <v>271</v>
-      </c>
-      <c r="F146" t="s">
-        <v>272</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -7772,10 +7760,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>272</v>
+      </c>
+      <c r="F147" t="s">
         <v>273</v>
-      </c>
-      <c r="F147" t="s">
-        <v>274</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -7801,10 +7789,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>274</v>
+      </c>
+      <c r="F148" t="s">
         <v>275</v>
-      </c>
-      <c r="F148" t="s">
-        <v>276</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7830,10 +7818,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>276</v>
+      </c>
+      <c r="F149" t="s">
         <v>277</v>
-      </c>
-      <c r="F149" t="s">
-        <v>278</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7859,10 +7847,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>278</v>
+      </c>
+      <c r="F150" t="s">
         <v>279</v>
-      </c>
-      <c r="F150" t="s">
-        <v>280</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7888,10 +7876,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>280</v>
+      </c>
+      <c r="F151" t="s">
         <v>281</v>
-      </c>
-      <c r="F151" t="s">
-        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7917,10 +7905,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>282</v>
+      </c>
+      <c r="F152" t="s">
         <v>283</v>
-      </c>
-      <c r="F152" t="s">
-        <v>284</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7946,10 +7934,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>284</v>
+      </c>
+      <c r="F153" t="s">
         <v>285</v>
-      </c>
-      <c r="F153" t="s">
-        <v>286</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7975,10 +7963,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>286</v>
+      </c>
+      <c r="F154" t="s">
         <v>287</v>
-      </c>
-      <c r="F154" t="s">
-        <v>288</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -8004,10 +7992,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>288</v>
+      </c>
+      <c r="F155" t="s">
         <v>289</v>
-      </c>
-      <c r="F155" t="s">
-        <v>290</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8033,10 +8021,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>290</v>
+      </c>
+      <c r="F156" t="s">
         <v>291</v>
-      </c>
-      <c r="F156" t="s">
-        <v>292</v>
       </c>
       <c r="G156" t="n">
         <v>4</v>
@@ -8062,10 +8050,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>292</v>
+      </c>
+      <c r="F157" t="s">
         <v>293</v>
-      </c>
-      <c r="F157" t="s">
-        <v>294</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -8091,10 +8079,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>294</v>
+      </c>
+      <c r="F158" t="s">
         <v>295</v>
-      </c>
-      <c r="F158" t="s">
-        <v>296</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8120,10 +8108,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>296</v>
+      </c>
+      <c r="F159" t="s">
         <v>297</v>
-      </c>
-      <c r="F159" t="s">
-        <v>298</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8149,10 +8137,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>298</v>
+      </c>
+      <c r="F160" t="s">
         <v>299</v>
-      </c>
-      <c r="F160" t="s">
-        <v>300</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8178,10 +8166,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>300</v>
+      </c>
+      <c r="F161" t="s">
         <v>301</v>
-      </c>
-      <c r="F161" t="s">
-        <v>302</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8207,10 +8195,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>302</v>
+      </c>
+      <c r="F162" t="s">
         <v>303</v>
-      </c>
-      <c r="F162" t="s">
-        <v>304</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8236,10 +8224,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>304</v>
+      </c>
+      <c r="F163" t="s">
         <v>305</v>
-      </c>
-      <c r="F163" t="s">
-        <v>306</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8265,10 +8253,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>306</v>
+      </c>
+      <c r="F164" t="s">
         <v>307</v>
-      </c>
-      <c r="F164" t="s">
-        <v>308</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8294,10 +8282,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>308</v>
+      </c>
+      <c r="F165" t="s">
         <v>309</v>
-      </c>
-      <c r="F165" t="s">
-        <v>310</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8323,10 +8311,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>310</v>
+      </c>
+      <c r="F166" t="s">
         <v>311</v>
-      </c>
-      <c r="F166" t="s">
-        <v>312</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8352,10 +8340,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>312</v>
+      </c>
+      <c r="F167" t="s">
         <v>313</v>
-      </c>
-      <c r="F167" t="s">
-        <v>314</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8381,10 +8369,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>314</v>
+      </c>
+      <c r="F168" t="s">
         <v>315</v>
-      </c>
-      <c r="F168" t="s">
-        <v>316</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8410,10 +8398,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>316</v>
+      </c>
+      <c r="F169" t="s">
         <v>317</v>
-      </c>
-      <c r="F169" t="s">
-        <v>318</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8439,10 +8427,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>318</v>
+      </c>
+      <c r="F170" t="s">
         <v>319</v>
-      </c>
-      <c r="F170" t="s">
-        <v>320</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8468,10 +8456,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>320</v>
+      </c>
+      <c r="F171" t="s">
         <v>321</v>
-      </c>
-      <c r="F171" t="s">
-        <v>322</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8497,10 +8485,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>322</v>
+      </c>
+      <c r="F172" t="s">
         <v>323</v>
-      </c>
-      <c r="F172" t="s">
-        <v>324</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8526,10 +8514,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>324</v>
+      </c>
+      <c r="F173" t="s">
         <v>325</v>
-      </c>
-      <c r="F173" t="s">
-        <v>326</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8555,10 +8543,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>326</v>
+      </c>
+      <c r="F174" t="s">
         <v>327</v>
-      </c>
-      <c r="F174" t="s">
-        <v>328</v>
       </c>
       <c r="G174" t="n">
         <v>5</v>
@@ -8584,10 +8572,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>328</v>
+      </c>
+      <c r="F175" t="s">
         <v>329</v>
-      </c>
-      <c r="F175" t="s">
-        <v>330</v>
       </c>
       <c r="G175" t="n">
         <v>5</v>
@@ -8613,10 +8601,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>330</v>
+      </c>
+      <c r="F176" t="s">
         <v>331</v>
-      </c>
-      <c r="F176" t="s">
-        <v>332</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8642,10 +8630,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>332</v>
+      </c>
+      <c r="F177" t="s">
         <v>333</v>
-      </c>
-      <c r="F177" t="s">
-        <v>334</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8671,10 +8659,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>334</v>
+      </c>
+      <c r="F178" t="s">
         <v>335</v>
-      </c>
-      <c r="F178" t="s">
-        <v>336</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8700,10 +8688,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>336</v>
+      </c>
+      <c r="F179" t="s">
         <v>337</v>
-      </c>
-      <c r="F179" t="s">
-        <v>338</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -8729,10 +8717,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>338</v>
+      </c>
+      <c r="F180" t="s">
         <v>339</v>
-      </c>
-      <c r="F180" t="s">
-        <v>340</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8758,10 +8746,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>340</v>
+      </c>
+      <c r="F181" t="s">
         <v>341</v>
-      </c>
-      <c r="F181" t="s">
-        <v>342</v>
       </c>
       <c r="G181" t="n">
         <v>4</v>
@@ -8787,10 +8775,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>342</v>
+      </c>
+      <c r="F182" t="s">
         <v>343</v>
-      </c>
-      <c r="F182" t="s">
-        <v>344</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8816,10 +8804,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>344</v>
+      </c>
+      <c r="F183" t="s">
         <v>345</v>
-      </c>
-      <c r="F183" t="s">
-        <v>346</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8845,10 +8833,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>346</v>
+      </c>
+      <c r="F184" t="s">
         <v>347</v>
-      </c>
-      <c r="F184" t="s">
-        <v>348</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8874,10 +8862,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>348</v>
+      </c>
+      <c r="F185" t="s">
         <v>349</v>
-      </c>
-      <c r="F185" t="s">
-        <v>350</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8903,10 +8891,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>350</v>
+      </c>
+      <c r="F186" t="s">
         <v>351</v>
-      </c>
-      <c r="F186" t="s">
-        <v>352</v>
       </c>
       <c r="G186" t="n">
         <v>5</v>
@@ -8932,10 +8920,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>352</v>
+      </c>
+      <c r="F187" t="s">
         <v>353</v>
-      </c>
-      <c r="F187" t="s">
-        <v>354</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8961,10 +8949,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>354</v>
+      </c>
+      <c r="F188" t="s">
         <v>355</v>
-      </c>
-      <c r="F188" t="s">
-        <v>356</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8990,10 +8978,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>356</v>
+      </c>
+      <c r="F189" t="s">
         <v>357</v>
-      </c>
-      <c r="F189" t="s">
-        <v>358</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9019,10 +9007,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>358</v>
+      </c>
+      <c r="F190" t="s">
         <v>359</v>
-      </c>
-      <c r="F190" t="s">
-        <v>360</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9048,10 +9036,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>360</v>
+      </c>
+      <c r="F191" t="s">
         <v>361</v>
-      </c>
-      <c r="F191" t="s">
-        <v>362</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9077,10 +9065,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>362</v>
+      </c>
+      <c r="F192" t="s">
         <v>363</v>
-      </c>
-      <c r="F192" t="s">
-        <v>364</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9106,10 +9094,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>364</v>
+      </c>
+      <c r="F193" t="s">
         <v>365</v>
-      </c>
-      <c r="F193" t="s">
-        <v>366</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9135,10 +9123,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>366</v>
+      </c>
+      <c r="F194" t="s">
         <v>367</v>
-      </c>
-      <c r="F194" t="s">
-        <v>368</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9164,10 +9152,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>368</v>
+      </c>
+      <c r="F195" t="s">
         <v>369</v>
-      </c>
-      <c r="F195" t="s">
-        <v>370</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -9193,10 +9181,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>370</v>
+      </c>
+      <c r="F196" t="s">
         <v>371</v>
-      </c>
-      <c r="F196" t="s">
-        <v>372</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9222,10 +9210,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>372</v>
+      </c>
+      <c r="F197" t="s">
         <v>373</v>
-      </c>
-      <c r="F197" t="s">
-        <v>374</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9251,10 +9239,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>374</v>
+      </c>
+      <c r="F198" t="s">
         <v>375</v>
-      </c>
-      <c r="F198" t="s">
-        <v>376</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9280,10 +9268,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>376</v>
+      </c>
+      <c r="F199" t="s">
         <v>377</v>
-      </c>
-      <c r="F199" t="s">
-        <v>378</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9309,10 +9297,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>378</v>
+      </c>
+      <c r="F200" t="s">
         <v>379</v>
-      </c>
-      <c r="F200" t="s">
-        <v>380</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -9338,10 +9326,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>380</v>
+      </c>
+      <c r="F201" t="s">
         <v>381</v>
-      </c>
-      <c r="F201" t="s">
-        <v>382</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9367,10 +9355,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>382</v>
+      </c>
+      <c r="F202" t="s">
         <v>383</v>
-      </c>
-      <c r="F202" t="s">
-        <v>384</v>
       </c>
       <c r="G202" t="n">
         <v>8</v>
@@ -9396,10 +9384,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>384</v>
+      </c>
+      <c r="F203" t="s">
         <v>385</v>
-      </c>
-      <c r="F203" t="s">
-        <v>386</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9425,10 +9413,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>386</v>
+      </c>
+      <c r="F204" t="s">
         <v>387</v>
-      </c>
-      <c r="F204" t="s">
-        <v>388</v>
       </c>
       <c r="G204" t="n">
         <v>5</v>
@@ -9454,10 +9442,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>388</v>
+      </c>
+      <c r="F205" t="s">
         <v>389</v>
-      </c>
-      <c r="F205" t="s">
-        <v>390</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9483,10 +9471,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>390</v>
+      </c>
+      <c r="F206" t="s">
         <v>391</v>
-      </c>
-      <c r="F206" t="s">
-        <v>392</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -9512,10 +9500,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>392</v>
+      </c>
+      <c r="F207" t="s">
         <v>393</v>
-      </c>
-      <c r="F207" t="s">
-        <v>394</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -9541,10 +9529,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>394</v>
+      </c>
+      <c r="F208" t="s">
         <v>395</v>
-      </c>
-      <c r="F208" t="s">
-        <v>396</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9599,10 +9587,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F210" t="s">
-        <v>398</v>
+        <v>34</v>
       </c>
       <c r="G210" t="n">
         <v>21</v>
@@ -9628,10 +9616,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F211" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9657,10 +9645,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F212" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9686,10 +9674,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F213" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -9715,10 +9703,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F214" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9744,10 +9732,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F215" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9773,10 +9761,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F216" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9802,10 +9790,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F217" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9831,10 +9819,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F218" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9860,10 +9848,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F219" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9889,10 +9877,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F220" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9918,10 +9906,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F221" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9947,10 +9935,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F222" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9976,10 +9964,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F223" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10005,10 +9993,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F224" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -10034,10 +10022,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F225" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -10063,10 +10051,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F226" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10092,10 +10080,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F227" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10121,10 +10109,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F228" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10150,10 +10138,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F229" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10179,10 +10167,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F230" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10208,10 +10196,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F231" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10237,10 +10225,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F232" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10266,10 +10254,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F233" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10295,10 +10283,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F234" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G234" t="n">
         <v>6</v>
@@ -10324,10 +10312,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F235" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -10353,10 +10341,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10382,10 +10370,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F237" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -10411,10 +10399,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10440,10 +10428,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F239" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10469,10 +10457,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F240" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -10498,10 +10486,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -10527,10 +10515,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -10556,10 +10544,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G243" t="n">
         <v>8</v>
@@ -10585,10 +10573,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10614,10 +10602,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10643,10 +10631,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -10672,10 +10660,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10701,10 +10689,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G248" t="n">
         <v>12</v>
@@ -10730,10 +10718,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10759,10 +10747,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10788,10 +10776,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10817,10 +10805,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10846,10 +10834,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10875,10 +10863,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10904,10 +10892,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10933,10 +10921,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10962,10 +10950,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10991,10 +10979,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11020,10 +11008,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11049,10 +11037,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11078,10 +11066,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11107,10 +11095,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11136,10 +11124,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -11165,10 +11153,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11194,10 +11182,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11223,10 +11211,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11252,10 +11240,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11281,10 +11269,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11310,10 +11298,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11339,10 +11327,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11368,10 +11356,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F271" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11397,10 +11385,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F272" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11426,10 +11414,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F273" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11455,10 +11443,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11484,10 +11472,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F275" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11513,10 +11501,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F276" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11542,10 +11530,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11571,10 +11559,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F278" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11600,10 +11588,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F279" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11629,10 +11617,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F280" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11658,10 +11646,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11687,10 +11675,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11716,10 +11704,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11745,10 +11733,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11774,10 +11762,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11803,10 +11791,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11832,10 +11820,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11861,10 +11849,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11890,10 +11878,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11919,10 +11907,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11948,10 +11936,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11977,10 +11965,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F292" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12006,10 +11994,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F293" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12035,10 +12023,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12064,10 +12052,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F295" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12093,10 +12081,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F296" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12122,10 +12110,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F297" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12151,10 +12139,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F298" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12180,10 +12168,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F299" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12209,10 +12197,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F300" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12238,10 +12226,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12267,10 +12255,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12296,10 +12284,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12325,10 +12313,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12354,10 +12342,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12383,10 +12371,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12412,10 +12400,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12441,10 +12429,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F308" t="s">
-        <v>398</v>
+        <v>34</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12470,10 +12458,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F309" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12499,10 +12487,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F310" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -12528,10 +12516,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F311" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -12557,10 +12545,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F312" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12586,10 +12574,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F313" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12615,10 +12603,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F314" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12644,10 +12632,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F315" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12673,10 +12661,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F316" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12702,10 +12690,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F317" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12731,10 +12719,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F318" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12760,10 +12748,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F319" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12789,10 +12777,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F320" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12818,10 +12806,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F321" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12847,10 +12835,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F322" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12876,10 +12864,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F323" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12905,10 +12893,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F324" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12934,10 +12922,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F325" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12963,10 +12951,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F326" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12992,10 +12980,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F327" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13021,10 +13009,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F328" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13050,10 +13038,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F329" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13079,10 +13067,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F330" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13108,10 +13096,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F331" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13137,10 +13125,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F332" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13166,10 +13154,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F333" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13195,10 +13183,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F334" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13224,10 +13212,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F335" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13253,10 +13241,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F336" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13282,10 +13270,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F337" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -13311,10 +13299,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F338" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G338" t="n">
         <v>3</v>
@@ -13340,10 +13328,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F339" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13369,10 +13357,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F340" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13398,10 +13386,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F341" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -13427,10 +13415,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F342" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G342" t="n">
         <v>3</v>
@@ -13456,10 +13444,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F343" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13485,10 +13473,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F344" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13514,10 +13502,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F345" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -13543,10 +13531,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F346" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13572,10 +13560,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F347" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13601,10 +13589,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F348" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13630,10 +13618,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F349" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13659,10 +13647,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F350" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13688,10 +13676,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F351" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13717,10 +13705,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F352" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13746,10 +13734,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F353" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -13775,10 +13763,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F354" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13804,10 +13792,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F355" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13833,10 +13821,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F356" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13862,10 +13850,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F357" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13891,10 +13879,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F358" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13920,10 +13908,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F359" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13949,10 +13937,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F360" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13978,10 +13966,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F361" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14007,10 +13995,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F362" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14036,10 +14024,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F363" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14065,10 +14053,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F364" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14094,10 +14082,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F365" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14123,10 +14111,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F366" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14152,10 +14140,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F367" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14181,10 +14169,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F368" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14210,10 +14198,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F369" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14239,10 +14227,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F370" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G370" t="n">
         <v>4</v>
@@ -14268,10 +14256,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F371" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14297,10 +14285,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F372" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14326,10 +14314,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F373" t="s">
-        <v>718</v>
+        <v>261</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14355,10 +14343,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F374" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14384,10 +14372,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F375" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -14413,10 +14401,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F376" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14442,10 +14430,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F377" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14471,10 +14459,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F378" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -14500,10 +14488,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F379" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14529,10 +14517,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F380" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14558,10 +14546,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F381" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14587,10 +14575,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F382" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14616,10 +14604,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F383" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14645,10 +14633,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F384" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14674,10 +14662,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F385" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14703,10 +14691,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F386" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14732,10 +14720,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F387" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14761,10 +14749,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F388" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14790,10 +14778,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F389" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14819,10 +14807,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F390" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14848,10 +14836,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F391" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14877,10 +14865,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F392" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14906,10 +14894,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F393" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G393" t="n">
         <v>2</v>
@@ -14935,10 +14923,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F394" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14964,10 +14952,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F395" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14993,10 +14981,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F396" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15022,10 +15010,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
+        <v>258</v>
+      </c>
+      <c r="F397" t="s">
         <v>259</v>
-      </c>
-      <c r="F397" t="s">
-        <v>260</v>
       </c>
       <c r="G397" t="n">
         <v>6</v>
@@ -15051,10 +15039,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F398" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15080,10 +15068,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F399" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15109,10 +15097,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F400" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15138,10 +15126,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F401" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15167,10 +15155,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F402" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15196,10 +15184,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F403" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15225,10 +15213,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
+        <v>256</v>
+      </c>
+      <c r="F404" t="s">
         <v>257</v>
-      </c>
-      <c r="F404" t="s">
-        <v>258</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -15254,10 +15242,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F405" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15283,10 +15271,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F406" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15312,10 +15300,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F407" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15341,10 +15329,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F408" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15370,10 +15358,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F409" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15399,10 +15387,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F410" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15428,10 +15416,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F411" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15457,10 +15445,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F412" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15486,10 +15474,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F413" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -15515,10 +15503,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F414" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -15544,10 +15532,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F415" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15573,10 +15561,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F416" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15602,10 +15590,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F417" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15631,10 +15619,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F418" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15660,10 +15648,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F419" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15689,10 +15677,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F420" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15718,10 +15706,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F421" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15747,10 +15735,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="F422" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15776,10 +15764,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="F423" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15805,10 +15793,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F424" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15834,10 +15822,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="F425" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15863,10 +15851,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="F426" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15892,10 +15880,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="F427" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15921,10 +15909,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F428" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15950,10 +15938,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="F429" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15979,10 +15967,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F430" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16008,10 +15996,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="F431" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16037,10 +16025,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F432" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16066,10 +16054,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="F433" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16095,10 +16083,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F434" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16124,10 +16112,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F435" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16153,10 +16141,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="F436" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16182,10 +16170,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F437" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16211,10 +16199,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F438" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16240,10 +16228,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
+        <v>200</v>
+      </c>
+      <c r="F439" t="s">
         <v>201</v>
-      </c>
-      <c r="F439" t="s">
-        <v>202</v>
       </c>
       <c r="G439" t="n">
         <v>4</v>
@@ -16269,10 +16257,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
+        <v>150</v>
+      </c>
+      <c r="F440" t="s">
         <v>151</v>
-      </c>
-      <c r="F440" t="s">
-        <v>152</v>
       </c>
       <c r="G440" t="n">
         <v>6</v>
@@ -16298,10 +16286,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
+        <v>250</v>
+      </c>
+      <c r="F441" t="s">
         <v>251</v>
-      </c>
-      <c r="F441" t="s">
-        <v>252</v>
       </c>
       <c r="G441" t="n">
         <v>2</v>
@@ -16327,10 +16315,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F442" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16356,10 +16344,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F443" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16385,10 +16373,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F444" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16414,10 +16402,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F445" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16443,10 +16431,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F446" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16472,10 +16460,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F447" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16501,10 +16489,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F448" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16530,10 +16518,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F449" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16559,10 +16547,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="F450" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16588,10 +16576,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F451" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G451" t="n">
         <v>2</v>
@@ -16617,10 +16605,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F452" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="G452" t="n">
         <v>2</v>
@@ -16646,10 +16634,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="F453" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="G453" t="n">
         <v>2</v>
@@ -16675,10 +16663,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="F454" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16704,10 +16692,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="F455" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16733,10 +16721,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="F456" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16762,10 +16750,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="F457" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16791,10 +16779,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F458" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16820,10 +16808,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F459" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="G459" t="n">
         <v>2</v>
@@ -16849,10 +16837,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F460" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16878,10 +16866,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="F461" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="G461" t="n">
         <v>2</v>
@@ -16907,10 +16895,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F462" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16936,10 +16924,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="F463" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16965,10 +16953,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="F464" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16994,10 +16982,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F465" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17023,10 +17011,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="F466" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17052,10 +17040,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="F467" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17081,10 +17069,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="F468" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17110,10 +17098,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="F469" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G469" t="n">
         <v>2</v>
@@ -17139,10 +17127,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="F470" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17168,10 +17156,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="F471" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17197,10 +17185,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="F472" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17226,10 +17214,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="F473" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17255,10 +17243,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F474" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G474" t="n">
         <v>2</v>
@@ -17284,10 +17272,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="F475" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="G475" t="n">
         <v>2</v>
@@ -17313,10 +17301,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
+        <v>266</v>
+      </c>
+      <c r="F476" t="s">
         <v>267</v>
-      </c>
-      <c r="F476" t="s">
-        <v>268</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17342,10 +17330,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="F477" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17371,10 +17359,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="F478" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17400,10 +17388,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F479" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="G479" t="n">
         <v>2</v>
@@ -17429,10 +17417,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F480" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="G480" t="n">
         <v>2</v>
@@ -17458,10 +17446,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="F481" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="G481" t="n">
         <v>4</v>
@@ -17487,10 +17475,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F482" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="G482" t="n">
         <v>2</v>
@@ -17516,10 +17504,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="F483" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="G483" t="n">
         <v>2</v>
@@ -17545,10 +17533,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="F484" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17574,10 +17562,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F485" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17603,10 +17591,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="F486" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17632,10 +17620,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="F487" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17661,10 +17649,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="F488" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17690,10 +17678,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="F489" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17719,10 +17707,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F490" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17748,10 +17736,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F491" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17777,10 +17765,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F492" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17806,10 +17794,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F493" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17835,10 +17823,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F494" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="G494" t="n">
         <v>2</v>
@@ -17864,10 +17852,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F495" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17893,10 +17881,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="F496" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="G496" t="n">
         <v>2</v>
@@ -17922,10 +17910,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F497" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17951,10 +17939,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F498" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17980,10 +17968,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="F499" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18009,10 +17997,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="F500" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18038,10 +18026,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F501" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18067,10 +18055,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F502" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18096,10 +18084,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F503" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18125,10 +18113,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F504" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18154,10 +18142,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F505" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18183,10 +18171,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F506" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18212,10 +18200,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F507" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18241,10 +18229,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F508" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18270,10 +18258,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F509" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="G509" t="n">
         <v>2</v>
@@ -18299,10 +18287,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F510" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18328,10 +18316,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F511" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18357,10 +18345,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="F512" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18386,10 +18374,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F513" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="G513" t="n">
         <v>2</v>
@@ -18415,10 +18403,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F514" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18444,10 +18432,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F515" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18473,10 +18461,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F516" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18502,10 +18490,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="F517" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18531,10 +18519,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F518" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="G518" t="n">
         <v>2</v>
@@ -18560,10 +18548,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="F519" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18589,10 +18577,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="F520" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18618,10 +18606,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="F521" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18647,10 +18635,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="F522" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18676,10 +18664,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F523" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18705,10 +18693,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="F524" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18734,10 +18722,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F525" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18763,10 +18751,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="F526" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18792,10 +18780,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="F527" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18821,10 +18809,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="F528" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18850,10 +18838,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F529" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -18879,10 +18867,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F530" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="G530" t="n">
         <v>2</v>
@@ -18908,10 +18896,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F531" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -18937,10 +18925,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="F532" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -18966,10 +18954,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="F533" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -18995,10 +18983,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="F534" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="G534" t="n">
         <v>2</v>
@@ -19024,10 +19012,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F535" t="s">
-        <v>1020</v>
+        <v>287</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19053,10 +19041,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="F536" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19082,10 +19070,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="F537" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19111,10 +19099,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="F538" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19140,10 +19128,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="F539" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19169,10 +19157,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="F540" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19198,10 +19186,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="F541" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19227,10 +19215,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F542" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19256,10 +19244,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="F543" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="G543" t="n">
         <v>3</v>
@@ -19285,10 +19273,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="F544" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19314,10 +19302,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="F545" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19343,10 +19331,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F546" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19372,10 +19360,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="F547" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19401,10 +19389,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="F548" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19430,10 +19418,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="F549" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19459,10 +19447,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="F550" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="G550" t="n">
         <v>13</v>
@@ -19488,10 +19476,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="F551" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
